--- a/legendre_out/DATA/p2/p2IntegrandSplinePoints8.000000.xlsx
+++ b/legendre_out/DATA/p2/p2IntegrandSplinePoints8.000000.xlsx
@@ -386,7 +386,7 @@
         <v>3.434374559103622</v>
       </c>
       <c r="C2" t="n">
-        <v>2.612681879564102e-06</v>
+        <v>2.565693454157693e-06</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.434713025603331</v>
       </c>
       <c r="C3" t="n">
-        <v>2.608190411075284e-06</v>
+        <v>2.632834260653872e-06</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.435051492103041</v>
       </c>
       <c r="C4" t="n">
-        <v>2.630260090223908e-06</v>
+        <v>2.709915981623852e-06</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.43538995860275</v>
       </c>
       <c r="C5" t="n">
-        <v>2.676939082990471e-06</v>
+        <v>2.796428735582771e-06</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.43572842510246</v>
       </c>
       <c r="C6" t="n">
-        <v>2.746275555355534e-06</v>
+        <v>2.891862641046064e-06</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.436066891602169</v>
       </c>
       <c r="C7" t="n">
-        <v>2.836317673299653e-06</v>
+        <v>2.995707816529074e-06</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.436405358101879</v>
       </c>
       <c r="C8" t="n">
-        <v>2.945113602803534e-06</v>
+        <v>3.107454380547292e-06</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.436743824601588</v>
       </c>
       <c r="C9" t="n">
-        <v>3.070711509847444e-06</v>
+        <v>3.226592451615767e-06</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.437082291101297</v>
       </c>
       <c r="C10" t="n">
-        <v>3.211159560412065e-06</v>
+        <v>3.35261214824998e-06</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.437420757601007</v>
       </c>
       <c r="C11" t="n">
-        <v>3.364505920478161e-06</v>
+        <v>3.485003588965451e-06</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.437759224100716</v>
       </c>
       <c r="C12" t="n">
-        <v>3.52879875602588e-06</v>
+        <v>3.623256892277175e-06</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.438097690600425</v>
       </c>
       <c r="C13" t="n">
-        <v>3.702086233035967e-06</v>
+        <v>3.76686217670066e-06</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.438436157100135</v>
       </c>
       <c r="C14" t="n">
-        <v>3.882416517489217e-06</v>
+        <v>3.915309560751445e-06</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.438774623599844</v>
       </c>
       <c r="C15" t="n">
-        <v>4.06783777536571e-06</v>
+        <v>4.068089162944484e-06</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.439113090099553</v>
       </c>
       <c r="C16" t="n">
-        <v>4.256398172646225e-06</v>
+        <v>4.224691101795306e-06</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.439451556599263</v>
       </c>
       <c r="C17" t="n">
-        <v>4.446145875311323e-06</v>
+        <v>4.384605495819256e-06</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.439790023098972</v>
       </c>
       <c r="C18" t="n">
-        <v>4.635129049341799e-06</v>
+        <v>4.547322463531887e-06</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.440128489598682</v>
       </c>
       <c r="C19" t="n">
-        <v>4.82139586071771e-06</v>
+        <v>4.712332123448116e-06</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.440466956098391</v>
       </c>
       <c r="C20" t="n">
-        <v>5.003047002487223e-06</v>
+        <v>4.879123554541837e-06</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.440805422598101</v>
       </c>
       <c r="C21" t="n">
-        <v>5.179239473333057e-06</v>
+        <v>5.047164930875168e-06</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.44114388909781</v>
       </c>
       <c r="C22" t="n">
-        <v>5.350108543533447e-06</v>
+        <v>5.215905065937435e-06</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.441482355597519</v>
       </c>
       <c r="C23" t="n">
-        <v>5.515826374805595e-06</v>
+        <v>5.384792043115299e-06</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.441820822097228</v>
       </c>
       <c r="C24" t="n">
-        <v>5.676565128866463e-06</v>
+        <v>5.553273945795199e-06</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.442159288596938</v>
       </c>
       <c r="C25" t="n">
-        <v>5.832496967433216e-06</v>
+        <v>5.720798857363796e-06</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.442497755096647</v>
       </c>
       <c r="C26" t="n">
-        <v>5.983794052222406e-06</v>
+        <v>5.886814861207082e-06</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.442836221596357</v>
       </c>
       <c r="C27" t="n">
-        <v>6.130628544951207e-06</v>
+        <v>6.050770040711725e-06</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.443174688096066</v>
       </c>
       <c r="C28" t="n">
-        <v>6.273172607336766e-06</v>
+        <v>6.212112479264369e-06</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.443513154595776</v>
       </c>
       <c r="C29" t="n">
-        <v>6.41159840109567e-06</v>
+        <v>6.370290260251032e-06</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.443851621095485</v>
       </c>
       <c r="C30" t="n">
-        <v>6.546078087945076e-06</v>
+        <v>6.524751467058366e-06</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.444190087595194</v>
       </c>
       <c r="C31" t="n">
-        <v>6.676783829601944e-06</v>
+        <v>6.674944183072809e-06</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.444528554094904</v>
       </c>
       <c r="C32" t="n">
-        <v>6.803887787783403e-06</v>
+        <v>6.820316491680991e-06</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.444867020594613</v>
       </c>
       <c r="C33" t="n">
-        <v>6.92756212420608e-06</v>
+        <v>6.960316476268964e-06</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.445205487094322</v>
       </c>
       <c r="C34" t="n">
-        <v>7.047979000587112e-06</v>
+        <v>7.094392220223365e-06</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.445543953594032</v>
       </c>
       <c r="C35" t="n">
-        <v>7.165310578643614e-06</v>
+        <v>7.221991806930798e-06</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.445882420093741</v>
       </c>
       <c r="C36" t="n">
-        <v>7.279647390318437e-06</v>
+        <v>7.342593809634062e-06</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.44622088659345</v>
       </c>
       <c r="C37" t="n">
-        <v>7.390533640748525e-06</v>
+        <v>7.455880862242831e-06</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.44655935309316</v>
       </c>
       <c r="C38" t="n">
-        <v>7.497289310804982e-06</v>
+        <v>7.56161934955095e-06</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>3.446897819592869</v>
       </c>
       <c r="C39" t="n">
-        <v>7.599233697713995e-06</v>
+        <v>7.659575911702582e-06</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>3.447236286092579</v>
       </c>
       <c r="C40" t="n">
-        <v>7.695686098702186e-06</v>
+        <v>7.74951718884231e-06</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>3.447574752592288</v>
       </c>
       <c r="C41" t="n">
-        <v>7.785965810996023e-06</v>
+        <v>7.831209821114579e-06</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>3.447913219091998</v>
       </c>
       <c r="C42" t="n">
-        <v>7.869392131822087e-06</v>
+        <v>7.904420448663916e-06</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>3.448251685591707</v>
       </c>
       <c r="C43" t="n">
-        <v>7.945284358406633e-06</v>
+        <v>7.968915711634573e-06</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>3.448590152091416</v>
       </c>
       <c r="C44" t="n">
-        <v>8.012961787976241e-06</v>
+        <v>8.024462250171088e-06</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>3.448928618591126</v>
       </c>
       <c r="C45" t="n">
-        <v>8.071743717757466e-06</v>
+        <v>8.070826704417964e-06</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>3.449267085090835</v>
       </c>
       <c r="C46" t="n">
-        <v>8.120949444976622e-06</v>
+        <v>8.107775714519517e-06</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>3.449605551590544</v>
       </c>
       <c r="C47" t="n">
-        <v>8.159898266860263e-06</v>
+        <v>8.13507592062025e-06</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>3.449944018090254</v>
       </c>
       <c r="C48" t="n">
-        <v>8.187909480634868e-06</v>
+        <v>8.152493962864611e-06</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>3.450282484589963</v>
       </c>
       <c r="C49" t="n">
-        <v>8.204302383526917e-06</v>
+        <v>8.15979648139704e-06</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>3.450620951089673</v>
       </c>
       <c r="C50" t="n">
-        <v>8.208396272762846e-06</v>
+        <v>8.15675011636196e-06</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>3.450959417589382</v>
       </c>
       <c r="C51" t="n">
-        <v>8.199610141678486e-06</v>
+        <v>8.143193379332377e-06</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>3.451297884089092</v>
       </c>
       <c r="C52" t="n">
-        <v>8.178644675010991e-06</v>
+        <v>8.119888759683348e-06</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3.451636350588801</v>
       </c>
       <c r="C53" t="n">
-        <v>8.147089724822236e-06</v>
+        <v>8.088239752003459e-06</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.45197481708851</v>
       </c>
       <c r="C54" t="n">
-        <v>8.106553029268559e-06</v>
+        <v>8.049662745057073e-06</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>3.45231328358822</v>
       </c>
       <c r="C55" t="n">
-        <v>8.058642326506254e-06</v>
+        <v>8.005574127608518e-06</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>3.452651750087929</v>
       </c>
       <c r="C56" t="n">
-        <v>8.004965354691809e-06</v>
+        <v>7.957390288422293e-06</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>3.452990216587638</v>
       </c>
       <c r="C57" t="n">
-        <v>7.94712985198153e-06</v>
+        <v>7.906527616262734e-06</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>3.453328683087348</v>
       </c>
       <c r="C58" t="n">
-        <v>7.886743556531774e-06</v>
+        <v>7.854402499894228e-06</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>3.453667149587057</v>
       </c>
       <c r="C59" t="n">
-        <v>7.825414206498821e-06</v>
+        <v>7.802431328081092e-06</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>3.454005616086766</v>
       </c>
       <c r="C60" t="n">
-        <v>7.764749540039199e-06</v>
+        <v>7.752030489587849e-06</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>3.454344082586476</v>
       </c>
       <c r="C61" t="n">
-        <v>7.706357295309186e-06</v>
+        <v>7.70461637317882e-06</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>3.454682549086185</v>
       </c>
       <c r="C62" t="n">
-        <v>7.651845210465073e-06</v>
+        <v>7.661605367618338e-06</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>3.455021015585895</v>
       </c>
       <c r="C63" t="n">
-        <v>7.6027747724466e-06</v>
+        <v>7.624368750693632e-06</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>3.455359482085604</v>
       </c>
       <c r="C64" t="n">
-        <v>7.559569988054116e-06</v>
+        <v>7.593168362553354e-06</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>3.455697948585313</v>
       </c>
       <c r="C65" t="n">
-        <v>7.521474866120365e-06</v>
+        <v>7.567115136078907e-06</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>3.456036415085023</v>
       </c>
       <c r="C66" t="n">
-        <v>7.487678657105525e-06</v>
+        <v>7.545266595747075e-06</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>3.456374881584732</v>
       </c>
       <c r="C67" t="n">
-        <v>7.457370611469894e-06</v>
+        <v>7.526680266034707e-06</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>3.456713348084441</v>
       </c>
       <c r="C68" t="n">
-        <v>7.429739979673642e-06</v>
+        <v>7.510413671418579e-06</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>3.457051814584151</v>
       </c>
       <c r="C69" t="n">
-        <v>7.403976012176955e-06</v>
+        <v>7.495524336375475e-06</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>3.45739028108386</v>
       </c>
       <c r="C70" t="n">
-        <v>7.379267959440112e-06</v>
+        <v>7.481069785382233e-06</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>3.45772874758357</v>
       </c>
       <c r="C71" t="n">
-        <v>7.354805071923297e-06</v>
+        <v>7.466107542915638e-06</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>3.458067214083279</v>
       </c>
       <c r="C72" t="n">
-        <v>7.32977660008669e-06</v>
+        <v>7.449695133452467e-06</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>3.458405680582989</v>
       </c>
       <c r="C73" t="n">
-        <v>7.303371794390576e-06</v>
+        <v>7.430890081469567e-06</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>3.458744147082698</v>
       </c>
       <c r="C74" t="n">
-        <v>7.274779905295134e-06</v>
+        <v>7.40874991144372e-06</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>3.459082613582407</v>
       </c>
       <c r="C75" t="n">
-        <v>7.243190183260583e-06</v>
+        <v>7.382332147851727e-06</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>3.459421080082117</v>
       </c>
       <c r="C76" t="n">
-        <v>7.207791878747083e-06</v>
+        <v>7.350694315170342e-06</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>3.459759546581826</v>
       </c>
       <c r="C77" t="n">
-        <v>7.167774242214951e-06</v>
+        <v>7.312893937876457e-06</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>3.460098013081535</v>
       </c>
       <c r="C78" t="n">
-        <v>7.122326524124354e-06</v>
+        <v>7.26798854044683e-06</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>3.460436479581245</v>
       </c>
       <c r="C79" t="n">
-        <v>7.070637974935439e-06</v>
+        <v>7.215035647358193e-06</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>3.460774946080954</v>
       </c>
       <c r="C80" t="n">
-        <v>7.011897845108553e-06</v>
+        <v>7.153092783087484e-06</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>3.461113412580664</v>
       </c>
       <c r="C81" t="n">
-        <v>6.94529538510385e-06</v>
+        <v>7.08121747211144e-06</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>3.461451879080373</v>
       </c>
       <c r="C82" t="n">
-        <v>6.870019845381546e-06</v>
+        <v>6.998467238906867e-06</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>3.461790345580082</v>
       </c>
       <c r="C83" t="n">
-        <v>6.785260476401739e-06</v>
+        <v>6.903899607950434e-06</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>3.462128812079792</v>
       </c>
       <c r="C84" t="n">
-        <v>6.690206528624866e-06</v>
+        <v>6.796572103719188e-06</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>3.462467278579501</v>
       </c>
       <c r="C85" t="n">
-        <v>6.584047252511039e-06</v>
+        <v>6.675542250689818e-06</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>3.462805745079211</v>
       </c>
       <c r="C86" t="n">
-        <v>6.46597189852031e-06</v>
+        <v>6.53986757333894e-06</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>3.46314421157892</v>
       </c>
       <c r="C87" t="n">
-        <v>6.335169717113206e-06</v>
+        <v>6.388605596143708e-06</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>3.463482678078629</v>
       </c>
       <c r="C88" t="n">
-        <v>6.190829958749793e-06</v>
+        <v>6.220813843580759e-06</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>3.463821144578338</v>
       </c>
       <c r="C89" t="n">
-        <v>6.032839935809445e-06</v>
+        <v>6.036518042812027e-06</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>3.464159611078048</v>
       </c>
       <c r="C90" t="n">
-        <v>5.864715586174846e-06</v>
+        <v>5.840776776766654e-06</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>3.464498077577757</v>
       </c>
       <c r="C91" t="n">
-        <v>5.691148193750892e-06</v>
+        <v>5.64027881782164e-06</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>3.464836544077467</v>
       </c>
       <c r="C92" t="n">
-        <v>5.516829645453944e-06</v>
+        <v>5.441713774723091e-06</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>3.465175010577176</v>
       </c>
       <c r="C93" t="n">
-        <v>5.346451828200363e-06</v>
+        <v>5.251771256217127e-06</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>3.465513477076886</v>
       </c>
       <c r="C94" t="n">
-        <v>5.18470662890718e-06</v>
+        <v>5.077140871050614e-06</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>3.465851943576595</v>
       </c>
       <c r="C95" t="n">
-        <v>5.036285934490749e-06</v>
+        <v>4.924512227969656e-06</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>3.466190410076305</v>
       </c>
       <c r="C96" t="n">
-        <v>4.90588163186749e-06</v>
+        <v>4.80057493572047e-06</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>3.466528876576014</v>
       </c>
       <c r="C97" t="n">
-        <v>4.798185607954328e-06</v>
+        <v>4.71201860304975e-06</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>3.466867343075723</v>
       </c>
       <c r="C98" t="n">
-        <v>4.717889749667663e-06</v>
+        <v>4.665532838703675e-06</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>3.467205809575432</v>
       </c>
       <c r="C99" t="n">
-        <v>4.669685943924068e-06</v>
+        <v>4.667807251428599e-06</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>3.467544276075142</v>
       </c>
       <c r="C100" t="n">
-        <v>4.658266077640136e-06</v>
+        <v>4.725531449971002e-06</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>3.467882742574851</v>
       </c>
       <c r="C101" t="n">
-        <v>4.688322037732483e-06</v>
+        <v>4.845395043077097e-06</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>3.686414373908955</v>
       </c>
       <c r="C102" t="n">
-        <v>2.964260358912338e-06</v>
+        <v>2.982227815159134e-06</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>3.687400208962555</v>
       </c>
       <c r="C103" t="n">
-        <v>3.84796097882527e-06</v>
+        <v>3.883034453830862e-06</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>3.688386044016154</v>
       </c>
       <c r="C104" t="n">
-        <v>3.686217859922123e-06</v>
+        <v>3.776446654066407e-06</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>3.689371879069753</v>
       </c>
       <c r="C105" t="n">
-        <v>5.092238349825334e-06</v>
+        <v>5.130082412004413e-06</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>3.690357714123353</v>
       </c>
       <c r="C106" t="n">
-        <v>6.42876325479329e-06</v>
+        <v>6.399506566281895e-06</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>3.691343549176952</v>
       </c>
       <c r="C107" t="n">
-        <v>6.584988661909286e-06</v>
+        <v>6.559161690007621e-06</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>3.692329384230551</v>
       </c>
       <c r="C108" t="n">
-        <v>1.087214078988496e-05</v>
+        <v>1.091308484755993e-05</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>3.693315219284151</v>
       </c>
       <c r="C109" t="n">
-        <v>2.889176013775836e-05</v>
+        <v>2.899386627270686e-05</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>3.69430105433775</v>
       </c>
       <c r="C110" t="n">
-        <v>5.850053563840468e-05</v>
+        <v>5.865760761913434e-05</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>3.695286889391349</v>
       </c>
       <c r="C111" t="n">
-        <v>7.31305966269137e-05</v>
+        <v>7.340440475055252e-05</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>3.696272724444948</v>
       </c>
       <c r="C112" t="n">
-        <v>7.766837834330633e-05</v>
+        <v>7.783411994938724e-05</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>3.697258559498548</v>
       </c>
       <c r="C113" t="n">
-        <v>7.832963927946589e-05</v>
+        <v>7.819368837017678e-05</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>3.698244394552147</v>
       </c>
       <c r="C114" t="n">
-        <v>7.602603829942001e-05</v>
+        <v>7.582749117006422e-05</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>3.699230229605746</v>
       </c>
       <c r="C115" t="n">
-        <v>7.249542398438393e-05</v>
+        <v>7.247128650155251e-05</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>3.700216064659346</v>
       </c>
       <c r="C116" t="n">
-        <v>6.9828913712969e-05</v>
+        <v>6.995295934355579e-05</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>3.701201899712945</v>
       </c>
       <c r="C117" t="n">
-        <v>6.825697012689279e-05</v>
+        <v>6.830181275005597e-05</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>3.702187734766544</v>
       </c>
       <c r="C118" t="n">
-        <v>6.775028046698466e-05</v>
+        <v>6.754931095394686e-05</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>3.703173569820144</v>
       </c>
       <c r="C119" t="n">
-        <v>6.929257948109165e-05</v>
+        <v>6.935469091514727e-05</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>3.704159404873743</v>
       </c>
       <c r="C120" t="n">
-        <v>6.804534992451158e-05</v>
+        <v>6.821748517211593e-05</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>3.705145239927342</v>
       </c>
       <c r="C121" t="n">
-        <v>6.660081704871123e-05</v>
+        <v>6.651063938197981e-05</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>3.706131074980942</v>
       </c>
       <c r="C122" t="n">
-        <v>6.767080564463313e-05</v>
+        <v>6.750268556283169e-05</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>3.707116910034541</v>
       </c>
       <c r="C123" t="n">
-        <v>6.760519285324351e-05</v>
+        <v>6.747327306339585e-05</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>3.70810274508814</v>
       </c>
       <c r="C124" t="n">
-        <v>6.672298989294015e-05</v>
+        <v>6.666064468682362e-05</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>3.709088580141739</v>
       </c>
       <c r="C125" t="n">
-        <v>6.584717882666273e-05</v>
+        <v>6.583472287634946e-05</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>3.710074415195339</v>
       </c>
       <c r="C126" t="n">
-        <v>6.486662880627244e-05</v>
+        <v>6.488225716523181e-05</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>3.711060250248938</v>
       </c>
       <c r="C127" t="n">
-        <v>6.356901405992305e-05</v>
+        <v>6.359432062814955e-05</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>3.712046085302537</v>
       </c>
       <c r="C128" t="n">
-        <v>6.174593775460689e-05</v>
+        <v>6.176609619177846e-05</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>3.713031920356137</v>
       </c>
       <c r="C129" t="n">
-        <v>5.922909098252299e-05</v>
+        <v>5.923470060926462e-05</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>3.714017755409736</v>
       </c>
       <c r="C130" t="n">
-        <v>5.587360110042735e-05</v>
+        <v>5.586176605194961e-05</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>3.715003590463335</v>
       </c>
       <c r="C131" t="n">
-        <v>5.154127435584834e-05</v>
+        <v>5.151563393825409e-05</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>3.715989425516934</v>
       </c>
       <c r="C132" t="n">
-        <v>4.634207535429938e-05</v>
+        <v>4.631345648008577e-05</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>3.716975260570534</v>
       </c>
       <c r="C133" t="n">
-        <v>4.070832042397318e-05</v>
+        <v>4.069558511001533e-05</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>3.717961095624133</v>
       </c>
       <c r="C134" t="n">
-        <v>3.509386771644207e-05</v>
+        <v>3.512396971980598e-05</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>3.718946930677732</v>
       </c>
       <c r="C135" t="n">
-        <v>2.989793110230018e-05</v>
+        <v>3.000044659120102e-05</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>3.719932765731332</v>
       </c>
       <c r="C136" t="n">
-        <v>2.515935187659056e-05</v>
+        <v>2.533040985168671e-05</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>3.720918600784931</v>
       </c>
       <c r="C137" t="n">
-        <v>2.077165378590365e-05</v>
+        <v>2.095951677843481e-05</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>3.72190443583853</v>
       </c>
       <c r="C138" t="n">
-        <v>1.672381626714739e-05</v>
+        <v>1.685754163767574e-05</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>3.722890270892129</v>
       </c>
       <c r="C139" t="n">
-        <v>1.320266845101106e-05</v>
+        <v>1.325134342712931e-05</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>3.723876105945729</v>
       </c>
       <c r="C140" t="n">
-        <v>1.041075780723196e-05</v>
+        <v>1.03894179741256e-05</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>3.724861940999328</v>
       </c>
       <c r="C141" t="n">
-        <v>8.377968577530429e-06</v>
+        <v>8.319886230445054e-06</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>3.725847776052927</v>
       </c>
       <c r="C142" t="n">
-        <v>6.975831769340053e-06</v>
+        <v>6.907100953694212e-06</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>3.726833611106527</v>
       </c>
       <c r="C143" t="n">
-        <v>6.070017640014021e-06</v>
+        <v>6.008613528184943e-06</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>3.727819446160126</v>
       </c>
       <c r="C144" t="n">
-        <v>5.526196446906602e-06</v>
+        <v>5.481975338230171e-06</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>3.728805281213725</v>
       </c>
       <c r="C145" t="n">
-        <v>5.210038447370795e-06</v>
+        <v>5.184737768141564e-06</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>3.729791116267324</v>
       </c>
       <c r="C146" t="n">
-        <v>4.992422030465225e-06</v>
+        <v>4.980040564317006e-06</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>3.730776951320924</v>
       </c>
       <c r="C147" t="n">
-        <v>4.815773160334446e-06</v>
+        <v>4.807794526302289e-06</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>3.731762786374523</v>
       </c>
       <c r="C148" t="n">
-        <v>4.674503674957369e-06</v>
+        <v>4.663691663254875e-06</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>3.732748621428122</v>
       </c>
       <c r="C149" t="n">
-        <v>4.564195665827894e-06</v>
+        <v>4.544679674615093e-06</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>3.733734456481722</v>
       </c>
       <c r="C150" t="n">
-        <v>4.480431224439981e-06</v>
+        <v>4.447706259823322e-06</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>3.734720291535321</v>
       </c>
       <c r="C151" t="n">
-        <v>4.418792442287694e-06</v>
+        <v>4.369719118320057e-06</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>3.73570612658892</v>
       </c>
       <c r="C152" t="n">
-        <v>4.374861410864984e-06</v>
+        <v>4.30766594954567e-06</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>3.736691961642519</v>
       </c>
       <c r="C153" t="n">
-        <v>4.344220221665836e-06</v>
+        <v>4.258494452940571e-06</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>3.737677796696119</v>
       </c>
       <c r="C154" t="n">
-        <v>4.322450966184236e-06</v>
+        <v>4.219152327945159e-06</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>3.738663631749718</v>
       </c>
       <c r="C155" t="n">
-        <v>4.305716800213007e-06</v>
+        <v>4.186971097010371e-06</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>3.739649466803317</v>
       </c>
       <c r="C156" t="n">
-        <v>4.293059472353186e-06</v>
+        <v>4.161183741960666e-06</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>3.740635301856917</v>
       </c>
       <c r="C157" t="n">
-        <v>4.284410506995457e-06</v>
+        <v>4.141610987531129e-06</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>3.741621136910516</v>
       </c>
       <c r="C158" t="n">
-        <v>4.279701689017909e-06</v>
+        <v>4.128073730522256e-06</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>3.742606971964115</v>
       </c>
       <c r="C159" t="n">
-        <v>4.278864803298617e-06</v>
+        <v>4.120392867734522e-06</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>3.743592807017714</v>
       </c>
       <c r="C160" t="n">
-        <v>4.281831634715665e-06</v>
+        <v>4.118389295968409e-06</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>3.744578642071314</v>
       </c>
       <c r="C161" t="n">
-        <v>4.288533968147138e-06</v>
+        <v>4.121883912024403e-06</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>3.745564477124913</v>
       </c>
       <c r="C162" t="n">
-        <v>4.298903588471111e-06</v>
+        <v>4.130697612702982e-06</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>3.746550312178512</v>
       </c>
       <c r="C163" t="n">
-        <v>4.312872280565666e-06</v>
+        <v>4.14465129480463e-06</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>3.747536147232112</v>
       </c>
       <c r="C164" t="n">
-        <v>4.330371829308894e-06</v>
+        <v>4.163565855129838e-06</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>3.748521982285711</v>
       </c>
       <c r="C165" t="n">
-        <v>4.351334019578861e-06</v>
+        <v>4.187262190479072e-06</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>3.74950781733931</v>
       </c>
       <c r="C166" t="n">
-        <v>4.375690636253656e-06</v>
+        <v>4.215561197652825e-06</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>3.75049365239291</v>
       </c>
       <c r="C167" t="n">
-        <v>4.40337346421136e-06</v>
+        <v>4.248283773451574e-06</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>3.751479487446509</v>
       </c>
       <c r="C168" t="n">
-        <v>4.434314288330069e-06</v>
+        <v>4.285250814675822e-06</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>3.752465322500108</v>
       </c>
       <c r="C169" t="n">
-        <v>4.468444893487837e-06</v>
+        <v>4.326283218126018e-06</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>3.753451157553708</v>
       </c>
       <c r="C170" t="n">
-        <v>4.505697064562759e-06</v>
+        <v>4.371201880602662e-06</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>3.754436992607307</v>
       </c>
       <c r="C171" t="n">
-        <v>4.546002586432933e-06</v>
+        <v>4.419827698906257e-06</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>3.755422827660906</v>
       </c>
       <c r="C172" t="n">
-        <v>4.589293243976407e-06</v>
+        <v>4.471981569837241e-06</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>3.756408662714505</v>
       </c>
       <c r="C173" t="n">
-        <v>4.635500822071278e-06</v>
+        <v>4.527484390196118e-06</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>3.757394497768105</v>
       </c>
       <c r="C174" t="n">
-        <v>4.684557105595628e-06</v>
+        <v>4.586157056783374e-06</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>3.758380332821704</v>
       </c>
       <c r="C175" t="n">
-        <v>4.736393879427561e-06</v>
+        <v>4.647820466399515e-06</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>3.759366167875303</v>
       </c>
       <c r="C176" t="n">
-        <v>4.790942928445115e-06</v>
+        <v>4.712295515844971e-06</v>
       </c>
     </row>
     <row r="177">
@@ -2311,7 +2311,7 @@
         <v>3.760352002928903</v>
       </c>
       <c r="C177" t="n">
-        <v>4.848136037526394e-06</v>
+        <v>4.779403101920253e-06</v>
       </c>
     </row>
     <row r="178">
@@ -2322,7 +2322,7 @@
         <v>3.761337837982502</v>
       </c>
       <c r="C178" t="n">
-        <v>4.907904991549503e-06</v>
+        <v>4.848964121425871e-06</v>
       </c>
     </row>
     <row r="179">
@@ -2333,7 +2333,7 @@
         <v>3.762323673036101</v>
       </c>
       <c r="C179" t="n">
-        <v>4.970181575392471e-06</v>
+        <v>4.920799471162247e-06</v>
       </c>
     </row>
     <row r="180">
@@ -2344,7 +2344,7 @@
         <v>3.763309508089701</v>
       </c>
       <c r="C180" t="n">
-        <v>5.034897573933408e-06</v>
+        <v>4.994730047929896e-06</v>
       </c>
     </row>
     <row r="181">
@@ -2355,7 +2355,7 @@
         <v>3.7642953431433</v>
       </c>
       <c r="C181" t="n">
-        <v>5.101984772050393e-06</v>
+        <v>5.070576748529297e-06</v>
       </c>
     </row>
     <row r="182">
@@ -2366,7 +2366,7 @@
         <v>3.765281178196899</v>
       </c>
       <c r="C182" t="n">
-        <v>5.171374954621542e-06</v>
+        <v>5.148160469760972e-06</v>
       </c>
     </row>
     <row r="183">
@@ -2377,7 +2377,7 @@
         <v>3.766267013250499</v>
       </c>
       <c r="C183" t="n">
-        <v>5.24299990652487e-06</v>
+        <v>5.227302108425329e-06</v>
       </c>
     </row>
     <row r="184">
@@ -2388,7 +2388,7 @@
         <v>3.767252848304098</v>
       </c>
       <c r="C184" t="n">
-        <v>5.316791412638494e-06</v>
+        <v>5.307822561322889e-06</v>
       </c>
     </row>
     <row r="185">
@@ -2399,7 +2399,7 @@
         <v>3.768238683357697</v>
       </c>
       <c r="C185" t="n">
-        <v>5.392681257840491e-06</v>
+        <v>5.389542725254133e-06</v>
       </c>
     </row>
     <row r="186">
@@ -2410,7 +2410,7 @@
         <v>3.769224518411296</v>
       </c>
       <c r="C186" t="n">
-        <v>5.470601227008979e-06</v>
+        <v>5.472283497019581e-06</v>
       </c>
     </row>
     <row r="187">
@@ -2421,7 +2421,7 @@
         <v>3.770210353464896</v>
       </c>
       <c r="C187" t="n">
-        <v>5.550483105021971e-06</v>
+        <v>5.55586577341964e-06</v>
       </c>
     </row>
     <row r="188">
@@ -2432,7 +2432,7 @@
         <v>3.771196188518495</v>
       </c>
       <c r="C188" t="n">
-        <v>5.632258676757584e-06</v>
+        <v>5.640110451254833e-06</v>
       </c>
     </row>
     <row r="189">
@@ -2443,7 +2443,7 @@
         <v>3.772182023572094</v>
       </c>
       <c r="C189" t="n">
-        <v>5.715859766539733e-06</v>
+        <v>5.724838480361783e-06</v>
       </c>
     </row>
     <row r="190">
@@ -2454,7 +2454,7 @@
         <v>3.773167858625694</v>
       </c>
       <c r="C190" t="n">
-        <v>5.801359139990286e-06</v>
+        <v>5.810060310539197e-06</v>
       </c>
     </row>
     <row r="191">
@@ -2465,7 +2465,7 @@
         <v>3.774153693679293</v>
       </c>
       <c r="C191" t="n">
-        <v>5.889287063132059e-06</v>
+        <v>5.896401515115029e-06</v>
       </c>
     </row>
     <row r="192">
@@ -2476,7 +2476,7 @@
         <v>3.775139528732892</v>
       </c>
       <c r="C192" t="n">
-        <v>5.980266468316697e-06</v>
+        <v>5.984612260180683e-06</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2487,7 @@
         <v>3.776125363786492</v>
       </c>
       <c r="C193" t="n">
-        <v>6.074920287895721e-06</v>
+        <v>6.075442711827438e-06</v>
       </c>
     </row>
     <row r="194">
@@ -2498,7 +2498,7 @@
         <v>3.777111198840091</v>
       </c>
       <c r="C194" t="n">
-        <v>6.173871454220769e-06</v>
+        <v>6.169643036146698e-06</v>
       </c>
     </row>
     <row r="195">
@@ -2509,7 +2509,7 @@
         <v>3.77809703389369</v>
       </c>
       <c r="C195" t="n">
-        <v>6.277742899643452e-06</v>
+        <v>6.267963399229822e-06</v>
       </c>
     </row>
     <row r="196">
@@ -2520,7 +2520,7 @@
         <v>3.77908286894729</v>
       </c>
       <c r="C196" t="n">
-        <v>6.38715755651542e-06</v>
+        <v>6.371153967168225e-06</v>
       </c>
     </row>
     <row r="197">
@@ -2531,7 +2531,7 @@
         <v>3.780068704000889</v>
       </c>
       <c r="C197" t="n">
-        <v>6.502738357188175e-06</v>
+        <v>6.479964906053169e-06</v>
       </c>
     </row>
     <row r="198">
@@ -2542,7 +2542,7 @@
         <v>3.781054539054488</v>
       </c>
       <c r="C198" t="n">
-        <v>6.625108234013372e-06</v>
+        <v>6.595146381976068e-06</v>
       </c>
     </row>
     <row r="199">
@@ -2553,7 +2553,7 @@
         <v>3.782040374108087</v>
       </c>
       <c r="C199" t="n">
-        <v>6.754890119342611e-06</v>
+        <v>6.71744856102828e-06</v>
       </c>
     </row>
     <row r="200">
@@ -2564,7 +2564,7 @@
         <v>3.783026209161687</v>
       </c>
       <c r="C200" t="n">
-        <v>6.892706945527561e-06</v>
+        <v>6.847621609301227e-06</v>
       </c>
     </row>
     <row r="201">
@@ -2575,7 +2575,7 @@
         <v>3.784012044215286</v>
       </c>
       <c r="C201" t="n">
-        <v>7.039181644919699e-06</v>
+        <v>6.986415692886158e-06</v>
       </c>
     </row>
     <row r="202">
@@ -2586,7 +2586,7 @@
         <v>3.784997879268885</v>
       </c>
       <c r="C202" t="n">
-        <v>7.19493714987069e-06</v>
+        <v>7.134580977874485e-06</v>
       </c>
     </row>
     <row r="203">
@@ -2597,7 +2597,7 @@
         <v>3.785983714322485</v>
       </c>
       <c r="C203" t="n">
-        <v>7.360596392732214e-06</v>
+        <v>7.292867630357652e-06</v>
       </c>
     </row>
     <row r="204">
@@ -2608,7 +2608,7 @@
         <v>3.786969549376084</v>
       </c>
       <c r="C204" t="n">
-        <v>7.536782305855723e-06</v>
+        <v>7.46202581642687e-06</v>
       </c>
     </row>
     <row r="205">
@@ -2619,7 +2619,7 @@
         <v>3.787955384429683</v>
       </c>
       <c r="C205" t="n">
-        <v>7.724117821592893e-06</v>
+        <v>7.642805702173577e-06</v>
       </c>
     </row>
     <row r="206">
@@ -2630,7 +2630,7 @@
         <v>3.788941219483282</v>
       </c>
       <c r="C206" t="n">
-        <v>7.923225872295326e-06</v>
+        <v>7.83595745368913e-06</v>
       </c>
     </row>
     <row r="207">
@@ -2641,7 +2641,7 @@
         <v>3.789927054536882</v>
       </c>
       <c r="C207" t="n">
-        <v>8.134729390314726e-06</v>
+        <v>8.042231237064992e-06</v>
       </c>
     </row>
     <row r="208">
@@ -2652,7 +2652,7 @@
         <v>3.790912889590481</v>
       </c>
       <c r="C208" t="n">
-        <v>8.359251308002504e-06</v>
+        <v>8.262377218392332e-06</v>
       </c>
     </row>
     <row r="209">
@@ -2663,7 +2663,7 @@
         <v>3.79189872464408</v>
       </c>
       <c r="C209" t="n">
-        <v>8.597414557710353e-06</v>
+        <v>8.497145563762609e-06</v>
       </c>
     </row>
     <row r="210">
@@ -2674,7 +2674,7 @@
         <v>3.79288455969768</v>
       </c>
       <c r="C210" t="n">
-        <v>8.849842071789997e-06</v>
+        <v>8.747286439267297e-06</v>
       </c>
     </row>
     <row r="211">
@@ -2685,7 +2685,7 @@
         <v>3.793870394751279</v>
       </c>
       <c r="C211" t="n">
-        <v>9.117156782592808e-06</v>
+        <v>9.013550010997535e-06</v>
       </c>
     </row>
     <row r="212">
@@ -2696,7 +2696,7 @@
         <v>3.794856229804878</v>
       </c>
       <c r="C212" t="n">
-        <v>9.399981622470504e-06</v>
+        <v>9.296686445044792e-06</v>
       </c>
     </row>
     <row r="213">
@@ -2707,7 +2707,7 @@
         <v>3.795842064858477</v>
       </c>
       <c r="C213" t="n">
-        <v>9.698939523774681e-06</v>
+        <v>9.597445907500429e-06</v>
       </c>
     </row>
     <row r="214">
@@ -2718,7 +2718,7 @@
         <v>3.796827899912077</v>
       </c>
       <c r="C214" t="n">
-        <v>1.001465341885709e-05</v>
+        <v>9.916578564455962e-06</v>
       </c>
     </row>
     <row r="215">
@@ -2729,7 +2729,7 @@
         <v>3.797813734965676</v>
       </c>
       <c r="C215" t="n">
-        <v>1.034774624006906e-05</v>
+        <v>1.025483458200246e-05</v>
       </c>
     </row>
     <row r="216">
@@ -2740,7 +2740,7 @@
         <v>3.798799570019275</v>
       </c>
       <c r="C216" t="n">
-        <v>1.069937622463665e-05</v>
+        <v>1.061345411996429e-05</v>
       </c>
     </row>
     <row r="217">
@@ -2751,7 +2751,7 @@
         <v>3.799785405072875</v>
       </c>
       <c r="C217" t="n">
-        <v>1.107356167360592e-05</v>
+        <v>1.099629531049258e-05</v>
       </c>
     </row>
     <row r="218">
@@ -2762,7 +2762,7 @@
         <v>3.800771240126474</v>
       </c>
       <c r="C218" t="n">
-        <v>1.147527216318705e-05</v>
+        <v>1.140808703975355e-05</v>
       </c>
     </row>
     <row r="219">
@@ -2773,7 +2773,7 @@
         <v>3.801757075180073</v>
       </c>
       <c r="C219" t="n">
-        <v>1.19094779102196e-05</v>
+        <v>1.185355878031647e-05</v>
       </c>
     </row>
     <row r="220">
@@ -2784,7 +2784,7 @@
         <v>3.802742910233672</v>
       </c>
       <c r="C220" t="n">
-        <v>1.238114913154296e-05</v>
+        <v>1.233744000475043e-05</v>
       </c>
     </row>
     <row r="221">
@@ -2795,7 +2795,7 @@
         <v>3.803728745287272</v>
       </c>
       <c r="C221" t="n">
-        <v>1.289525604399674e-05</v>
+        <v>1.286446018562476e-05</v>
       </c>
     </row>
     <row r="222">
@@ -2806,7 +2806,7 @@
         <v>3.804714580340871</v>
       </c>
       <c r="C222" t="n">
-        <v>1.345676886441988e-05</v>
+        <v>1.343934879550808e-05</v>
       </c>
     </row>
     <row r="223">
@@ -2817,7 +2817,7 @@
         <v>3.80570041539447</v>
       </c>
       <c r="C223" t="n">
-        <v>1.407065780965198e-05</v>
+        <v>1.406683530696971e-05</v>
       </c>
     </row>
     <row r="224">
@@ -2828,7 +2828,7 @@
         <v>3.80668625044807</v>
       </c>
       <c r="C224" t="n">
-        <v>1.474189309653274e-05</v>
+        <v>1.475164919257906e-05</v>
       </c>
     </row>
     <row r="225">
@@ -2839,7 +2839,7 @@
         <v>3.807672085501669</v>
       </c>
       <c r="C225" t="n">
-        <v>1.547544494190095e-05</v>
+        <v>1.549851992490461e-05</v>
       </c>
     </row>
     <row r="226">
@@ -2850,7 +2850,7 @@
         <v>3.808657920555268</v>
       </c>
       <c r="C226" t="n">
-        <v>1.627628356259628e-05</v>
+        <v>1.631217697651575e-05</v>
       </c>
     </row>
     <row r="227">
@@ -2861,7 +2861,7 @@
         <v>3.809643755608867</v>
       </c>
       <c r="C227" t="n">
-        <v>1.714937917545812e-05</v>
+        <v>1.719734981998155e-05</v>
       </c>
     </row>
     <row r="228">
@@ -2872,7 +2872,7 @@
         <v>3.810629590662467</v>
       </c>
       <c r="C228" t="n">
-        <v>1.809970199732631e-05</v>
+        <v>1.815876792787158e-05</v>
       </c>
     </row>
     <row r="229">
@@ -2883,7 +2883,7 @@
         <v>3.811615425716066</v>
       </c>
       <c r="C229" t="n">
-        <v>1.913222224503936e-05</v>
+        <v>1.920116077275404e-05</v>
       </c>
     </row>
     <row r="230">
@@ -2894,7 +2894,7 @@
         <v>3.812601260769665</v>
       </c>
       <c r="C230" t="n">
-        <v>2.025191013543708e-05</v>
+        <v>2.032925782719845e-05</v>
       </c>
     </row>
     <row r="231">
@@ -2905,7 +2905,7 @@
         <v>3.813587095823265</v>
       </c>
       <c r="C231" t="n">
-        <v>2.146373588535942e-05</v>
+        <v>2.154778856377447e-05</v>
       </c>
     </row>
     <row r="232">
@@ -2916,7 +2916,7 @@
         <v>3.814572930876864</v>
       </c>
       <c r="C232" t="n">
-        <v>2.277266971164469e-05</v>
+        <v>2.286148245505008e-05</v>
       </c>
     </row>
     <row r="233">
@@ -2927,7 +2927,7 @@
         <v>3.815558765930463</v>
       </c>
       <c r="C233" t="n">
-        <v>2.418714630906638e-05</v>
+        <v>2.427857041261756e-05</v>
       </c>
     </row>
     <row r="234">
@@ -2938,7 +2938,7 @@
         <v>3.816544600984062</v>
       </c>
       <c r="C234" t="n">
-        <v>2.575240213197134e-05</v>
+        <v>2.584447773046706e-05</v>
       </c>
     </row>
     <row r="235">
@@ -2949,7 +2949,7 @@
         <v>3.817530436037662</v>
       </c>
       <c r="C235" t="n">
-        <v>2.753586538085228e-05</v>
+        <v>2.762705820333972e-05</v>
       </c>
     </row>
     <row r="236">
@@ -2960,7 +2960,7 @@
         <v>3.818516271091261</v>
       </c>
       <c r="C236" t="n">
-        <v>2.960527027655786e-05</v>
+        <v>2.969447491113789e-05</v>
       </c>
     </row>
     <row r="237">
@@ -2971,7 +2971,7 @@
         <v>3.81950210614486</v>
       </c>
       <c r="C237" t="n">
-        <v>3.202835103993907e-05</v>
+        <v>3.211489093376619e-05</v>
       </c>
     </row>
     <row r="238">
@@ -2982,7 +2982,7 @@
         <v>3.82048794119846</v>
       </c>
       <c r="C238" t="n">
-        <v>3.487284189184615e-05</v>
+        <v>3.495646935112854e-05</v>
       </c>
     </row>
     <row r="239">
@@ -2993,7 +2993,7 @@
         <v>3.821473776252059</v>
       </c>
       <c r="C239" t="n">
-        <v>3.820647705313096e-05</v>
+        <v>3.828737324313048e-05</v>
       </c>
     </row>
     <row r="240">
@@ -3004,7 +3004,7 @@
         <v>3.822459611305658</v>
       </c>
       <c r="C240" t="n">
-        <v>4.209699074464074e-05</v>
+        <v>4.217576568967289e-05</v>
       </c>
     </row>
     <row r="241">
@@ -3015,7 +3015,7 @@
         <v>3.823445446359258</v>
       </c>
       <c r="C241" t="n">
-        <v>4.661211718722715e-05</v>
+        <v>4.66898097706611e-05</v>
       </c>
     </row>
     <row r="242">
@@ -3026,7 +3026,7 @@
         <v>3.824431281412857</v>
       </c>
       <c r="C242" t="n">
-        <v>5.181959060174291e-05</v>
+        <v>5.189766856600152e-05</v>
       </c>
     </row>
     <row r="243">
@@ -3037,7 +3037,7 @@
         <v>3.825417116466456</v>
       </c>
       <c r="C243" t="n">
-        <v>5.778714520903363e-05</v>
+        <v>5.786750515559337e-05</v>
       </c>
     </row>
     <row r="244">
@@ -3048,7 +3048,7 @@
         <v>3.826402951520055</v>
       </c>
       <c r="C244" t="n">
-        <v>6.458251522995169e-05</v>
+        <v>6.466748261934276e-05</v>
       </c>
     </row>
     <row r="245">
@@ -3059,7 +3059,7 @@
         <v>3.827388786573655</v>
       </c>
       <c r="C245" t="n">
-        <v>7.227343488535104e-05</v>
+        <v>7.236576403715725e-05</v>
       </c>
     </row>
     <row r="246">
@@ -3070,7 +3070,7 @@
         <v>3.828374621627254</v>
       </c>
       <c r="C246" t="n">
-        <v>8.091135695847151e-05</v>
+        <v>8.101417336427542e-05</v>
       </c>
     </row>
     <row r="247">
@@ -3081,7 +3081,7 @@
         <v>3.829360456680853</v>
       </c>
       <c r="C247" t="n">
-        <v>9.034829247895671e-05</v>
+        <v>9.046438615666839e-05</v>
       </c>
     </row>
     <row r="248">
@@ -3092,7 +3092,7 @@
         <v>3.830346291734453</v>
       </c>
       <c r="C248" t="n">
-        <v>0.00010030258060608</v>
+        <v>0.0001004339324847245</v>
       </c>
     </row>
     <row r="249">
@@ -3103,7 +3103,7 @@
         <v>3.831332126788052</v>
       </c>
       <c r="C249" t="n">
-        <v>0.0001104900968402812</v>
+        <v>0.0001106378700309643</v>
       </c>
     </row>
     <row r="250">
@@ -3114,7 +3114,7 @@
         <v>3.832317961841651</v>
       </c>
       <c r="C250" t="n">
-        <v>0.0001206267166819859</v>
+        <v>0.0001207912564778943</v>
       </c>
     </row>
     <row r="251">
@@ -3125,7 +3125,7 @@
         <v>3.833303796895251</v>
       </c>
       <c r="C251" t="n">
-        <v>0.0001304283156316337</v>
+        <v>0.0001306091495080351</v>
       </c>
     </row>
     <row r="252">
@@ -3136,7 +3136,7 @@
         <v>3.83428963194885</v>
       </c>
       <c r="C252" t="n">
-        <v>0.0001396107691896597</v>
+        <v>0.0001398066068039026</v>
       </c>
     </row>
     <row r="253">
@@ -3147,7 +3147,7 @@
         <v>3.835275467002449</v>
       </c>
       <c r="C253" t="n">
-        <v>0.0001478899528565024</v>
+        <v>0.0001480986860480161</v>
       </c>
     </row>
     <row r="254">
@@ -3158,7 +3158,7 @@
         <v>3.836261302056049</v>
       </c>
       <c r="C254" t="n">
-        <v>0.0001549817421325894</v>
+        <v>0.000155200444922884</v>
       </c>
     </row>
     <row r="255">
@@ -3169,7 +3169,7 @@
         <v>3.837247137109648</v>
       </c>
       <c r="C255" t="n">
-        <v>0.0001606020125183595</v>
+        <v>0.0001608269411110262</v>
       </c>
     </row>
     <row r="256">
@@ -3180,7 +3180,7 @@
         <v>3.838232972163247</v>
       </c>
       <c r="C256" t="n">
-        <v>0.000164466639514249</v>
+        <v>0.0001646932322949598</v>
       </c>
     </row>
     <row r="257">
@@ -3191,7 +3191,7 @@
         <v>3.839218807216846</v>
       </c>
       <c r="C257" t="n">
-        <v>0.0001662914986206896</v>
+        <v>0.0001665143761571972</v>
       </c>
     </row>
     <row r="258">
@@ -3202,7 +3202,7 @@
         <v>3.840204642270446</v>
       </c>
       <c r="C258" t="n">
-        <v>0.0001657924653381183</v>
+        <v>0.0001660054303802565</v>
       </c>
     </row>
     <row r="259">
@@ -3213,7 +3213,7 @@
         <v>3.841190477324045</v>
       </c>
       <c r="C259" t="n">
-        <v>0.0001627118011788056</v>
+        <v>0.0001629079461799725</v>
       </c>
     </row>
     <row r="260">
@@ -3224,7 +3224,7 @@
         <v>3.842176312377644</v>
       </c>
       <c r="C260" t="n">
-        <v>0.0001571671498315078</v>
+        <v>0.0001573403866094855</v>
       </c>
     </row>
     <row r="261">
@@ -3235,7 +3235,7 @@
         <v>3.843162147431244</v>
       </c>
       <c r="C261" t="n">
-        <v>0.0001495554987534374</v>
+        <v>0.0001497016968002124</v>
       </c>
     </row>
     <row r="262">
@@ -3246,7 +3246,7 @@
         <v>3.844147982484843</v>
       </c>
       <c r="C262" t="n">
-        <v>0.0001402804864164578</v>
+        <v>0.000140397500000724</v>
       </c>
     </row>
     <row r="263">
@@ -3257,7 +3257,7 @@
         <v>3.845133817538442</v>
       </c>
       <c r="C263" t="n">
-        <v>0.0001297457512924295</v>
+        <v>0.0001298334194595881</v>
       </c>
     </row>
     <row r="264">
@@ -3268,7 +3268,7 @@
         <v>3.846119652592042</v>
       </c>
       <c r="C264" t="n">
-        <v>0.0001183549318532278</v>
+        <v>0.0001184150784253871</v>
       </c>
     </row>
     <row r="265">
@@ -3279,7 +3279,7 @@
         <v>3.847105487645641</v>
       </c>
       <c r="C265" t="n">
-        <v>0.0001065116665707134</v>
+        <v>0.0001065481001466892</v>
       </c>
     </row>
     <row r="266">
@@ -3290,7 +3290,7 @@
         <v>3.84809132269924</v>
       </c>
       <c r="C266" t="n">
-        <v>9.461959391675202e-05</v>
+        <v>9.463810787206714e-05</v>
       </c>
     </row>
     <row r="267">
@@ -3301,7 +3301,7 @@
         <v>3.84907715775284</v>
       </c>
       <c r="C267" t="n">
-        <v>8.308235236320395e-05</v>
+        <v>8.309072485008869e-05</v>
       </c>
     </row>
     <row r="268">
@@ -3312,7 +3312,7 @@
         <v>3.850062992806439</v>
       </c>
       <c r="C268" t="n">
-        <v>7.230358038194522e-05</v>
+        <v>7.231157432933711e-05</v>
       </c>
     </row>
     <row r="269">
@@ -3323,7 +3323,7 @@
         <v>3.851048827860038</v>
       </c>
       <c r="C269" t="n">
-        <v>6.268691644483601e-05</v>
+        <v>6.270627955837986e-05</v>
       </c>
     </row>
     <row r="270">
@@ -3334,7 +3334,7 @@
         <v>3.852034662913637</v>
       </c>
       <c r="C270" t="n">
-        <v>5.463599902373858e-05</v>
+        <v>5.468046378578648e-05</v>
       </c>
     </row>
     <row r="271">
@@ -3345,7 +3345,7 @@
         <v>3.853020497967237</v>
       </c>
       <c r="C271" t="n">
-        <v>4.85544665905258e-05</v>
+        <v>4.863975026013711e-05</v>
       </c>
     </row>
     <row r="272">
@@ -3356,7 +3356,7 @@
         <v>3.854006333020836</v>
       </c>
       <c r="C272" t="n">
-        <v>4.484595761705916e-05</v>
+        <v>4.498976223000052e-05</v>
       </c>
     </row>
     <row r="273">
@@ -3367,7 +3367,7 @@
         <v>3.854992168074435</v>
       </c>
       <c r="C273" t="n">
-        <v>4.378880730401686e-05</v>
+        <v>4.400874024395509e-05</v>
       </c>
     </row>
     <row r="274">
@@ -3378,7 +3378,7 @@
         <v>3.855978003128035</v>
       </c>
       <c r="C274" t="n">
-        <v>4.390794153148456e-05</v>
+        <v>4.419241740814705e-05</v>
       </c>
     </row>
     <row r="275">
@@ -3389,7 +3389,7 @@
         <v>3.856963838181634</v>
       </c>
       <c r="C275" t="n">
-        <v>4.243806905036132e-05</v>
+        <v>4.27248983298211e-05</v>
       </c>
     </row>
     <row r="276">
@@ -3400,7 +3400,7 @@
         <v>3.857949673235233</v>
       </c>
       <c r="C276" t="n">
-        <v>3.658862774750788e-05</v>
+        <v>3.676463412973093e-05</v>
       </c>
     </row>
     <row r="277">
@@ -3411,7 +3411,7 @@
         <v>3.858935508288833</v>
       </c>
       <c r="C277" t="n">
-        <v>2.606619074720467e-05</v>
+        <v>2.602837619398278e-05</v>
       </c>
     </row>
     <row r="278">
@@ -3422,7 +3422,7 @@
         <v>3.859921343342432</v>
       </c>
       <c r="C278" t="n">
-        <v>1.713167202048232e-05</v>
+        <v>1.694751813221287e-05</v>
       </c>
     </row>
     <row r="279">
@@ -3433,7 +3433,7 @@
         <v>3.860907178396031</v>
       </c>
       <c r="C279" t="n">
-        <v>1.34172224028891e-05</v>
+        <v>1.324364316383072e-05</v>
       </c>
     </row>
     <row r="280">
@@ -3444,7 +3444,7 @@
         <v>3.86189301344963</v>
       </c>
       <c r="C280" t="n">
-        <v>1.250635372024365e-05</v>
+        <v>1.241437598988758e-05</v>
       </c>
     </row>
     <row r="281">
@@ -3455,7 +3455,7 @@
         <v>3.86287884850323</v>
       </c>
       <c r="C281" t="n">
-        <v>1.177986365060939e-05</v>
+        <v>1.175107210115643e-05</v>
       </c>
     </row>
     <row r="282">
@@ -3466,7 +3466,7 @@
         <v>3.863864683556829</v>
       </c>
       <c r="C282" t="n">
-        <v>1.065321552974134e-05</v>
+        <v>1.065205743997305e-05</v>
       </c>
     </row>
     <row r="283">
@@ -3477,7 +3477,7 @@
         <v>3.864850518610428</v>
       </c>
       <c r="C283" t="n">
-        <v>9.266994024234177e-06</v>
+        <v>9.266547517237886e-06</v>
       </c>
     </row>
     <row r="284">
@@ -3488,7 +3488,7 @@
         <v>3.865836353664028</v>
       </c>
       <c r="C284" t="n">
-        <v>7.762673026346201e-06</v>
+        <v>7.744678669438096e-06</v>
       </c>
     </row>
     <row r="285">
@@ -3499,7 +3499,7 @@
         <v>3.866822188717627</v>
       </c>
       <c r="C285" t="n">
-        <v>6.279859159434876e-06</v>
+        <v>6.234616433319347e-06</v>
       </c>
     </row>
     <row r="286">
@@ -3510,7 +3510,7 @@
         <v>3.867808023771226</v>
       </c>
       <c r="C286" t="n">
-        <v>4.92133886726396e-06</v>
+        <v>4.845664668882123e-06</v>
       </c>
     </row>
     <row r="287">
@@ -3521,7 +3521,7 @@
         <v>3.868793858824825</v>
       </c>
       <c r="C287" t="n">
-        <v>3.756191327050465e-06</v>
+        <v>3.65155106808636e-06</v>
       </c>
     </row>
     <row r="288">
@@ -3532,7 +3532,7 @@
         <v>3.869779693878425</v>
       </c>
       <c r="C288" t="n">
-        <v>2.85225255293457e-06</v>
+        <v>2.724691232560923e-06</v>
       </c>
     </row>
     <row r="289">
@@ -3543,7 +3543,7 @@
         <v>3.870765528932024</v>
       </c>
       <c r="C289" t="n">
-        <v>2.277358559057633e-06</v>
+        <v>2.137500763935887e-06</v>
       </c>
     </row>
     <row r="290">
@@ -3554,7 +3554,7 @@
         <v>3.871751363985623</v>
       </c>
       <c r="C290" t="n">
-        <v>2.099345359559701e-06</v>
+        <v>1.962395263839986e-06</v>
       </c>
     </row>
     <row r="291">
@@ -3565,7 +3565,7 @@
         <v>3.872737199039222</v>
       </c>
       <c r="C291" t="n">
-        <v>2.386048968581291e-06</v>
+        <v>2.271790333902432e-06</v>
       </c>
     </row>
     <row r="292">
@@ -3576,7 +3576,7 @@
         <v>3.873723034092822</v>
       </c>
       <c r="C292" t="n">
-        <v>3.20530540026342e-06</v>
+        <v>3.138101575752965e-06</v>
       </c>
     </row>
     <row r="293">
@@ -3587,7 +3587,7 @@
         <v>3.874708869146421</v>
       </c>
       <c r="C293" t="n">
-        <v>4.624950668745893e-06</v>
+        <v>4.633744591020046e-06</v>
       </c>
     </row>
     <row r="294">
@@ -3598,7 +3598,7 @@
         <v>3.87569470420002</v>
       </c>
       <c r="C294" t="n">
-        <v>6.824857524923588e-06</v>
+        <v>6.937886761088713e-06</v>
       </c>
     </row>
     <row r="295">
@@ -3609,7 +3609,7 @@
         <v>3.87668053925362</v>
       </c>
       <c r="C295" t="n">
-        <v>1.128581887348508e-05</v>
+        <v>1.146924907949678e-05</v>
       </c>
     </row>
     <row r="296">
@@ -3620,7 +3620,7 @@
         <v>3.877666374307219</v>
       </c>
       <c r="C296" t="n">
-        <v>1.956763865577113e-05</v>
+        <v>1.971247960607386e-05</v>
       </c>
     </row>
     <row r="297">
@@ -3631,7 +3631,7 @@
         <v>3.878652209360818</v>
       </c>
       <c r="C297" t="n">
-        <v>2.947516839031567e-05</v>
+        <v>2.952797391619695e-05</v>
       </c>
     </row>
     <row r="298">
@@ -3642,7 +3642,7 @@
         <v>3.879638044414418</v>
       </c>
       <c r="C298" t="n">
-        <v>3.770587128499456e-05</v>
+        <v>3.770787418343783e-05</v>
       </c>
     </row>
     <row r="299">
@@ -3653,7 +3653,7 @@
         <v>3.880623879468017</v>
       </c>
       <c r="C299" t="n">
-        <v>4.316733354114474e-05</v>
+        <v>4.319748005559252e-05</v>
       </c>
     </row>
     <row r="300">
@@ -3664,7 +3664,7 @@
         <v>3.881609714521616</v>
       </c>
       <c r="C300" t="n">
-        <v>4.758318314810417e-05</v>
+        <v>4.768554596986007e-05</v>
       </c>
     </row>
     <row r="301">
@@ -3675,7 +3675,7 @@
         <v>3.882595549575215</v>
       </c>
       <c r="C301" t="n">
-        <v>5.28597740348376e-05</v>
+        <v>5.303884231347019e-05</v>
       </c>
     </row>
     <row r="302">
@@ -3686,7 +3686,7 @@
         <v>3.883581384628815</v>
       </c>
       <c r="C302" t="n">
-        <v>6.090328661912028e-05</v>
+        <v>6.112396850756602e-05</v>
       </c>
     </row>
     <row r="303">
@@ -3697,7 +3697,7 @@
         <v>3.884567219682414</v>
       </c>
       <c r="C303" t="n">
-        <v>7.270382990807501e-05</v>
+        <v>7.290488971277693e-05</v>
       </c>
     </row>
     <row r="304">
@@ -3708,7 +3708,7 @@
         <v>3.885553054736013</v>
       </c>
       <c r="C304" t="n">
-        <v>8.619708085857953e-05</v>
+        <v>8.633594216462696e-05</v>
       </c>
     </row>
     <row r="305">
@@ -3719,7 +3719,7 @@
         <v>3.886538889789612</v>
       </c>
       <c r="C305" t="n">
-        <v>9.868288910205625e-05</v>
+        <v>9.874496123740505e-05</v>
       </c>
     </row>
     <row r="306">
@@ -3730,7 +3730,7 @@
         <v>3.887524724843212</v>
       </c>
       <c r="C306" t="n">
-        <v>0.0001074611042699304</v>
+        <v>0.0001074597823054029</v>
       </c>
     </row>
     <row r="307">
@@ -3741,7 +3741,7 @@
         <v>3.888510559896811</v>
       </c>
       <c r="C307" t="n">
-        <v>0.0001101277176947322</v>
+        <v>0.0001101025832699302</v>
       </c>
     </row>
     <row r="308">
@@ -3752,7 +3752,7 @@
         <v>3.88949639495041</v>
       </c>
       <c r="C308" t="n">
-        <v>0.0001082612543213774</v>
+        <v>0.0001082538802299568</v>
       </c>
     </row>
     <row r="309">
@@ -3763,7 +3763,7 @@
         <v>3.89048223000401</v>
       </c>
       <c r="C309" t="n">
-        <v>0.0001062916233532903</v>
+        <v>0.0001063282502931428</v>
       </c>
     </row>
     <row r="310">
@@ -3774,7 +3774,7 @@
         <v>3.891468065057609</v>
       </c>
       <c r="C310" t="n">
-        <v>0.0001087106993234251</v>
+        <v>0.0001088018594336044</v>
       </c>
     </row>
     <row r="311">
@@ -3785,7 +3785,7 @@
         <v>3.892453900111208</v>
       </c>
       <c r="C311" t="n">
-        <v>0.0001188342886277707</v>
+        <v>0.0001189787886383294</v>
       </c>
     </row>
     <row r="312">
@@ -3796,7 +3796,7 @@
         <v>3.893439735164808</v>
       </c>
       <c r="C312" t="n">
-        <v>0.0001349289519929781</v>
+        <v>0.0001351309741916854</v>
       </c>
     </row>
     <row r="313">
@@ -3807,7 +3807,7 @@
         <v>3.894425570218407</v>
       </c>
       <c r="C313" t="n">
-        <v>0.0001539064636931626</v>
+        <v>0.0001541801543649562</v>
       </c>
     </row>
     <row r="314">
@@ -3818,7 +3818,7 @@
         <v>3.895411405272006</v>
       </c>
       <c r="C314" t="n">
-        <v>0.0001726785814353925</v>
+        <v>0.0001730480509184888</v>
       </c>
     </row>
     <row r="315">
@@ -3829,7 +3829,7 @@
         <v>3.896397240325606</v>
       </c>
       <c r="C315" t="n">
-        <v>0.0001881570707099243</v>
+        <v>0.000188656393331696</v>
       </c>
     </row>
     <row r="316">
@@ -3840,7 +3840,7 @@
         <v>3.897383075379205</v>
       </c>
       <c r="C316" t="n">
-        <v>0.0001980992072535671</v>
+        <v>0.0001987654555687472</v>
       </c>
     </row>
     <row r="317">
@@ -3851,7 +3851,7 @@
         <v>3.898368910432804</v>
       </c>
       <c r="C317" t="n">
-        <v>0.0002034340535587664</v>
+        <v>0.0002042811674881149</v>
       </c>
     </row>
     <row r="318">
@@ -3862,7 +3862,7 @@
         <v>3.899354745486403</v>
       </c>
       <c r="C318" t="n">
-        <v>0.0002058342848003029</v>
+        <v>0.0002068469453549825</v>
       </c>
     </row>
     <row r="319">
@@ -3873,7 +3873,7 @@
         <v>3.900340580540003</v>
       </c>
       <c r="C319" t="n">
-        <v>0.0002069725761529514</v>
+        <v>0.0002081062054345273</v>
       </c>
     </row>
     <row r="320">
@@ -3884,7 +3884,7 @@
         <v>3.901326415593602</v>
       </c>
       <c r="C320" t="n">
-        <v>0.0002084678018665563</v>
+        <v>0.0002096501591854739</v>
       </c>
     </row>
     <row r="321">
@@ -3895,7 +3895,7 @@
         <v>3.902312250647201</v>
       </c>
       <c r="C321" t="n">
-        <v>0.0002110941879514637</v>
+        <v>0.0002122504281074374</v>
       </c>
     </row>
     <row r="322">
@@ -3906,7 +3906,7 @@
         <v>3.903298085700801</v>
       </c>
       <c r="C322" t="n">
-        <v>0.0002149548660530086</v>
+        <v>0.0002160274487718492</v>
       </c>
     </row>
     <row r="323">
@@ -3917,7 +3917,7 @@
         <v>3.9042839207544</v>
       </c>
       <c r="C323" t="n">
-        <v>0.000220134454341899</v>
+        <v>0.0002210836935169812</v>
       </c>
     </row>
     <row r="324">
@@ -3928,7 +3928,7 @@
         <v>3.905269755807999</v>
       </c>
       <c r="C324" t="n">
-        <v>0.0002267175709888358</v>
+        <v>0.0002275216346810979</v>
       </c>
     </row>
     <row r="325">
@@ -3939,7 +3939,7 @@
         <v>3.906255590861599</v>
       </c>
       <c r="C325" t="n">
-        <v>0.0002347888341645267</v>
+        <v>0.0002354437446024706</v>
       </c>
     </row>
     <row r="326">
@@ -3950,7 +3950,7 @@
         <v>3.907241425915198</v>
       </c>
       <c r="C326" t="n">
-        <v>0.0002444328620396772</v>
+        <v>0.0002449524956193685</v>
       </c>
     </row>
     <row r="327">
@@ -3961,7 +3961,7 @@
         <v>3.908227260968797</v>
       </c>
       <c r="C327" t="n">
-        <v>0.0002557342727849982</v>
+        <v>0.0002561503600700662</v>
       </c>
     </row>
     <row r="328">
@@ -3972,7 +3972,7 @@
         <v>3.909213096022397</v>
       </c>
       <c r="C328" t="n">
-        <v>0.0002687762427960472</v>
+        <v>0.0002691382984494313</v>
       </c>
     </row>
     <row r="329">
@@ -3983,7 +3983,7 @@
         <v>3.910198931075996</v>
       </c>
       <c r="C329" t="n">
-        <v>0.0002834541501165635</v>
+        <v>0.000283820346163481</v>
       </c>
     </row>
     <row r="330">
@@ -3994,7 +3994,7 @@
         <v>3.911184766129595</v>
       </c>
       <c r="C330" t="n">
-        <v>0.0002992912337747477</v>
+        <v>0.0002997103141674324</v>
       </c>
     </row>
     <row r="331">
@@ -4005,7 +4005,7 @@
         <v>3.912170601183194</v>
       </c>
       <c r="C331" t="n">
-        <v>0.000315766924242615</v>
+        <v>0.0003162760758258081</v>
       </c>
     </row>
     <row r="332">
@@ -4016,7 +4016,7 @@
         <v>3.913156436236794</v>
       </c>
       <c r="C332" t="n">
-        <v>0.0003323606519922019</v>
+        <v>0.0003329855045031521</v>
       </c>
     </row>
     <row r="333">
@@ -4027,7 +4027,7 @@
         <v>3.914142271290393</v>
       </c>
       <c r="C333" t="n">
-        <v>0.0003485518474955385</v>
+        <v>0.0003493064735640015</v>
       </c>
     </row>
     <row r="334">
@@ -4038,7 +4038,7 @@
         <v>3.915128106343992</v>
       </c>
       <c r="C334" t="n">
-        <v>0.0003638199412246609</v>
+        <v>0.0003647068563729001</v>
       </c>
     </row>
     <row r="335">
@@ -4049,7 +4049,7 @@
         <v>3.916113941397592</v>
       </c>
       <c r="C335" t="n">
-        <v>0.0003776443636515851</v>
+        <v>0.0003786545262943708</v>
       </c>
     </row>
     <row r="336">
@@ -4060,7 +4060,7 @@
         <v>3.917099776451191</v>
       </c>
       <c r="C336" t="n">
-        <v>0.0003895045452483479</v>
+        <v>0.0003906173566929579</v>
       </c>
     </row>
     <row r="337">
@@ -4071,7 +4071,7 @@
         <v>3.91808561150479</v>
       </c>
       <c r="C337" t="n">
-        <v>0.0003988806271652855</v>
+        <v>0.0004000639542166436</v>
       </c>
     </row>
     <row r="338">
@@ -4082,7 +4082,7 @@
         <v>3.91907144655839</v>
       </c>
       <c r="C338" t="n">
-        <v>0.0004053997077902716</v>
+        <v>0.000406614557142607</v>
       </c>
     </row>
     <row r="339">
@@ -4093,7 +4093,7 @@
         <v>3.920057281611989</v>
       </c>
       <c r="C339" t="n">
-        <v>0.0004090149646862908</v>
+        <v>0.0004102258547959488</v>
       </c>
     </row>
     <row r="340">
@@ -4104,7 +4104,7 @@
         <v>3.921043116665588</v>
       </c>
       <c r="C340" t="n">
-        <v>0.0004097234181590969</v>
+        <v>0.0004108997737872958</v>
       </c>
     </row>
     <row r="341">
@@ -4115,7 +4115,7 @@
         <v>3.922028951719188</v>
       </c>
       <c r="C341" t="n">
-        <v>0.0004075220885144421</v>
+        <v>0.0004086382407272728</v>
       </c>
     </row>
     <row r="342">
@@ -4126,7 +4126,7 @@
         <v>3.923014786772787</v>
       </c>
       <c r="C342" t="n">
-        <v>0.0004024079960580826</v>
+        <v>0.0004034431822265087</v>
       </c>
     </row>
     <row r="343">
@@ -4137,7 +4137,7 @@
         <v>3.924000621826386</v>
       </c>
       <c r="C343" t="n">
-        <v>0.0003943781610957717</v>
+        <v>0.0003953165248956295</v>
       </c>
     </row>
     <row r="344">
@@ -4148,7 +4148,7 @@
         <v>3.924986456879985</v>
       </c>
       <c r="C344" t="n">
-        <v>0.0003834296039332578</v>
+        <v>0.0003842601953452564</v>
       </c>
     </row>
     <row r="345">
@@ -4159,7 +4159,7 @@
         <v>3.925972291933585</v>
       </c>
       <c r="C345" t="n">
-        <v>0.0003695593448763049</v>
+        <v>0.0003702761201860261</v>
       </c>
     </row>
     <row r="346">
@@ -4170,7 +4170,7 @@
         <v>3.926958126987184</v>
       </c>
       <c r="C346" t="n">
-        <v>0.0003527877871554312</v>
+        <v>0.0003533894967546799</v>
       </c>
     </row>
     <row r="347">
@@ -4181,7 +4181,7 @@
         <v>3.927943962040783</v>
       </c>
       <c r="C347" t="n">
-        <v>0.0003334909669542918</v>
+        <v>0.0003339794489019956</v>
       </c>
     </row>
     <row r="348">
@@ -4192,7 +4192,7 @@
         <v>3.928929797094383</v>
       </c>
       <c r="C348" t="n">
-        <v>0.000312321661032571</v>
+        <v>0.0003127005131661924</v>
       </c>
     </row>
     <row r="349">
@@ -4203,7 +4203,7 @@
         <v>3.929915632147982</v>
       </c>
       <c r="C349" t="n">
-        <v>0.0002899399387804995</v>
+        <v>0.0002902144837236953</v>
       </c>
     </row>
     <row r="350">
@@ -4214,7 +4214,7 @@
         <v>3.930901467201581</v>
       </c>
       <c r="C350" t="n">
-        <v>0.0002670058695882806</v>
+        <v>0.0002671831547509005</v>
       </c>
     </row>
     <row r="351">
@@ -4225,7 +4225,7 @@
         <v>3.931887302255181</v>
       </c>
       <c r="C351" t="n">
-        <v>0.0002441795228461161</v>
+        <v>0.0002442683204242035</v>
       </c>
     </row>
     <row r="352">
@@ -4236,7 +4236,7 @@
         <v>3.93287313730878</v>
       </c>
       <c r="C352" t="n">
-        <v>0.0002221209679442388</v>
+        <v>0.0002221317749200309</v>
       </c>
     </row>
     <row r="353">
@@ -4247,7 +4247,7 @@
         <v>3.933858972362379</v>
       </c>
       <c r="C353" t="n">
-        <v>0.0002014902742728504</v>
+        <v>0.0002014353124147778</v>
       </c>
     </row>
     <row r="354">
@@ -4258,7 +4258,7 @@
         <v>3.934844807415978</v>
       </c>
       <c r="C354" t="n">
-        <v>0.0001829475112221629</v>
+        <v>0.0001828407270848498</v>
       </c>
     </row>
     <row r="355">
@@ -4269,7 +4269,7 @@
         <v>3.935830642469578</v>
       </c>
       <c r="C355" t="n">
-        <v>0.0001669886335627222</v>
+        <v>0.0001668452524860613</v>
       </c>
     </row>
     <row r="356">
@@ -4280,7 +4280,7 @@
         <v>3.936816477523177</v>
       </c>
       <c r="C356" t="n">
-        <v>0.0001534327767988707</v>
+        <v>0.0001532674635714707</v>
       </c>
     </row>
     <row r="357">
@@ -4291,7 +4291,7 @@
         <v>3.937802312576776</v>
       </c>
       <c r="C357" t="n">
-        <v>0.0001419246245325089</v>
+        <v>0.0001417510092979787</v>
       </c>
     </row>
     <row r="358">
@@ -4302,7 +4302,7 @@
         <v>3.938788147630375</v>
       </c>
       <c r="C358" t="n">
-        <v>0.000132108860186958</v>
+        <v>0.0001319395384434211</v>
       </c>
     </row>
     <row r="359">
@@ -4313,7 +4313,7 @@
         <v>3.939773982683975</v>
       </c>
       <c r="C359" t="n">
-        <v>0.0001236301671855353</v>
+        <v>0.00012347669978563</v>
       </c>
     </row>
     <row r="360">
@@ -4324,7 +4324,7 @@
         <v>3.940759817737574</v>
       </c>
       <c r="C360" t="n">
-        <v>0.0001161332289515691</v>
+        <v>0.0001160061421024489</v>
       </c>
     </row>
     <row r="361">
@@ -4335,7 +4335,7 @@
         <v>3.941745652791173</v>
       </c>
       <c r="C361" t="n">
-        <v>0.0001092627289083765</v>
+        <v>0.0001091715141717093</v>
       </c>
     </row>
     <row r="362">
@@ -4346,7 +4346,7 @@
         <v>3.942731487844773</v>
       </c>
       <c r="C362" t="n">
-        <v>0.0001026633504792754</v>
+        <v>0.0001026164647712442</v>
       </c>
     </row>
     <row r="363">
@@ -4357,7 +4357,7 @@
         <v>3.943717322898372</v>
       </c>
       <c r="C363" t="n">
-        <v>9.598103570375198e-05</v>
+        <v>9.598589676206217e-05</v>
       </c>
     </row>
     <row r="364">
@@ -4368,7 +4368,7 @@
         <v>3.944703157951971</v>
       </c>
       <c r="C364" t="n">
-        <v>8.909778297451554e-05</v>
+        <v>8.915991918526868e-05</v>
       </c>
     </row>
     <row r="365">
@@ -4379,7 +4379,7 @@
         <v>3.945688993005571</v>
       </c>
       <c r="C365" t="n">
-        <v>8.24078993704237e-05</v>
+        <v>8.252910465329069e-05</v>
       </c>
     </row>
     <row r="366">
@@ -4390,7 +4390,7 @@
         <v>3.94667482805917</v>
       </c>
       <c r="C366" t="n">
-        <v>7.637283778363368e-05</v>
+        <v>7.655092976160857e-05</v>
       </c>
     </row>
     <row r="367">
@@ -4401,7 +4401,7 @@
         <v>3.947660663112769</v>
       </c>
       <c r="C367" t="n">
-        <v>7.145405110629336e-05</v>
+        <v>7.168287110569339e-05</v>
       </c>
     </row>
     <row r="368">
@@ -4412,7 +4412,7 @@
         <v>3.948646498166368</v>
       </c>
       <c r="C368" t="n">
-        <v>6.811299223055376e-05</v>
+        <v>6.838240528101933e-05</v>
       </c>
     </row>
     <row r="369">
@@ -4423,7 +4423,7 @@
         <v>3.949632333219968</v>
       </c>
       <c r="C369" t="n">
-        <v>6.681111404856579e-05</v>
+        <v>6.710700888306047e-05</v>
       </c>
     </row>
     <row r="370">
@@ -4434,7 +4434,7 @@
         <v>3.950618168273567</v>
       </c>
       <c r="C370" t="n">
-        <v>6.800986945248183e-05</v>
+        <v>6.831415850729236e-05</v>
       </c>
     </row>
     <row r="371">
@@ -4445,7 +4445,7 @@
         <v>3.951604003327166</v>
       </c>
       <c r="C371" t="n">
-        <v>7.217071133445176e-05</v>
+        <v>7.246133074918806e-05</v>
       </c>
     </row>
     <row r="372">
@@ -4456,7 +4456,7 @@
         <v>3.952589838380765</v>
       </c>
       <c r="C372" t="n">
-        <v>7.974600544431967e-05</v>
+        <v>7.999698504818092e-05</v>
       </c>
     </row>
     <row r="373">
@@ -4467,7 +4467,7 @@
         <v>3.953575673434365</v>
       </c>
       <c r="C373" t="n">
-        <v>9.067906883437801e-05</v>
+        <v>9.086445267654562e-05</v>
       </c>
     </row>
     <row r="374">
@@ -4478,7 +4478,7 @@
         <v>3.954561508487964</v>
       </c>
       <c r="C374" t="n">
-        <v>0.0001041443218704374</v>
+        <v>0.0001042440900166398</v>
       </c>
     </row>
     <row r="375">
@@ -4489,7 +4489,7 @@
         <v>3.955547343541563</v>
       </c>
       <c r="C375" t="n">
-        <v>0.0001192523411777296</v>
+        <v>0.0001192529014143295</v>
       </c>
     </row>
     <row r="376">
@@ -4500,7 +4500,7 @@
         <v>3.956533178595163</v>
       </c>
       <c r="C376" t="n">
-        <v>0.000135113703381489</v>
+        <v>0.0001350078912154837</v>
       </c>
     </row>
     <row r="377">
@@ -4511,7 +4511,7 @@
         <v>3.957519013648762</v>
       </c>
       <c r="C377" t="n">
-        <v>0.0001508389851069283</v>
+        <v>0.0001506260637659499</v>
       </c>
     </row>
     <row r="378">
@@ -4522,7 +4522,7 @@
         <v>3.958504848702361</v>
       </c>
       <c r="C378" t="n">
-        <v>0.000165538762979282</v>
+        <v>0.0001652244234115967</v>
       </c>
     </row>
     <row r="379">
@@ -4533,7 +4533,7 @@
         <v>3.959490683755961</v>
       </c>
       <c r="C379" t="n">
-        <v>0.0001783236136237826</v>
+        <v>0.0001779199744982913</v>
       </c>
     </row>
     <row r="380">
@@ -4544,7 +4544,7 @@
         <v>3.96047651880956</v>
       </c>
       <c r="C380" t="n">
-        <v>0.0001883041136656456</v>
+        <v>0.0001878297213718837</v>
       </c>
     </row>
     <row r="381">
@@ -4555,7 +4555,7 @@
         <v>3.961462353863159</v>
       </c>
       <c r="C381" t="n">
-        <v>0.0001947588340756628</v>
+        <v>0.0001942374782069583</v>
       </c>
     </row>
     <row r="382">
@@ -4566,7 +4566,7 @@
         <v>3.962448188916758</v>
       </c>
       <c r="C382" t="n">
-        <v>0.0001978455608410452</v>
+        <v>0.0001973000749085178</v>
       </c>
     </row>
     <row r="383">
@@ -4577,7 +4577,7 @@
         <v>3.963434023970358</v>
       </c>
       <c r="C383" t="n">
-        <v>0.0001980087443554132</v>
+        <v>0.0001974589845365074</v>
       </c>
     </row>
     <row r="384">
@@ -4588,7 +4588,7 @@
         <v>3.964419859023957</v>
       </c>
       <c r="C384" t="n">
-        <v>0.0001956929927733652</v>
+        <v>0.0001951558367994882</v>
       </c>
     </row>
     <row r="385">
@@ -4599,7 +4599,7 @@
         <v>3.965405694077556</v>
       </c>
       <c r="C385" t="n">
-        <v>0.0001913429142494999</v>
+        <v>0.0001908322614060221</v>
       </c>
     </row>
     <row r="386">
@@ -4610,7 +4610,7 @@
         <v>3.966391529131156</v>
       </c>
       <c r="C386" t="n">
-        <v>0.0001854031169384158</v>
+        <v>0.0001849298880646701</v>
       </c>
     </row>
     <row r="387">
@@ -4621,7 +4621,7 @@
         <v>3.967377364184755</v>
       </c>
       <c r="C387" t="n">
-        <v>0.0001783182089947076</v>
+        <v>0.0001778903464839899</v>
       </c>
     </row>
     <row r="388">
@@ -4632,7 +4632,7 @@
         <v>3.968363199238354</v>
       </c>
       <c r="C388" t="n">
-        <v>0.0001705327985729801</v>
+        <v>0.000170155266372549</v>
       </c>
     </row>
     <row r="389">
@@ -4643,7 +4643,7 @@
         <v>3.969349034291954</v>
       </c>
       <c r="C389" t="n">
-        <v>0.0001624914876395381</v>
+        <v>0.0001621662712900482</v>
       </c>
     </row>
     <row r="390">
@@ -4654,7 +4654,7 @@
         <v>3.970334869345553</v>
       </c>
       <c r="C390" t="n">
-        <v>0.0001545559341660598</v>
+        <v>0.0001542825693380482</v>
       </c>
     </row>
     <row r="391">
@@ -4665,7 +4665,7 @@
         <v>3.971320704399152</v>
       </c>
       <c r="C391" t="n">
-        <v>0.0001467969178163344</v>
+        <v>0.0001465743438476536</v>
       </c>
     </row>
     <row r="392">
@@ -4676,7 +4676,7 @@
         <v>3.972306539452751</v>
       </c>
       <c r="C392" t="n">
-        <v>0.0001392214897195024</v>
+        <v>0.000139048455706876</v>
       </c>
     </row>
     <row r="393">
@@ -4687,7 +4687,7 @@
         <v>3.973292374506351</v>
       </c>
       <c r="C393" t="n">
-        <v>0.0001318367010047079</v>
+        <v>0.0001317117658037303</v>
       </c>
     </row>
     <row r="394">
@@ -4698,7 +4698,7 @@
         <v>3.97427820955995</v>
       </c>
       <c r="C394" t="n">
-        <v>0.0001246496028010918</v>
+        <v>0.0001245711350262284</v>
       </c>
     </row>
     <row r="395">
@@ -4709,7 +4709,7 @@
         <v>3.975264044613549</v>
       </c>
       <c r="C395" t="n">
-        <v>0.0001176672462378046</v>
+        <v>0.0001176334242623917</v>
       </c>
     </row>
     <row r="396">
@@ -4720,7 +4720,7 @@
         <v>3.976249879667149</v>
       </c>
       <c r="C396" t="n">
-        <v>0.0001108966824439871</v>
+        <v>0.000110905494400232</v>
       </c>
     </row>
     <row r="397">
@@ -4731,7 +4731,7 @@
         <v>3.977235714720748</v>
       </c>
       <c r="C397" t="n">
-        <v>0.0001043449625487835</v>
+        <v>0.0001043942063277644</v>
       </c>
     </row>
     <row r="398">
@@ -4742,7 +4742,7 @@
         <v>3.978221549774347</v>
       </c>
       <c r="C398" t="n">
-        <v>9.801913768133486e-05</v>
+        <v>9.810642093300105e-05</v>
       </c>
     </row>
     <row r="399">
@@ -4753,7 +4753,7 @@
         <v>3.979207384827947</v>
       </c>
       <c r="C399" t="n">
-        <v>9.192625897079114e-05</v>
+        <v>9.204899910396266e-05</v>
       </c>
     </row>
     <row r="400">
@@ -4764,7 +4764,7 @@
         <v>3.980193219881546</v>
       </c>
       <c r="C400" t="n">
-        <v>8.60733775462934e-05</v>
+        <v>8.622880172866131e-05</v>
       </c>
     </row>
     <row r="401">
@@ -4775,7 +4775,7 @@
         <v>3.981179054935145</v>
       </c>
       <c r="C401" t="n">
-        <v>8.046754453698335e-05</v>
+        <v>8.065268969510968e-05</v>
       </c>
     </row>
     <row r="402">
@@ -4786,7 +4786,7 @@
         <v>3.982164889988745</v>
       </c>
       <c r="C402" t="n">
-        <v>7.511581107201005e-05</v>
+        <v>7.532752389132776e-05</v>
       </c>
     </row>
     <row r="403">
@@ -4797,7 +4797,7 @@
         <v>3.983150725042344</v>
       </c>
       <c r="C403" t="n">
-        <v>7.002522828051504e-05</v>
+        <v>7.026016520532801e-05</v>
       </c>
     </row>
     <row r="404">
@@ -4808,7 +4808,7 @@
         <v>3.984136560095943</v>
       </c>
       <c r="C404" t="n">
-        <v>6.520284729164027e-05</v>
+        <v>6.545747452512334e-05</v>
       </c>
     </row>
     <row r="405">
@@ -4819,7 +4819,7 @@
         <v>3.985122395149542</v>
       </c>
       <c r="C405" t="n">
-        <v>6.065571923453417e-05</v>
+        <v>6.092631273873316e-05</v>
       </c>
     </row>
     <row r="406">
@@ -4830,7 +4830,7 @@
         <v>3.986108230203142</v>
       </c>
       <c r="C406" t="n">
-        <v>5.639089523833858e-05</v>
+        <v>5.667354073417019e-05</v>
       </c>
     </row>
     <row r="407">
@@ -4841,7 +4841,7 @@
         <v>3.987094065256741</v>
       </c>
       <c r="C407" t="n">
-        <v>5.241365017514092e-05</v>
+        <v>5.270428581293004e-05</v>
       </c>
     </row>
     <row r="408">
@@ -4852,7 +4852,7 @@
         <v>3.98807990031034</v>
       </c>
       <c r="C408" t="n">
-        <v>4.871739310245809e-05</v>
+        <v>4.901209451115405e-05</v>
       </c>
     </row>
     <row r="409">
@@ -4863,7 +4863,7 @@
         <v>3.98906573536394</v>
       </c>
       <c r="C409" t="n">
-        <v>4.52906713064432e-05</v>
+        <v>4.558576838662296e-05</v>
       </c>
     </row>
     <row r="410">
@@ -4874,7 +4874,7 @@
         <v>3.990051570417539</v>
       </c>
       <c r="C410" t="n">
-        <v>4.212201738519943e-05</v>
+        <v>4.241409466191441e-05</v>
       </c>
     </row>
     <row r="411">
@@ -4885,7 +4885,7 @@
         <v>3.991037405471138</v>
       </c>
       <c r="C411" t="n">
-        <v>3.91999639368316e-05</v>
+        <v>3.948586055960778e-05</v>
       </c>
     </row>
     <row r="412">
@@ -4896,7 +4896,7 @@
         <v>3.992023240524738</v>
       </c>
       <c r="C412" t="n">
-        <v>3.651304355944345e-05</v>
+        <v>3.678985330228128e-05</v>
       </c>
     </row>
     <row r="413">
@@ -4907,7 +4907,7 @@
         <v>3.993009075578337</v>
       </c>
       <c r="C413" t="n">
-        <v>3.404978885114223e-05</v>
+        <v>3.431486011251669e-05</v>
       </c>
     </row>
     <row r="414">
@@ -4918,7 +4918,7 @@
         <v>3.993994910631936</v>
       </c>
       <c r="C414" t="n">
-        <v>3.179873241003154e-05</v>
+        <v>3.204966821289209e-05</v>
       </c>
     </row>
     <row r="415">
@@ -4929,7 +4929,7 @@
         <v>3.994980745685536</v>
       </c>
       <c r="C415" t="n">
-        <v>2.97484068342154e-05</v>
+        <v>2.998306482598597e-05</v>
       </c>
     </row>
     <row r="416">
@@ -4940,7 +4940,7 @@
         <v>3.995966580739135</v>
       </c>
       <c r="C416" t="n">
-        <v>2.788734472180046e-05</v>
+        <v>2.810383717437955e-05</v>
       </c>
     </row>
     <row r="417">
@@ -4951,7 +4951,7 @@
         <v>3.996952415792734</v>
       </c>
       <c r="C417" t="n">
-        <v>2.620407867089065e-05</v>
+        <v>2.640077248065124e-05</v>
       </c>
     </row>
     <row r="418">
@@ -4962,7 +4962,7 @@
         <v>3.997938250846333</v>
       </c>
       <c r="C418" t="n">
-        <v>2.468714127959017e-05</v>
+        <v>2.486265796737972e-05</v>
       </c>
     </row>
     <row r="419">
@@ -4973,7 +4973,7 @@
         <v>3.998924085899933</v>
       </c>
       <c r="C419" t="n">
-        <v>2.332506514600526e-05</v>
+        <v>2.347828085714575e-05</v>
       </c>
     </row>
     <row r="420">
@@ -4984,7 +4984,7 @@
         <v>3.999909920953532</v>
       </c>
       <c r="C420" t="n">
-        <v>2.210638286824004e-05</v>
+        <v>2.223642837252796e-05</v>
       </c>
     </row>
     <row r="421">
@@ -4995,7 +4995,7 @@
         <v>4.000895756007131</v>
       </c>
       <c r="C421" t="n">
-        <v>2.101962704439892e-05</v>
+        <v>2.112588773610525e-05</v>
       </c>
     </row>
     <row r="422">
@@ -5006,7 +5006,7 @@
         <v>4.00188159106073</v>
       </c>
       <c r="C422" t="n">
-        <v>2.005333027258815e-05</v>
+        <v>2.013544617045839e-05</v>
       </c>
     </row>
     <row r="423">
@@ -5017,7 +5017,7 @@
         <v>4.00286742611433</v>
       </c>
       <c r="C423" t="n">
-        <v>1.919602515091084e-05</v>
+        <v>1.925389089816497e-05</v>
       </c>
     </row>
     <row r="424">
@@ -5028,7 +5028,7 @@
         <v>4.003853261167929</v>
       </c>
       <c r="C424" t="n">
-        <v>1.843624427747276e-05</v>
+        <v>1.847000914180527e-05</v>
       </c>
     </row>
     <row r="425">
@@ -5039,7 +5039,7 @@
         <v>4.004839096221528</v>
       </c>
       <c r="C425" t="n">
-        <v>1.776252025037934e-05</v>
+        <v>1.777258812395925e-05</v>
       </c>
     </row>
     <row r="426">
@@ -5050,7 +5050,7 @@
         <v>4.005824931275128</v>
       </c>
       <c r="C426" t="n">
-        <v>1.716338566773419e-05</v>
+        <v>1.715041506720499e-05</v>
       </c>
     </row>
     <row r="427">
@@ -5061,7 +5061,7 @@
         <v>4.006810766328726</v>
       </c>
       <c r="C427" t="n">
-        <v>1.66273731276433e-05</v>
+        <v>1.659227719412299e-05</v>
       </c>
     </row>
     <row r="428">
@@ -5072,7 +5072,7 @@
         <v>4.007796601382326</v>
       </c>
       <c r="C428" t="n">
-        <v>1.614301522821052e-05</v>
+        <v>1.608696172729161e-05</v>
       </c>
     </row>
     <row r="429">
@@ -5083,7 +5083,7 @@
         <v>4.008782436435926</v>
       </c>
       <c r="C429" t="n">
-        <v>1.569884456754123e-05</v>
+        <v>1.562325588929072e-05</v>
       </c>
     </row>
     <row r="430">
@@ -5094,7 +5094,7 @@
         <v>4.009768271489524</v>
       </c>
       <c r="C430" t="n">
-        <v>1.528339374374064e-05</v>
+        <v>1.518994690270005e-05</v>
       </c>
     </row>
     <row r="431">
@@ -5105,7 +5105,7 @@
         <v>4.010754106543124</v>
       </c>
       <c r="C431" t="n">
-        <v>1.488519535491284e-05</v>
+        <v>1.477582199009819e-05</v>
       </c>
     </row>
     <row r="432">
@@ -5116,7 +5116,7 @@
         <v>4.011739941596724</v>
       </c>
       <c r="C432" t="n">
-        <v>1.449278199916308e-05</v>
+        <v>1.436966837406488e-05</v>
       </c>
     </row>
     <row r="433">
@@ -5127,7 +5127,7 @@
         <v>4.012725776650322</v>
       </c>
       <c r="C433" t="n">
-        <v>1.409533598933993e-05</v>
+        <v>1.396090186166923e-05</v>
       </c>
     </row>
     <row r="434">
@@ -5138,7 +5138,7 @@
         <v>4.013711611703922</v>
       </c>
       <c r="C434" t="n">
-        <v>1.368961487680414e-05</v>
+        <v>1.354626713389115e-05</v>
       </c>
     </row>
     <row r="435">
@@ -5149,7 +5149,7 @@
         <v>4.014697446757522</v>
       </c>
       <c r="C435" t="n">
-        <v>1.327727407555907e-05</v>
+        <v>1.312724744432222e-05</v>
       </c>
     </row>
     <row r="436">
@@ -5160,7 +5160,7 @@
         <v>4.01568328181112</v>
       </c>
       <c r="C436" t="n">
-        <v>1.286005110874952e-05</v>
+        <v>1.270540548531275e-05</v>
       </c>
     </row>
     <row r="437">
@@ -5171,7 +5171,7 @@
         <v>4.01666911686472</v>
       </c>
       <c r="C437" t="n">
-        <v>1.243968349951913e-05</v>
+        <v>1.228230394921191e-05</v>
       </c>
     </row>
     <row r="438">
@@ -5182,7 +5182,7 @@
         <v>4.01765495191832</v>
       </c>
       <c r="C438" t="n">
-        <v>1.201790877101271e-05</v>
+        <v>1.185950552837002e-05</v>
       </c>
     </row>
     <row r="439">
@@ -5193,7 +5193,7 @@
         <v>4.018640786971918</v>
       </c>
       <c r="C439" t="n">
-        <v>1.159646444637503e-05</v>
+        <v>1.143857291513739e-05</v>
       </c>
     </row>
     <row r="440">
@@ -5204,7 +5204,7 @@
         <v>4.019626622025518</v>
       </c>
       <c r="C440" t="n">
-        <v>1.117708804874976e-05</v>
+        <v>1.10210688018632e-05</v>
       </c>
     </row>
     <row r="441">
@@ -5215,7 +5215,7 @@
         <v>4.020612457079118</v>
       </c>
       <c r="C441" t="n">
-        <v>1.07615171012817e-05</v>
+        <v>1.060855588089775e-05</v>
       </c>
     </row>
     <row r="442">
@@ -5226,7 +5226,7 @@
         <v>4.021598292132716</v>
       </c>
       <c r="C442" t="n">
-        <v>1.035148912711561e-05</v>
+        <v>1.020259684459134e-05</v>
       </c>
     </row>
     <row r="443">
@@ -5237,7 +5237,7 @@
         <v>4.022584127186316</v>
       </c>
       <c r="C443" t="n">
-        <v>9.948741649395184e-06</v>
+        <v>9.804754385293181e-06</v>
       </c>
     </row>
     <row r="444">
@@ -5248,7 +5248,7 @@
         <v>4.023569962239915</v>
       </c>
       <c r="C444" t="n">
-        <v>9.555012191265546e-06</v>
+        <v>9.416591195353908e-06</v>
       </c>
     </row>
     <row r="445">
@@ -5259,7 +5259,7 @@
         <v>4.024555797293514</v>
       </c>
       <c r="C445" t="n">
-        <v>9.172038275870401e-06</v>
+        <v>9.039669967122759e-06</v>
       </c>
     </row>
     <row r="446">
@@ -5270,7 +5270,7 @@
         <v>4.025541632347114</v>
       </c>
       <c r="C446" t="n">
-        <v>8.801557426354528e-06</v>
+        <v>8.675553392950019e-06</v>
       </c>
     </row>
     <row r="447">
@@ -5281,7 +5281,7 @@
         <v>4.026527467400713</v>
       </c>
       <c r="C447" t="n">
-        <v>8.445307165862654e-06</v>
+        <v>8.325804165185936e-06</v>
       </c>
     </row>
     <row r="448">
@@ -5292,7 +5292,7 @@
         <v>4.027513302454312</v>
       </c>
       <c r="C448" t="n">
-        <v>8.105025017538545e-06</v>
+        <v>7.991984976179805e-06</v>
       </c>
     </row>
     <row r="449">
@@ -5303,7 +5303,7 @@
         <v>4.028499137507912</v>
       </c>
       <c r="C449" t="n">
-        <v>7.782448504526952e-06</v>
+        <v>7.67565851828189e-06</v>
       </c>
     </row>
     <row r="450">
@@ -5314,7 +5314,7 @@
         <v>4.029484972561511</v>
       </c>
       <c r="C450" t="n">
-        <v>7.479279146560303e-06</v>
+        <v>7.378354500565456e-06</v>
       </c>
     </row>
     <row r="451">
@@ -5325,7 +5325,7 @@
         <v>4.03047080761511</v>
       </c>
       <c r="C451" t="n">
-        <v>7.196178214419698e-06</v>
+        <v>7.100649644120421e-06</v>
       </c>
     </row>
     <row r="452">
@@ -5336,7 +5336,7 @@
         <v>4.03145664266871</v>
       </c>
       <c r="C452" t="n">
-        <v>6.932633116694278e-06</v>
+        <v>6.84204527691903e-06</v>
       </c>
     </row>
     <row r="453">
@@ -5347,7 +5347,7 @@
         <v>4.032442477722308</v>
       </c>
       <c r="C453" t="n">
-        <v>6.688068413531023e-06</v>
+        <v>6.601985150513874e-06</v>
       </c>
     </row>
     <row r="454">
@@ -5358,7 +5358,7 @@
         <v>4.033428312775908</v>
       </c>
       <c r="C454" t="n">
-        <v>6.461908665076244e-06</v>
+        <v>6.379913016456902e-06</v>
       </c>
     </row>
     <row r="455">
@@ -5369,7 +5369,7 @@
         <v>4.034414147829507</v>
       </c>
       <c r="C455" t="n">
-        <v>6.253578431477109e-06</v>
+        <v>6.175272626300891e-06</v>
       </c>
     </row>
     <row r="456">
@@ -5380,7 +5380,7 @@
         <v>4.035399982883106</v>
       </c>
       <c r="C456" t="n">
-        <v>6.062502272880003e-06</v>
+        <v>5.98750773159786e-06</v>
       </c>
     </row>
     <row r="457">
@@ -5391,7 +5391,7 @@
         <v>4.036385817936706</v>
       </c>
       <c r="C457" t="n">
-        <v>5.888104749431876e-06</v>
+        <v>5.81606208390038e-06</v>
       </c>
     </row>
     <row r="458">
@@ -5402,7 +5402,7 @@
         <v>4.037371652990305</v>
       </c>
       <c r="C458" t="n">
-        <v>5.729810421279625e-06</v>
+        <v>5.660379434760965e-06</v>
       </c>
     </row>
     <row r="459">
@@ -5413,7 +5413,7 @@
         <v>4.038357488043904</v>
       </c>
       <c r="C459" t="n">
-        <v>5.587043848569724e-06</v>
+        <v>5.519903535731719e-06</v>
       </c>
     </row>
     <row r="460">
@@ -5424,7 +5424,7 @@
         <v>4.039343323097504</v>
       </c>
       <c r="C460" t="n">
-        <v>5.459229591449077e-06</v>
+        <v>5.394078138365167e-06</v>
       </c>
     </row>
     <row r="461">
@@ -5435,7 +5435,7 @@
         <v>4.040329158151103</v>
       </c>
       <c r="C461" t="n">
-        <v>5.345792210064542e-06</v>
+        <v>5.282346994213786e-06</v>
       </c>
     </row>
     <row r="462">
@@ -5446,7 +5446,7 @@
         <v>4.041314993204702</v>
       </c>
       <c r="C462" t="n">
-        <v>5.246156264562672e-06</v>
+        <v>5.184153854829759e-06</v>
       </c>
     </row>
     <row r="463">
@@ -5457,7 +5457,7 @@
         <v>4.042300828258302</v>
       </c>
       <c r="C463" t="n">
-        <v>5.159746315090331e-06</v>
+        <v>5.098942471765571e-06</v>
       </c>
     </row>
     <row r="464">
@@ -5468,7 +5468,7 @@
         <v>4.043286663311901</v>
       </c>
       <c r="C464" t="n">
-        <v>5.085986921794343e-06</v>
+        <v>5.026156596573666e-06</v>
       </c>
     </row>
     <row r="465">
@@ -5479,7 +5479,7 @@
         <v>4.0442724983655</v>
       </c>
       <c r="C465" t="n">
-        <v>5.02430264482133e-06</v>
+        <v>4.965239980806292e-06</v>
       </c>
     </row>
     <row r="466">
@@ -5490,7 +5490,7 @@
         <v>4.0452583334191</v>
       </c>
       <c r="C466" t="n">
-        <v>4.974118044318122e-06</v>
+        <v>4.9156363760159e-06</v>
       </c>
     </row>
     <row r="467">
@@ -5501,7 +5501,7 @@
         <v>4.046244168472699</v>
       </c>
       <c r="C467" t="n">
-        <v>4.934857680431511e-06</v>
+        <v>4.876789533754907e-06</v>
       </c>
     </row>
     <row r="468">
@@ -5512,7 +5512,7 @@
         <v>4.047230003526298</v>
       </c>
       <c r="C468" t="n">
-        <v>4.905946113308183e-06</v>
+        <v>4.848143205575621e-06</v>
       </c>
     </row>
     <row r="469">
@@ -5523,7 +5523,7 @@
         <v>4.048215838579897</v>
       </c>
       <c r="C469" t="n">
-        <v>4.886807903094948e-06</v>
+        <v>4.829141143030476e-06</v>
       </c>
     </row>
     <row r="470">
@@ -5534,7 +5534,7 @@
         <v>4.049201673633497</v>
       </c>
       <c r="C470" t="n">
-        <v>4.876867609938532e-06</v>
+        <v>4.81922709767182e-06</v>
       </c>
     </row>
     <row r="471">
@@ -5545,7 +5545,7 @@
         <v>4.050187508687096</v>
       </c>
       <c r="C471" t="n">
-        <v>4.875549793985713e-06</v>
+        <v>4.817844821052057e-06</v>
       </c>
     </row>
     <row r="472">
@@ -5556,7 +5556,7 @@
         <v>4.051173343740695</v>
       </c>
       <c r="C472" t="n">
-        <v>4.882279015383243e-06</v>
+        <v>4.824438064723557e-06</v>
       </c>
     </row>
     <row r="473">
@@ -5567,7 +5567,7 @@
         <v>4.052159178794295</v>
       </c>
       <c r="C473" t="n">
-        <v>4.896479834277889e-06</v>
+        <v>4.838450580238715e-06</v>
       </c>
     </row>
     <row r="474">
@@ -5578,7 +5578,7 @@
         <v>4.053145013847894</v>
       </c>
       <c r="C474" t="n">
-        <v>4.91757681081641e-06</v>
+        <v>4.859326119149911e-06</v>
       </c>
     </row>
     <row r="475">
@@ -5589,7 +5589,7 @@
         <v>4.054130848901493</v>
       </c>
       <c r="C475" t="n">
-        <v>4.944994505145531e-06</v>
+        <v>4.886508433009494e-06</v>
       </c>
     </row>
     <row r="476">
@@ -5600,7 +5600,7 @@
         <v>4.055116683955093</v>
       </c>
       <c r="C476" t="n">
-        <v>4.978157477412068e-06</v>
+        <v>4.9194412733699e-06</v>
       </c>
     </row>
     <row r="477">
@@ -5611,7 +5611,7 @@
         <v>4.056102519008692</v>
       </c>
       <c r="C477" t="n">
-        <v>5.016490287762751e-06</v>
+        <v>4.957568391783486e-06</v>
       </c>
     </row>
     <row r="478">
@@ -5622,7 +5622,7 @@
         <v>4.057088354062291</v>
       </c>
       <c r="C478" t="n">
-        <v>5.0594174963443e-06</v>
+        <v>5.000333539802594e-06</v>
       </c>
     </row>
     <row r="479">
@@ -5633,7 +5633,7 @@
         <v>4.05807418911589</v>
       </c>
       <c r="C479" t="n">
-        <v>5.106363663303552e-06</v>
+        <v>5.047180468979681e-06</v>
       </c>
     </row>
     <row r="480">
@@ -5644,7 +5644,7 @@
         <v>4.05906002416949</v>
       </c>
       <c r="C480" t="n">
-        <v>5.156753348787225e-06</v>
+        <v>5.097552930867093e-06</v>
       </c>
     </row>
     <row r="481">
@@ -5655,7 +5655,7 @@
         <v>4.060045859223089</v>
       </c>
       <c r="C481" t="n">
-        <v>5.210011112942028e-06</v>
+        <v>5.150894677017162e-06</v>
       </c>
     </row>
     <row r="482">
@@ -5666,7 +5666,7 @@
         <v>4.061031694276688</v>
       </c>
       <c r="C482" t="n">
-        <v>5.265561515914822e-06</v>
+        <v>5.206649458982367e-06</v>
       </c>
     </row>
     <row r="483">
@@ -5677,7 +5677,7 @@
         <v>4.062017529330287</v>
       </c>
       <c r="C483" t="n">
-        <v>5.322829117852261e-06</v>
+        <v>5.264261028314988e-06</v>
       </c>
     </row>
     <row r="484">
@@ -5688,7 +5688,7 @@
         <v>4.063003364383887</v>
       </c>
       <c r="C484" t="n">
-        <v>5.381238478901204e-06</v>
+        <v>5.32317313656751e-06</v>
       </c>
     </row>
     <row r="485">
@@ -5699,7 +5699,7 @@
         <v>4.063989199437486</v>
       </c>
       <c r="C485" t="n">
-        <v>5.440284956396263e-06</v>
+        <v>5.382899708425481e-06</v>
       </c>
     </row>
     <row r="486">
@@ -5710,7 +5710,7 @@
         <v>4.064975034491085</v>
       </c>
       <c r="C486" t="n">
-        <v>5.500545536445533e-06</v>
+        <v>5.444026763134465e-06</v>
       </c>
     </row>
     <row r="487">
@@ -5721,7 +5721,7 @@
         <v>4.065960869544685</v>
       </c>
       <c r="C487" t="n">
-        <v>5.563441396228053e-06</v>
+        <v>5.507977069735309e-06</v>
       </c>
     </row>
     <row r="488">
@@ -5732,7 +5732,7 @@
         <v>4.066946704598284</v>
       </c>
       <c r="C488" t="n">
-        <v>5.630416106277679e-06</v>
+        <v>5.576195593233371e-06</v>
       </c>
     </row>
     <row r="489">
@@ -5743,7 +5743,7 @@
         <v>4.067932539651883</v>
       </c>
       <c r="C489" t="n">
-        <v>5.702913237128259e-06</v>
+        <v>5.650127298634001e-06</v>
       </c>
     </row>
     <row r="490">
@@ -5754,7 +5754,7 @@
         <v>4.068918374705483</v>
       </c>
       <c r="C490" t="n">
-        <v>5.782376359313837e-06</v>
+        <v>5.731217150942748e-06</v>
       </c>
     </row>
     <row r="491">
@@ -5765,7 +5765,7 @@
         <v>4.069904209759082</v>
       </c>
       <c r="C491" t="n">
-        <v>5.870249043368265e-06</v>
+        <v>5.820910115164966e-06</v>
       </c>
     </row>
     <row r="492">
@@ -5776,7 +5776,7 @@
         <v>4.070890044812681</v>
       </c>
       <c r="C492" t="n">
-        <v>5.967974859825364e-06</v>
+        <v>5.920651156305978e-06</v>
       </c>
     </row>
     <row r="493">
@@ -5787,7 +5787,7 @@
         <v>4.071875879866281</v>
       </c>
       <c r="C493" t="n">
-        <v>6.076997379219221e-06</v>
+        <v>6.03188523937138e-06</v>
       </c>
     </row>
     <row r="494">
@@ -5798,7 +5798,7 @@
         <v>4.072861714919879</v>
       </c>
       <c r="C494" t="n">
-        <v>6.198760172083555e-06</v>
+        <v>6.15605732936639e-06</v>
       </c>
     </row>
     <row r="495">
@@ -5809,7 +5809,7 @@
         <v>4.073847549973479</v>
       </c>
       <c r="C495" t="n">
-        <v>6.334706808952494e-06</v>
+        <v>6.294612391296641e-06</v>
       </c>
     </row>
     <row r="496">
@@ -5820,7 +5820,7 @@
         <v>4.074833385027079</v>
       </c>
       <c r="C496" t="n">
-        <v>6.486280860359851e-06</v>
+        <v>6.44899539016745e-06</v>
       </c>
     </row>
     <row r="497">
@@ -5831,7 +5831,7 @@
         <v>4.075819220080677</v>
       </c>
       <c r="C497" t="n">
-        <v>6.65492589683938e-06</v>
+        <v>6.620651290984071e-06</v>
       </c>
     </row>
     <row r="498">
@@ -5842,7 +5842,7 @@
         <v>4.076805055134277</v>
       </c>
       <c r="C498" t="n">
-        <v>6.842085488925297e-06</v>
+        <v>6.811025058752229e-06</v>
       </c>
     </row>
     <row r="499">
@@ -5853,7 +5853,7 @@
         <v>4.077790890187877</v>
       </c>
       <c r="C499" t="n">
-        <v>7.049203207151372e-06</v>
+        <v>7.021561658477197e-06</v>
       </c>
     </row>
     <row r="500">
@@ -5864,7 +5864,7 @@
         <v>4.078776725241475</v>
       </c>
       <c r="C500" t="n">
-        <v>7.277722622051304e-06</v>
+        <v>7.253706055164169e-06</v>
       </c>
     </row>
     <row r="501">
@@ -5875,7 +5875,7 @@
         <v>4.079762560295075</v>
       </c>
       <c r="C501" t="n">
-        <v>7.529087304159416e-06</v>
+        <v>7.508903213818983e-06</v>
       </c>
     </row>
     <row r="502">
@@ -5886,7 +5886,7 @@
         <v>4.080748395348675</v>
       </c>
       <c r="C502" t="n">
-        <v>7.804740824009429e-06</v>
+        <v>7.788598099446857e-06</v>
       </c>
     </row>
     <row r="503">
@@ -5897,7 +5897,7 @@
         <v>4.081734230402273</v>
       </c>
       <c r="C503" t="n">
-        <v>8.10612675213497e-06</v>
+        <v>8.09423567705292e-06</v>
       </c>
     </row>
     <row r="504">
@@ -5908,7 +5908,7 @@
         <v>4.082720065455873</v>
       </c>
       <c r="C504" t="n">
-        <v>8.4346886590705e-06</v>
+        <v>8.42726091164314e-06</v>
       </c>
     </row>
     <row r="505">
@@ -5919,7 +5919,7 @@
         <v>4.083705900509472</v>
       </c>
       <c r="C505" t="n">
-        <v>8.791870115349669e-06</v>
+        <v>8.789118768222677e-06</v>
       </c>
     </row>
     <row r="506">
@@ -5930,7 +5930,7 @@
         <v>4.084691735563071</v>
       </c>
       <c r="C506" t="n">
-        <v>9.179114691506029e-06</v>
+        <v>9.181254211796571e-06</v>
       </c>
     </row>
     <row r="507">
@@ -5941,7 +5941,7 @@
         <v>4.085677570616671</v>
       </c>
       <c r="C507" t="n">
-        <v>9.598146056478176e-06</v>
+        <v>9.605389090668307e-06</v>
       </c>
     </row>
     <row r="508">
@@ -5952,7 +5952,7 @@
         <v>4.08666340567027</v>
       </c>
       <c r="C508" t="n">
-        <v>1.005370008330717e-05</v>
+        <v>1.006622288169024e-05</v>
       </c>
     </row>
     <row r="509">
@@ -5963,7 +5963,7 @@
         <v>4.087649240723869</v>
       </c>
       <c r="C509" t="n">
-        <v>1.055234611077279e-05</v>
+        <v>1.0570267482036e-05</v>
       </c>
     </row>
     <row r="510">
@@ -5974,7 +5974,7 @@
         <v>4.088635075777469</v>
       </c>
       <c r="C510" t="n">
-        <v>1.110067945707575e-05</v>
+        <v>1.112406047009561e-05</v>
       </c>
     </row>
     <row r="511">
@@ -5985,7 +5985,7 @@
         <v>4.089620910831067</v>
       </c>
       <c r="C511" t="n">
-        <v>1.170529544041488e-05</v>
+        <v>1.173413942425725e-05</v>
       </c>
     </row>
     <row r="512">
@@ -5996,7 +5996,7 @@
         <v>4.090606745884667</v>
       </c>
       <c r="C512" t="n">
-        <v>1.237278937899108e-05</v>
+        <v>1.240704192291114e-05</v>
       </c>
     </row>
     <row r="513">
@@ -6007,7 +6007,7 @@
         <v>4.091592580938267</v>
       </c>
       <c r="C513" t="n">
-        <v>1.310975659100364e-05</v>
+        <v>1.314930554444592e-05</v>
       </c>
     </row>
     <row r="514">
@@ -6018,7 +6018,7 @@
         <v>4.092578415991865</v>
       </c>
       <c r="C514" t="n">
-        <v>1.392279239465162e-05</v>
+        <v>1.396746786724996e-05</v>
       </c>
     </row>
     <row r="515">
@@ -6029,7 +6029,7 @@
         <v>4.093564251045465</v>
       </c>
       <c r="C515" t="n">
-        <v>1.48184921081363e-05</v>
+        <v>1.486806646971389e-05</v>
       </c>
     </row>
     <row r="516">
@@ -6040,7 +6040,7 @@
         <v>4.094550086099065</v>
       </c>
       <c r="C516" t="n">
-        <v>1.58034510496568e-05</v>
+        <v>1.585763893022615e-05</v>
       </c>
     </row>
     <row r="517">
@@ -6051,7 +6051,7 @@
         <v>4.095535921152663</v>
       </c>
       <c r="C517" t="n">
-        <v>1.688426453741192e-05</v>
+        <v>1.694272282717489e-05</v>
       </c>
     </row>
     <row r="518">
@@ -6062,7 +6062,7 @@
         <v>4.096521756206263</v>
       </c>
       <c r="C518" t="n">
-        <v>1.806752788960342e-05</v>
+        <v>1.812985573895119e-05</v>
       </c>
     </row>
     <row r="519">
@@ -6073,7 +6073,7 @@
         <v>4.097507591259863</v>
       </c>
       <c r="C519" t="n">
-        <v>1.93598364244302e-05</v>
+        <v>1.942557524394328e-05</v>
       </c>
     </row>
     <row r="520">
@@ -6084,7 +6084,7 @@
         <v>4.098493426313461</v>
       </c>
       <c r="C520" t="n">
-        <v>2.076795592802178e-05</v>
+        <v>2.083657765749742e-05</v>
       </c>
     </row>
     <row r="521">
@@ -6095,7 +6095,7 @@
         <v>4.099479261367061</v>
       </c>
       <c r="C521" t="n">
-        <v>2.229982394708834e-05</v>
+        <v>2.237065041931092e-05</v>
       </c>
     </row>
     <row r="522">
@@ -6106,7 +6106,7 @@
         <v>4.10046509642066</v>
       </c>
       <c r="C522" t="n">
-        <v>2.396387061743712e-05</v>
+        <v>2.403603966001774e-05</v>
       </c>
     </row>
     <row r="523">
@@ -6117,7 +6117,7 @@
         <v>4.101450931474259</v>
       </c>
       <c r="C523" t="n">
-        <v>2.576852777951524e-05</v>
+        <v>2.584099309758519e-05</v>
       </c>
     </row>
     <row r="524">
@@ -6128,7 +6128,7 @@
         <v>4.102436766527859</v>
       </c>
       <c r="C524" t="n">
-        <v>2.772222727376541e-05</v>
+        <v>2.779375844997608e-05</v>
       </c>
     </row>
     <row r="525">
@@ -6139,7 +6139,7 @@
         <v>4.103422601581458</v>
       </c>
       <c r="C525" t="n">
-        <v>2.98334009406298e-05</v>
+        <v>2.990258343515272e-05</v>
       </c>
     </row>
     <row r="526">
@@ -6150,7 +6150,7 @@
         <v>4.104408436635057</v>
       </c>
       <c r="C526" t="n">
-        <v>3.211048062055633e-05</v>
+        <v>3.217571577108317e-05</v>
       </c>
     </row>
     <row r="527">
@@ -6161,7 +6161,7 @@
         <v>4.105394271688657</v>
       </c>
       <c r="C527" t="n">
-        <v>3.456189815398732e-05</v>
+        <v>3.462140317572988e-05</v>
       </c>
     </row>
     <row r="528">
@@ -6172,7 +6172,7 @@
         <v>4.106380106742256</v>
       </c>
       <c r="C528" t="n">
-        <v>3.719608538136443e-05</v>
+        <v>3.724789336705468e-05</v>
       </c>
     </row>
     <row r="529">
@@ -6183,7 +6183,7 @@
         <v>4.107365941795855</v>
       </c>
       <c r="C529" t="n">
-        <v>4.001132851937682e-05</v>
+        <v>4.005336831240339e-05</v>
       </c>
     </row>
     <row r="530">
@@ -6194,7 +6194,7 @@
         <v>4.108351776849455</v>
       </c>
       <c r="C530" t="n">
-        <v>4.295958150561619e-05</v>
+        <v>4.299004245871675e-05</v>
       </c>
     </row>
     <row r="531">
@@ -6205,7 +6205,7 @@
         <v>4.109337611903054</v>
       </c>
       <c r="C531" t="n">
-        <v>4.597957976290605e-05</v>
+        <v>4.59970158031573e-05</v>
       </c>
     </row>
     <row r="532">
@@ -6216,7 +6216,7 @@
         <v>4.110323446956653</v>
       </c>
       <c r="C532" t="n">
-        <v>4.901005771660208e-05</v>
+        <v>4.901338735327254e-05</v>
       </c>
     </row>
     <row r="533">
@@ -6227,7 +6227,7 @@
         <v>4.111309282010252</v>
       </c>
       <c r="C533" t="n">
-        <v>5.19897497920492e-05</v>
+        <v>5.197825611659925e-05</v>
       </c>
     </row>
     <row r="534">
@@ -6238,7 +6238,7 @@
         <v>4.112295117063852</v>
       </c>
       <c r="C534" t="n">
-        <v>5.485739041460304e-05</v>
+        <v>5.483072110068488e-05</v>
       </c>
     </row>
     <row r="535">
@@ -6249,7 +6249,7 @@
         <v>4.113280952117451</v>
       </c>
       <c r="C535" t="n">
-        <v>5.755171400961114e-05</v>
+        <v>5.750988131306877e-05</v>
       </c>
     </row>
     <row r="536">
@@ -6260,7 +6260,7 @@
         <v>4.11426678717105</v>
       </c>
       <c r="C536" t="n">
-        <v>6.00114550024216e-05</v>
+        <v>5.995483576129091e-05</v>
       </c>
     </row>
     <row r="537">
@@ -6271,7 +6271,7 @@
         <v>4.115252622224649</v>
       </c>
       <c r="C537" t="n">
-        <v>6.217534781838914e-05</v>
+        <v>6.210468345289782e-05</v>
       </c>
     </row>
     <row r="538">
@@ -6282,7 +6282,7 @@
         <v>4.116238457278249</v>
       </c>
       <c r="C538" t="n">
-        <v>6.398212688286166e-05</v>
+        <v>6.389852339542924e-05</v>
       </c>
     </row>
     <row r="539">
@@ -6293,7 +6293,7 @@
         <v>4.117224292331848</v>
       </c>
       <c r="C539" t="n">
-        <v>6.537052662118838e-05</v>
+        <v>6.52754545964262e-05</v>
       </c>
     </row>
     <row r="540">
@@ -6304,7 +6304,7 @@
         <v>4.118210127385447</v>
       </c>
       <c r="C540" t="n">
-        <v>6.627928145872202e-05</v>
+        <v>6.617457606343329e-05</v>
       </c>
     </row>
     <row r="541">
@@ -6315,7 +6315,7 @@
         <v>4.119195962439047</v>
       </c>
       <c r="C541" t="n">
-        <v>6.664712582081137e-05</v>
+        <v>6.653498680399112e-05</v>
       </c>
     </row>
     <row r="542">
@@ -6326,7 +6326,7 @@
         <v>4.120181797492646</v>
       </c>
       <c r="C542" t="n">
-        <v>6.641279413280723e-05</v>
+        <v>6.629578582564228e-05</v>
       </c>
     </row>
     <row r="543">
@@ -6337,7 +6337,7 @@
         <v>4.121167632546245</v>
       </c>
       <c r="C543" t="n">
-        <v>6.551502082005935e-05</v>
+        <v>6.539607213592844e-05</v>
       </c>
     </row>
     <row r="544">
@@ -6348,7 +6348,7 @@
         <v>4.122153467599845</v>
       </c>
       <c r="C544" t="n">
-        <v>6.3892540307918e-05</v>
+        <v>6.377494474239162e-05</v>
       </c>
     </row>
     <row r="545">
@@ -6359,7 +6359,7 @@
         <v>4.123139302653444</v>
       </c>
       <c r="C545" t="n">
-        <v>6.148408702173586e-05</v>
+        <v>6.137150265257637e-05</v>
       </c>
     </row>
     <row r="546">
@@ -6370,7 +6370,7 @@
         <v>4.124125137707043</v>
       </c>
       <c r="C546" t="n">
-        <v>5.824933584367147e-05</v>
+        <v>5.814567187068298e-05</v>
       </c>
     </row>
     <row r="547">
@@ -6381,7 +6381,7 @@
         <v>4.125110972760643</v>
       </c>
       <c r="C547" t="n">
-        <v>5.42883480070048e-05</v>
+        <v>5.41970041069044e-05</v>
       </c>
     </row>
     <row r="548">
@@ -6392,7 +6392,7 @@
         <v>4.126096807814242</v>
       </c>
       <c r="C548" t="n">
-        <v>4.97588903373727e-05</v>
+        <v>4.968244400178757e-05</v>
       </c>
     </row>
     <row r="549">
@@ -6403,7 +6403,7 @@
         <v>4.127082642867841</v>
       </c>
       <c r="C549" t="n">
-        <v>4.481890705907343e-05</v>
+        <v>4.475911263335452e-05</v>
       </c>
     </row>
     <row r="550">
@@ -6414,7 +6414,7 @@
         <v>4.12806847792144</v>
       </c>
       <c r="C550" t="n">
-        <v>3.962634239642217e-05</v>
+        <v>3.958413107964417e-05</v>
       </c>
     </row>
     <row r="551">
@@ -6425,7 +6425,7 @@
         <v>4.12905431297504</v>
       </c>
       <c r="C551" t="n">
-        <v>3.433914057371595e-05</v>
+        <v>3.43146204186774e-05</v>
       </c>
     </row>
     <row r="552">
@@ -6436,7 +6436,7 @@
         <v>4.130040148028639</v>
       </c>
       <c r="C552" t="n">
-        <v>2.911524581526595e-05</v>
+        <v>2.910770172848909e-05</v>
       </c>
     </row>
     <row r="553">
@@ -6447,7 +6447,7 @@
         <v>4.131025983082238</v>
       </c>
       <c r="C553" t="n">
-        <v>2.411260234538305e-05</v>
+        <v>2.412049608711388e-05</v>
       </c>
     </row>
     <row r="554">
@@ -6458,7 +6458,7 @@
         <v>4.132011818135838</v>
       </c>
       <c r="C554" t="n">
-        <v>1.948915438836469e-05</v>
+        <v>1.951012457257304e-05</v>
       </c>
     </row>
     <row r="555">
@@ -6469,7 +6469,7 @@
         <v>4.132997653189437</v>
       </c>
       <c r="C555" t="n">
-        <v>1.540284616852204e-05</v>
+        <v>1.543370826290146e-05</v>
       </c>
     </row>
     <row r="556">
@@ -6480,7 +6480,7 @@
         <v>4.133983488243036</v>
       </c>
       <c r="C556" t="n">
-        <v>1.201149970457229e-05</v>
+        <v>1.204824675457818e-05</v>
       </c>
     </row>
     <row r="557">
@@ -6491,7 +6491,7 @@
         <v>4.134969323296636</v>
       </c>
       <c r="C557" t="n">
-        <v>9.405248156628544e-06</v>
+        <v>9.443451825303962e-06</v>
       </c>
     </row>
     <row r="558">
@@ -6502,7 +6502,7 @@
         <v>4.135955158350235</v>
       </c>
       <c r="C558" t="n">
-        <v>7.494248492190956e-06</v>
+        <v>7.530125374807494e-06</v>
       </c>
     </row>
     <row r="559">
@@ -6513,7 +6513,7 @@
         <v>4.136940993403834</v>
       </c>
       <c r="C559" t="n">
-        <v>6.159076210579479e-06</v>
+        <v>6.189663097554873e-06</v>
       </c>
     </row>
     <row r="560">
@@ -6524,7 +6524,7 @@
         <v>4.137926828457434</v>
       </c>
       <c r="C560" t="n">
-        <v>5.280306811110777e-06</v>
+        <v>5.303460688008895e-06</v>
       </c>
     </row>
     <row r="561">
@@ -6535,7 +6535,7 @@
         <v>4.138912663511032</v>
       </c>
       <c r="C561" t="n">
-        <v>4.738515793105642e-06</v>
+        <v>4.7529138406365e-06</v>
       </c>
     </row>
     <row r="562">
@@ -6546,7 +6546,7 @@
         <v>4.139898498564632</v>
       </c>
       <c r="C562" t="n">
-        <v>4.414278655882166e-06</v>
+        <v>4.419418249901903e-06</v>
       </c>
     </row>
     <row r="563">
@@ -6557,7 +6557,7 @@
         <v>4.140884333618231</v>
       </c>
       <c r="C563" t="n">
-        <v>4.18856526715021e-06</v>
+        <v>4.184761152775289e-06</v>
       </c>
     </row>
     <row r="564">
@@ -6568,7 +6568,7 @@
         <v>4.14187016867183</v>
       </c>
       <c r="C564" t="n">
-        <v>3.98152470162607e-06</v>
+        <v>3.969628250739322e-06</v>
       </c>
     </row>
     <row r="565">
@@ -6579,7 +6579,7 @@
         <v>4.14285600372543</v>
       </c>
       <c r="C565" t="n">
-        <v>3.78518953567336e-06</v>
+        <v>3.766073658562821e-06</v>
       </c>
     </row>
     <row r="566">
@@ -6590,7 +6590,7 @@
         <v>4.143841838779029</v>
       </c>
       <c r="C566" t="n">
-        <v>3.599292782950206e-06</v>
+        <v>3.573796750061918e-06</v>
       </c>
     </row>
     <row r="567">
@@ -6601,7 +6601,7 @@
         <v>4.144827673832628</v>
       </c>
       <c r="C567" t="n">
-        <v>3.423567457114701e-06</v>
+        <v>3.392496899052705e-06</v>
       </c>
     </row>
     <row r="568">
@@ -6612,7 +6612,7 @@
         <v>4.145813508886228</v>
       </c>
       <c r="C568" t="n">
-        <v>3.257746571824465e-06</v>
+        <v>3.221873479350788e-06</v>
       </c>
     </row>
     <row r="569">
@@ -6623,7 +6623,7 @@
         <v>4.146799343939827</v>
       </c>
       <c r="C569" t="n">
-        <v>3.101563140737602e-06</v>
+        <v>3.061625864772266e-06</v>
       </c>
     </row>
     <row r="570">
@@ -6634,7 +6634,7 @@
         <v>4.147785178993426</v>
       </c>
       <c r="C570" t="n">
-        <v>2.954750177512175e-06</v>
+        <v>2.911453429133207e-06</v>
       </c>
     </row>
     <row r="571">
@@ -6645,7 +6645,7 @@
         <v>4.148771014047026</v>
       </c>
       <c r="C571" t="n">
-        <v>2.817040695805857e-06</v>
+        <v>2.771055546249268e-06</v>
       </c>
     </row>
     <row r="572">
@@ -6656,7 +6656,7 @@
         <v>4.149756849100625</v>
       </c>
       <c r="C572" t="n">
-        <v>2.688167709276724e-06</v>
+        <v>2.640131589936524e-06</v>
       </c>
     </row>
     <row r="573">
@@ -6667,7 +6667,7 @@
         <v>4.150742684154224</v>
       </c>
       <c r="C573" t="n">
-        <v>2.567864231582817e-06</v>
+        <v>2.518380934011013e-06</v>
       </c>
     </row>
     <row r="574">
@@ -6678,7 +6678,7 @@
         <v>4.151728519207824</v>
       </c>
       <c r="C574" t="n">
-        <v>2.455863276381859e-06</v>
+        <v>2.405502952288448e-06</v>
       </c>
     </row>
     <row r="575">
@@ -6689,7 +6689,7 @@
         <v>4.152714354261423</v>
       </c>
       <c r="C575" t="n">
-        <v>2.351897857331898e-06</v>
+        <v>2.301197018584875e-06</v>
       </c>
     </row>
     <row r="576">
@@ -6700,7 +6700,7 @@
         <v>4.153700189315022</v>
       </c>
       <c r="C576" t="n">
-        <v>2.255700988090956e-06</v>
+        <v>2.205162506716311e-06</v>
       </c>
     </row>
     <row r="577">
@@ -6711,7 +6711,7 @@
         <v>4.154686024368622</v>
       </c>
       <c r="C577" t="n">
-        <v>2.167005682316797e-06</v>
+        <v>2.117098790498514e-06</v>
       </c>
     </row>
     <row r="578">
@@ -6722,7 +6722,7 @@
         <v>4.15567185942222</v>
       </c>
       <c r="C578" t="n">
-        <v>2.085544953667521e-06</v>
+        <v>2.036705243747577e-06</v>
       </c>
     </row>
     <row r="579">
@@ -6733,7 +6733,7 @@
         <v>4.15665769447582</v>
       </c>
       <c r="C579" t="n">
-        <v>2.011051815800917e-06</v>
+        <v>1.963681240279287e-06</v>
       </c>
     </row>
     <row r="580">
@@ -6744,7 +6744,7 @@
         <v>4.15764352952942</v>
       </c>
       <c r="C580" t="n">
-        <v>1.943259282375e-06</v>
+        <v>1.897726153909653e-06</v>
       </c>
     </row>
     <row r="581">
@@ -6755,7 +6755,7 @@
         <v>4.158629364583018</v>
       </c>
       <c r="C581" t="n">
-        <v>1.88190036704776e-06</v>
+        <v>1.838539358454658e-06</v>
       </c>
     </row>
     <row r="582">
@@ -6766,7 +6766,7 @@
         <v>4.159615199636618</v>
       </c>
       <c r="C582" t="n">
-        <v>1.826708083477025e-06</v>
+        <v>1.785820227730128e-06</v>
       </c>
     </row>
     <row r="583">
@@ -6777,7 +6777,7 @@
         <v>4.160601034690218</v>
       </c>
       <c r="C583" t="n">
-        <v>1.777415445320791e-06</v>
+        <v>1.739268135552051e-06</v>
       </c>
     </row>
     <row r="584">
@@ -6788,7 +6788,7 @@
         <v>4.161586869743816</v>
       </c>
       <c r="C584" t="n">
-        <v>1.733755466237032e-06</v>
+        <v>1.698582455736395e-06</v>
       </c>
     </row>
     <row r="585">
@@ -6799,7 +6799,7 @@
         <v>4.162572704797416</v>
       </c>
       <c r="C585" t="n">
-        <v>1.695461159883608e-06</v>
+        <v>1.663462562099019e-06</v>
       </c>
     </row>
     <row r="586">
@@ -6810,7 +6810,7 @@
         <v>4.163558539851016</v>
       </c>
       <c r="C586" t="n">
-        <v>1.662265539918498e-06</v>
+        <v>1.633607828455896e-06</v>
       </c>
     </row>
     <row r="587">
@@ -6821,7 +6821,7 @@
         <v>4.164544374904614</v>
       </c>
       <c r="C587" t="n">
-        <v>1.633901619999663e-06</v>
+        <v>1.608717628622976e-06</v>
       </c>
     </row>
     <row r="588">
@@ -6832,7 +6832,7 @@
         <v>4.165530209958214</v>
       </c>
       <c r="C588" t="n">
-        <v>1.610102413784991e-06</v>
+        <v>1.58849133641615e-06</v>
       </c>
     </row>
     <row r="589">
@@ -6843,7 +6843,7 @@
         <v>4.166516045011813</v>
       </c>
       <c r="C589" t="n">
-        <v>1.590600934932462e-06</v>
+        <v>1.572628325651385e-06</v>
       </c>
     </row>
     <row r="590">
@@ -6854,7 +6854,7 @@
         <v>4.167501880065412</v>
       </c>
       <c r="C590" t="n">
-        <v>1.57513019709998e-06</v>
+        <v>1.560827970144588e-06</v>
       </c>
     </row>
     <row r="591">
@@ -6865,7 +6865,7 @@
         <v>4.168487715119012</v>
       </c>
       <c r="C591" t="n">
-        <v>1.5634232139455e-06</v>
+        <v>1.552789643711705e-06</v>
       </c>
     </row>
     <row r="592">
@@ -6876,7 +6876,7 @@
         <v>4.169473550172611</v>
       </c>
       <c r="C592" t="n">
-        <v>1.555212999126969e-06</v>
+        <v>1.548212720168673e-06</v>
       </c>
     </row>
     <row r="593">
@@ -6887,7 +6887,7 @@
         <v>4.17045938522621</v>
       </c>
       <c r="C593" t="n">
-        <v>1.550232566302308e-06</v>
+        <v>1.546796573331416e-06</v>
       </c>
     </row>
     <row r="594">
@@ -6898,7 +6898,7 @@
         <v>4.17144522027981</v>
       </c>
       <c r="C594" t="n">
-        <v>1.548214929129463e-06</v>
+        <v>1.548240577015872e-06</v>
       </c>
     </row>
     <row r="595">
@@ -6909,7 +6909,7 @@
         <v>4.172431055333409</v>
       </c>
       <c r="C595" t="n">
-        <v>1.548893101266372e-06</v>
+        <v>1.552244105037969e-06</v>
       </c>
     </row>
     <row r="596">
@@ -6920,7 +6920,7 @@
         <v>4.173416890387008</v>
       </c>
       <c r="C596" t="n">
-        <v>1.552000096370973e-06</v>
+        <v>1.558506531213648e-06</v>
       </c>
     </row>
     <row r="597">
@@ -6931,7 +6931,7 @@
         <v>4.174402725440608</v>
       </c>
       <c r="C597" t="n">
-        <v>1.557268928101205e-06</v>
+        <v>1.566727229358838e-06</v>
       </c>
     </row>
     <row r="598">
@@ -6942,7 +6942,7 @@
         <v>4.175388560494206</v>
       </c>
       <c r="C598" t="n">
-        <v>1.564432610114998e-06</v>
+        <v>1.576605573289462e-06</v>
       </c>
     </row>
     <row r="599">
@@ -6953,7 +6953,7 @@
         <v>4.176374395547806</v>
       </c>
       <c r="C599" t="n">
-        <v>1.573224156070302e-06</v>
+        <v>1.58784093682147e-06</v>
       </c>
     </row>
     <row r="600">
@@ -6964,7 +6964,7 @@
         <v>4.177360230601405</v>
       </c>
       <c r="C600" t="n">
-        <v>1.583376579625042e-06</v>
+        <v>1.600132693770777e-06</v>
       </c>
     </row>
     <row r="601">
@@ -6975,7 +6975,7 @@
         <v>4.178346065655004</v>
       </c>
       <c r="C601" t="n">
-        <v>1.594622894437171e-06</v>
+        <v>1.613180217953336e-06</v>
       </c>
     </row>
     <row r="602">
@@ -6986,7 +6986,7 @@
         <v>4.179331900708604</v>
       </c>
       <c r="C602" t="n">
-        <v>1.606696114164621e-06</v>
+        <v>1.62668288318507e-06</v>
       </c>
     </row>
     <row r="603">
@@ -6997,7 +6997,7 @@
         <v>4.180317735762203</v>
       </c>
       <c r="C603" t="n">
-        <v>1.619329360108918e-06</v>
+        <v>1.640340184587798e-06</v>
       </c>
     </row>
     <row r="604">
@@ -7008,7 +7008,7 @@
         <v>4.181303570815802</v>
       </c>
       <c r="C604" t="n">
-        <v>1.632368359145407e-06</v>
+        <v>1.653978514937856e-06</v>
       </c>
     </row>
     <row r="605">
@@ -7019,7 +7019,7 @@
         <v>4.182289405869402</v>
       </c>
       <c r="C605" t="n">
-        <v>1.645984634556055e-06</v>
+        <v>1.667791414022594e-06</v>
       </c>
     </row>
     <row r="606">
@@ -7030,7 +7030,7 @@
         <v>4.183275240923001</v>
       </c>
       <c r="C606" t="n">
-        <v>1.660408288491957e-06</v>
+        <v>1.682038435422856e-06</v>
       </c>
     </row>
     <row r="607">
@@ -7041,7 +7041,7 @@
         <v>4.1842610759766</v>
       </c>
       <c r="C607" t="n">
-        <v>1.675869423104245e-06</v>
+        <v>1.696979132719523e-06</v>
       </c>
     </row>
     <row r="608">
@@ -7052,7 +7052,7 @@
         <v>4.1852469110302</v>
       </c>
       <c r="C608" t="n">
-        <v>1.692598140544014e-06</v>
+        <v>1.712873059493442e-06</v>
       </c>
     </row>
     <row r="609">
@@ -7063,7 +7063,7 @@
         <v>4.186232746083799</v>
       </c>
       <c r="C609" t="n">
-        <v>1.710824542962351e-06</v>
+        <v>1.729979769325453e-06</v>
       </c>
     </row>
     <row r="610">
@@ -7074,7 +7074,7 @@
         <v>4.187218581137398</v>
       </c>
       <c r="C610" t="n">
-        <v>1.730778732510397e-06</v>
+        <v>1.748558815796444e-06</v>
       </c>
     </row>
     <row r="611">
@@ -7085,7 +7085,7 @@
         <v>4.188204416190998</v>
       </c>
       <c r="C611" t="n">
-        <v>1.752690811339243e-06</v>
+        <v>1.768869752487257e-06</v>
       </c>
     </row>
     <row r="612">
@@ -7096,7 +7096,7 @@
         <v>4.189190251244597</v>
       </c>
       <c r="C612" t="n">
-        <v>1.776790881599972e-06</v>
+        <v>1.791172132978729e-06</v>
       </c>
     </row>
     <row r="613">
@@ -7107,7 +7107,7 @@
         <v>4.190176086298196</v>
       </c>
       <c r="C613" t="n">
-        <v>1.803309045443735e-06</v>
+        <v>1.815725510851757e-06</v>
       </c>
     </row>
     <row r="614">
@@ -7118,7 +7118,7 @@
         <v>4.191161921351796</v>
       </c>
       <c r="C614" t="n">
-        <v>1.832475405021616e-06</v>
+        <v>1.842789439687178e-06</v>
       </c>
     </row>
     <row r="615">
@@ -7129,7 +7129,7 @@
         <v>4.192147756405395</v>
       </c>
       <c r="C615" t="n">
-        <v>1.864520062484692e-06</v>
+        <v>1.872623473065822e-06</v>
       </c>
     </row>
     <row r="616">
@@ -7140,7 +7140,7 @@
         <v>4.193133591458994</v>
       </c>
       <c r="C616" t="n">
-        <v>1.899673119984129e-06</v>
+        <v>1.905487164568599e-06</v>
       </c>
     </row>
     <row r="617">
@@ -7151,7 +7151,7 @@
         <v>4.194119426512593</v>
       </c>
       <c r="C617" t="n">
-        <v>1.938164679670968e-06</v>
+        <v>1.941640067776308e-06</v>
       </c>
     </row>
     <row r="618">
@@ -7162,7 +7162,7 @@
         <v>4.195105261566193</v>
       </c>
       <c r="C618" t="n">
-        <v>1.980224843696385e-06</v>
+        <v>1.98134173626987e-06</v>
       </c>
     </row>
     <row r="619">
@@ -7173,7 +7173,7 @@
         <v>4.196091096619792</v>
       </c>
       <c r="C619" t="n">
-        <v>2.026083714211453e-06</v>
+        <v>2.024851723630111e-06</v>
       </c>
     </row>
     <row r="620">
@@ -7184,7 +7184,7 @@
         <v>4.197076931673391</v>
       </c>
       <c r="C620" t="n">
-        <v>2.075971393367234e-06</v>
+        <v>2.072429583437843e-06</v>
       </c>
     </row>
     <row r="621">
@@ -7195,7 +7195,7 @@
         <v>4.198062766726991</v>
       </c>
       <c r="C621" t="n">
-        <v>2.130117983314922e-06</v>
+        <v>2.12433486927401e-06</v>
       </c>
     </row>
     <row r="622">
@@ -7206,7 +7206,7 @@
         <v>4.19904860178059</v>
       </c>
       <c r="C622" t="n">
-        <v>2.188753586205581e-06</v>
+        <v>2.180827134719429e-06</v>
       </c>
     </row>
     <row r="623">
@@ -7217,7 +7217,7 @@
         <v>4.200034436834189</v>
       </c>
       <c r="C623" t="n">
-        <v>2.252108304190258e-06</v>
+        <v>2.242165933354896e-06</v>
       </c>
     </row>
     <row r="624">
@@ -7228,7 +7228,7 @@
         <v>4.201020271887788</v>
       </c>
       <c r="C624" t="n">
-        <v>2.320412239420175e-06</v>
+        <v>2.308610818761383e-06</v>
       </c>
     </row>
     <row r="625">
@@ -7239,7 +7239,7 @@
         <v>4.202006106941388</v>
       </c>
       <c r="C625" t="n">
-        <v>2.393895494046382e-06</v>
+        <v>2.380421344519691e-06</v>
       </c>
     </row>
     <row r="626">
@@ -7250,7 +7250,7 @@
         <v>4.202991941994987</v>
       </c>
       <c r="C626" t="n">
-        <v>2.472788170219914e-06</v>
+        <v>2.457857064210606e-06</v>
       </c>
     </row>
     <row r="627">
@@ -7261,7 +7261,7 @@
         <v>4.203977777048586</v>
       </c>
       <c r="C627" t="n">
-        <v>2.557320370092017e-06</v>
+        <v>2.541177531415124e-06</v>
       </c>
     </row>
     <row r="628">
@@ -7272,7 +7272,7 @@
         <v>4.204963612102185</v>
       </c>
       <c r="C628" t="n">
-        <v>2.647722195813647e-06</v>
+        <v>2.630642299713953e-06</v>
       </c>
     </row>
     <row r="629">
@@ -7283,7 +7283,7 @@
         <v>4.205949447155785</v>
       </c>
       <c r="C629" t="n">
-        <v>2.744223749536074e-06</v>
+        <v>2.726510922688111e-06</v>
       </c>
     </row>
     <row r="630">
@@ -7294,7 +7294,7 @@
         <v>4.206935282209384</v>
       </c>
       <c r="C630" t="n">
-        <v>2.847055133410321e-06</v>
+        <v>2.829042953918374e-06</v>
       </c>
     </row>
     <row r="631">
@@ -7305,7 +7305,7 @@
         <v>4.207921117262983</v>
       </c>
       <c r="C631" t="n">
-        <v>2.956446449587399e-06</v>
+        <v>2.938497946985502e-06</v>
       </c>
     </row>
     <row r="632">
@@ -7316,7 +7316,7 @@
         <v>4.208906952316583</v>
       </c>
       <c r="C632" t="n">
-        <v>3.072627800218607e-06</v>
+        <v>3.055135455470546e-06</v>
       </c>
     </row>
     <row r="633">
@@ -7327,7 +7327,7 @@
         <v>4.209892787370182</v>
       </c>
       <c r="C633" t="n">
-        <v>3.195829287454959e-06</v>
+        <v>3.17921503295427e-06</v>
       </c>
     </row>
     <row r="634">
@@ -7338,7 +7338,7 @@
         <v>4.210878622423781</v>
       </c>
       <c r="C634" t="n">
-        <v>3.32628101344744e-06</v>
+        <v>3.310996233017408e-06</v>
       </c>
     </row>
     <row r="635">
@@ -7349,7 +7349,7 @@
         <v>4.211864457477381</v>
       </c>
       <c r="C635" t="n">
-        <v>3.464213080347391e-06</v>
+        <v>3.450738609241053e-06</v>
       </c>
     </row>
     <row r="636">
@@ -7360,7 +7360,7 @@
         <v>4.21285029253098</v>
       </c>
       <c r="C636" t="n">
-        <v>3.609855590305804e-06</v>
+        <v>3.59870171520595e-06</v>
       </c>
     </row>
     <row r="637">
@@ -7371,7 +7371,7 @@
         <v>4.213836127584579</v>
       </c>
       <c r="C637" t="n">
-        <v>3.763438645473644e-06</v>
+        <v>3.755145104492809e-06</v>
       </c>
     </row>
     <row r="638">
@@ -7382,7 +7382,7 @@
         <v>4.214821962638179</v>
       </c>
       <c r="C638" t="n">
-        <v>3.925192348002295e-06</v>
+        <v>3.92032833068277e-06</v>
       </c>
     </row>
     <row r="639">
@@ -7393,7 +7393,7 @@
         <v>4.215807797691777</v>
       </c>
       <c r="C639" t="n">
-        <v>4.095346800042568e-06</v>
+        <v>4.09451094735639e-06</v>
       </c>
     </row>
     <row r="640">
@@ -7404,7 +7404,7 @@
         <v>4.216793632745377</v>
       </c>
       <c r="C640" t="n">
-        <v>4.274132103745882e-06</v>
+        <v>4.277952508094844e-06</v>
       </c>
     </row>
     <row r="641">
@@ -7415,7 +7415,7 @@
         <v>4.217779467798977</v>
       </c>
       <c r="C641" t="n">
-        <v>4.461778344458326e-06</v>
+        <v>4.470912548445638e-06</v>
       </c>
     </row>
     <row r="642">
@@ -7426,7 +7426,7 @@
         <v>4.218765302852576</v>
       </c>
       <c r="C642" t="n">
-        <v>4.658033294900856e-06</v>
+        <v>4.673133037297395e-06</v>
       </c>
     </row>
     <row r="643">
@@ -7437,7 +7437,7 @@
         <v>4.219751137906175</v>
       </c>
       <c r="C643" t="n">
-        <v>4.860901091065758e-06</v>
+        <v>4.882484857879926e-06</v>
       </c>
     </row>
     <row r="644">
@@ -7448,7 +7448,7 @@
         <v>4.220736972959775</v>
       </c>
       <c r="C644" t="n">
-        <v>5.067991976011255e-06</v>
+        <v>5.096416209381155e-06</v>
       </c>
     </row>
     <row r="645">
@@ -7459,7 +7459,7 @@
         <v>4.221722808013373</v>
       </c>
       <c r="C645" t="n">
-        <v>5.276916192794833e-06</v>
+        <v>5.312375290988233e-06</v>
       </c>
     </row>
     <row r="646">
@@ -7470,7 +7470,7 @@
         <v>4.222708643066973</v>
       </c>
       <c r="C646" t="n">
-        <v>5.485283984474726e-06</v>
+        <v>5.527810301889093e-06</v>
       </c>
     </row>
     <row r="647">
@@ -7481,7 +7481,7 @@
         <v>4.223694478120573</v>
       </c>
       <c r="C647" t="n">
-        <v>5.6907055941086e-06</v>
+        <v>5.740169441271076e-06</v>
       </c>
     </row>
     <row r="648">
@@ -7492,7 +7492,7 @@
         <v>4.224680313174171</v>
       </c>
       <c r="C648" t="n">
-        <v>5.890791264754136e-06</v>
+        <v>5.946900908321541e-06</v>
       </c>
     </row>
     <row r="649">
@@ -7503,7 +7503,7 @@
         <v>4.225666148227771</v>
       </c>
       <c r="C649" t="n">
-        <v>6.083151239469549e-06</v>
+        <v>6.145452902228396e-06</v>
       </c>
     </row>
     <row r="650">
@@ -7514,7 +7514,7 @@
         <v>4.22665198328137</v>
       </c>
       <c r="C650" t="n">
-        <v>6.26539576131251e-06</v>
+        <v>6.333273622178993e-06</v>
       </c>
     </row>
     <row r="651">
@@ -7525,7 +7525,7 @@
         <v>4.227637818334969</v>
       </c>
       <c r="C651" t="n">
-        <v>6.435135073340731e-06</v>
+        <v>6.507811267360721e-06</v>
       </c>
     </row>
     <row r="652">
@@ -7536,7 +7536,7 @@
         <v>4.228623653388569</v>
       </c>
       <c r="C652" t="n">
-        <v>6.589979418612371e-06</v>
+        <v>6.666514036961429e-06</v>
       </c>
     </row>
     <row r="653">
@@ -7547,7 +7547,7 @@
         <v>4.229609488442168</v>
       </c>
       <c r="C653" t="n">
-        <v>6.727539040185125e-06</v>
+        <v>6.806830130168493e-06</v>
       </c>
     </row>
     <row r="654">
@@ -7558,7 +7558,7 @@
         <v>4.230595323495767</v>
       </c>
       <c r="C654" t="n">
-        <v>6.845424181116759e-06</v>
+        <v>6.926207746169359e-06</v>
       </c>
     </row>
     <row r="655">
@@ -7569,7 +7569,7 @@
         <v>4.231581158549367</v>
       </c>
       <c r="C655" t="n">
-        <v>6.941245084465335e-06</v>
+        <v>7.022095084151777e-06</v>
       </c>
     </row>
     <row r="656">
@@ -7580,7 +7580,7 @@
         <v>4.232566993602966</v>
       </c>
       <c r="C656" t="n">
-        <v>7.012611993288543e-06</v>
+        <v>7.091940343303119e-06</v>
       </c>
     </row>
     <row r="657">
@@ -7591,7 +7591,7 @@
         <v>4.233552828656565</v>
       </c>
       <c r="C657" t="n">
-        <v>7.057135150644368e-06</v>
+        <v>7.133191722811049e-06</v>
       </c>
     </row>
     <row r="658">
@@ -7602,7 +7602,7 @@
         <v>4.234538663710165</v>
       </c>
       <c r="C658" t="n">
-        <v>7.072424799590586e-06</v>
+        <v>7.14329742186303e-06</v>
       </c>
     </row>
     <row r="659">
@@ -7613,7 +7613,7 @@
         <v>4.235524498763763</v>
       </c>
       <c r="C659" t="n">
-        <v>7.05631536694597e-06</v>
+        <v>7.119948091356727e-06</v>
       </c>
     </row>
     <row r="660">
@@ -7624,7 +7624,7 @@
         <v>4.236510333817363</v>
       </c>
       <c r="C660" t="n">
-        <v>7.010577188554732e-06</v>
+        <v>7.065091014651519e-06</v>
       </c>
     </row>
     <row r="661">
@@ -7635,7 +7635,7 @@
         <v>4.237496168870963</v>
       </c>
       <c r="C661" t="n">
-        <v>6.9403384428479e-06</v>
+        <v>6.984304936521196e-06</v>
       </c>
     </row>
     <row r="662">
@@ -7646,7 +7646,7 @@
         <v>4.238482003924561</v>
       </c>
       <c r="C662" t="n">
-        <v>6.850834963527894e-06</v>
+        <v>6.883285029461796e-06</v>
       </c>
     </row>
     <row r="663">
@@ -7657,7 +7657,7 @@
         <v>4.239467838978161</v>
       </c>
       <c r="C663" t="n">
-        <v>6.747302584296876e-06</v>
+        <v>6.76772646596908e-06</v>
       </c>
     </row>
     <row r="664">
@@ -7668,7 +7668,7 @@
         <v>4.240453674031761</v>
       </c>
       <c r="C664" t="n">
-        <v>6.634977138857237e-06</v>
+        <v>6.643324418539064e-06</v>
       </c>
     </row>
     <row r="665">
@@ -7679,7 +7679,7 @@
         <v>4.241439509085359</v>
       </c>
       <c r="C665" t="n">
-        <v>6.519094460911412e-06</v>
+        <v>6.51577405966781e-06</v>
       </c>
     </row>
     <row r="666">
@@ -7690,7 +7690,7 @@
         <v>4.242425344138959</v>
       </c>
       <c r="C666" t="n">
-        <v>6.404890384161516e-06</v>
+        <v>6.390770561851026e-06</v>
       </c>
     </row>
     <row r="667">
@@ -7701,7 +7701,7 @@
         <v>4.243411179192558</v>
       </c>
       <c r="C667" t="n">
-        <v>6.297600742310067e-06</v>
+        <v>6.274009097584866e-06</v>
       </c>
     </row>
     <row r="668">
@@ -7712,7 +7712,7 @@
         <v>4.244397014246157</v>
       </c>
       <c r="C668" t="n">
-        <v>6.202461369059194e-06</v>
+        <v>6.171184839365056e-06</v>
       </c>
     </row>
     <row r="669">
@@ -7723,7 +7723,7 @@
         <v>4.245382849299757</v>
       </c>
       <c r="C669" t="n">
-        <v>6.124708098111328e-06</v>
+        <v>6.087992959687653e-06</v>
       </c>
     </row>
     <row r="670">
@@ -7734,7 +7734,7 @@
         <v>4.246368684353356</v>
       </c>
       <c r="C670" t="n">
-        <v>6.069576763168826e-06</v>
+        <v>6.030128631048634e-06</v>
       </c>
     </row>
     <row r="671">
@@ -7745,7 +7745,7 @@
         <v>4.247354519406955</v>
       </c>
       <c r="C671" t="n">
-        <v>6.042303197933916e-06</v>
+        <v>6.00328702594383e-06</v>
       </c>
     </row>
     <row r="672">
@@ -7756,7 +7756,7 @@
         <v>4.248340354460555</v>
       </c>
       <c r="C672" t="n">
-        <v>6.048123236108982e-06</v>
+        <v>6.013163316869253e-06</v>
       </c>
     </row>
     <row r="673">
@@ -7767,7 +7767,7 @@
         <v>4.249326189514154</v>
       </c>
       <c r="C673" t="n">
-        <v>6.092247500627038e-06</v>
+        <v>6.065425992900664e-06</v>
       </c>
     </row>
     <row r="674">
@@ -7778,7 +7778,7 @@
         <v>4.250312024567753</v>
       </c>
       <c r="C674" t="n">
-        <v>6.175558903557505e-06</v>
+        <v>6.161163035239913e-06</v>
       </c>
     </row>
     <row r="675">
@@ -7789,7 +7789,7 @@
         <v>4.251297859621353</v>
       </c>
       <c r="C675" t="n">
-        <v>6.289741877303488e-06</v>
+        <v>6.291726629452789e-06</v>
       </c>
     </row>
     <row r="676">
@@ -7800,7 +7800,7 @@
         <v>4.252283694674952</v>
       </c>
       <c r="C676" t="n">
-        <v>6.425304149684633e-06</v>
+        <v>6.447223521014525e-06</v>
       </c>
     </row>
     <row r="677">
@@ -7811,7 +7811,7 @@
         <v>4.253269529728551</v>
       </c>
       <c r="C677" t="n">
-        <v>6.572753448520964e-06</v>
+        <v>6.617760455400783e-06</v>
       </c>
     </row>
     <row r="678">
@@ -7822,7 +7822,7 @@
         <v>4.25425536478215</v>
       </c>
       <c r="C678" t="n">
-        <v>6.722597501632003e-06</v>
+        <v>6.793444178086653e-06</v>
       </c>
     </row>
     <row r="679">
@@ -7833,7 +7833,7 @@
         <v>4.25524119983575</v>
       </c>
       <c r="C679" t="n">
-        <v>6.865344036837804e-06</v>
+        <v>6.964381434547838e-06</v>
       </c>
     </row>
     <row r="680">
@@ -7844,7 +7844,7 @@
         <v>4.256227034889349</v>
       </c>
       <c r="C680" t="n">
-        <v>6.991500781958003e-06</v>
+        <v>7.120678970259557e-06</v>
       </c>
     </row>
     <row r="681">
@@ -7855,7 +7855,7 @@
         <v>4.257212869942949</v>
       </c>
       <c r="C681" t="n">
-        <v>7.09157546481237e-06</v>
+        <v>7.252443530697188e-06</v>
       </c>
     </row>
     <row r="682">
@@ -7866,7 +7866,7 @@
         <v>4.258198704996548</v>
       </c>
       <c r="C682" t="n">
-        <v>7.156402003400854e-06</v>
+        <v>7.350070575138297e-06</v>
       </c>
     </row>
     <row r="683">
@@ -7877,7 +7877,7 @@
         <v>4.259184540050147</v>
       </c>
       <c r="C683" t="n">
-        <v>7.187083875035366e-06</v>
+        <v>7.413045240282867e-06</v>
       </c>
     </row>
     <row r="684">
@@ -7888,7 +7888,7 @@
         <v>4.260170375103746</v>
       </c>
       <c r="C684" t="n">
-        <v>7.196817018985948e-06</v>
+        <v>7.451555807445041e-06</v>
       </c>
     </row>
     <row r="685">
@@ -7899,7 +7899,7 @@
         <v>4.261156210157345</v>
       </c>
       <c r="C685" t="n">
-        <v>7.199491199315539e-06</v>
+        <v>7.47640466837589e-06</v>
       </c>
     </row>
     <row r="686">
@@ -7910,7 +7910,7 @@
         <v>4.262142045210945</v>
       </c>
       <c r="C686" t="n">
-        <v>7.208996180087052e-06</v>
+        <v>7.498394214826387e-06</v>
       </c>
     </row>
     <row r="687">
@@ -7921,7 +7921,7 @@
         <v>4.263127880264544</v>
       </c>
       <c r="C687" t="n">
-        <v>7.239221725363381e-06</v>
+        <v>7.528326838547513e-06</v>
       </c>
     </row>
     <row r="688">
@@ -7932,7 +7932,7 @@
         <v>4.264113715318143</v>
       </c>
       <c r="C688" t="n">
-        <v>7.304057599207503e-06</v>
+        <v>7.577004931290331e-06</v>
       </c>
     </row>
     <row r="689">
@@ -7943,7 +7943,7 @@
         <v>4.265099550371743</v>
       </c>
       <c r="C689" t="n">
-        <v>7.415951394906434e-06</v>
+        <v>7.654269203618325e-06</v>
       </c>
     </row>
     <row r="690">
@@ -7954,7 +7954,7 @@
         <v>4.266085385425342</v>
       </c>
       <c r="C690" t="n">
-        <v>7.562979140517128e-06</v>
+        <v>7.753708701463029e-06</v>
       </c>
     </row>
     <row r="691">
@@ -7965,7 +7965,7 @@
         <v>4.267071220478941</v>
       </c>
       <c r="C691" t="n">
-        <v>7.712916264413466e-06</v>
+        <v>7.855375443701609e-06</v>
       </c>
     </row>
     <row r="692">
@@ -7976,7 +7976,7 @@
         <v>4.268057055532541</v>
       </c>
       <c r="C692" t="n">
-        <v>7.832918752447545e-06</v>
+        <v>7.9389083870206e-06</v>
       </c>
     </row>
     <row r="693">
@@ -7987,7 +7987,7 @@
         <v>4.26904289058614</v>
       </c>
       <c r="C693" t="n">
-        <v>7.890142590471573e-06</v>
+        <v>7.983946488106606e-06</v>
       </c>
     </row>
     <row r="694">
@@ -7998,7 +7998,7 @@
         <v>4.270028725639739</v>
       </c>
       <c r="C694" t="n">
-        <v>7.860750313263309e-06</v>
+        <v>7.975284645682486e-06</v>
       </c>
     </row>
     <row r="695">
@@ -8009,7 +8009,7 @@
         <v>4.271014560693338</v>
       </c>
       <c r="C695" t="n">
-        <v>7.761203498331027e-06</v>
+        <v>7.920787585787986e-06</v>
       </c>
     </row>
     <row r="696">
@@ -8020,7 +8020,7 @@
         <v>4.272000395746938</v>
       </c>
       <c r="C696" t="n">
-        <v>7.619230424217237e-06</v>
+        <v>7.834769836484939e-06</v>
       </c>
     </row>
     <row r="697">
@@ -8031,7 +8031,7 @@
         <v>4.272986230800537</v>
       </c>
       <c r="C697" t="n">
-        <v>7.462559894648798e-06</v>
+        <v>7.731546226485297e-06</v>
       </c>
     </row>
     <row r="698">
@@ -8042,7 +8042,7 @@
         <v>4.273972065854136</v>
       </c>
       <c r="C698" t="n">
-        <v>7.31444950019395e-06</v>
+        <v>7.62321894044608e-06</v>
       </c>
     </row>
     <row r="699">
@@ -8053,7 +8053,7 @@
         <v>4.274957900907736</v>
       </c>
       <c r="C699" t="n">
-        <v>7.178223919194354e-06</v>
+        <v>7.512026075097356e-06</v>
       </c>
     </row>
     <row r="700">
@@ -8064,7 +8064,7 @@
         <v>4.275943735961335</v>
       </c>
       <c r="C700" t="n">
-        <v>7.051655280830341e-06</v>
+        <v>7.39745796846133e-06</v>
       </c>
     </row>
     <row r="701">
@@ -8075,7 +8075,7 @@
         <v>4.276929571014934</v>
       </c>
       <c r="C701" t="n">
-        <v>6.932515479154829e-06</v>
+        <v>7.279004842204062e-06</v>
       </c>
     </row>
     <row r="702">
@@ -8086,7 +8086,7 @@
         <v>4.277915406068534</v>
       </c>
       <c r="C702" t="n">
-        <v>6.81857640822042e-06</v>
+        <v>7.156156917991278e-06</v>
       </c>
     </row>
     <row r="703">
@@ -8097,7 +8097,7 @@
         <v>4.278901241122133</v>
       </c>
       <c r="C703" t="n">
-        <v>6.707609962080039e-06</v>
+        <v>7.028404417489039e-06</v>
       </c>
     </row>
     <row r="704">
@@ -8108,7 +8108,7 @@
         <v>4.279887076175732</v>
       </c>
       <c r="C704" t="n">
-        <v>6.597388034786598e-06</v>
+        <v>6.895237562363405e-06</v>
       </c>
     </row>
     <row r="705">
@@ -8119,7 +8119,7 @@
         <v>4.280872911229332</v>
       </c>
       <c r="C705" t="n">
-        <v>6.485682520392716e-06</v>
+        <v>6.756146574280094e-06</v>
       </c>
     </row>
     <row r="706">
@@ -8130,7 +8130,7 @@
         <v>4.28185874628293</v>
       </c>
       <c r="C706" t="n">
-        <v>6.370265312951413e-06</v>
+        <v>6.610621674905298e-06</v>
       </c>
     </row>
     <row r="707">
@@ -8141,7 +8141,7 @@
         <v>4.28284458133653</v>
       </c>
       <c r="C707" t="n">
-        <v>6.248908306515297e-06</v>
+        <v>6.458153085904705e-06</v>
       </c>
     </row>
     <row r="708">
@@ -8152,7 +8152,7 @@
         <v>4.28383041639013</v>
       </c>
       <c r="C708" t="n">
-        <v>6.119383395137283e-06</v>
+        <v>6.298231028944391e-06</v>
       </c>
     </row>
     <row r="709">
@@ -8163,7 +8163,7 @@
         <v>4.284816251443729</v>
       </c>
       <c r="C709" t="n">
-        <v>5.979462472870187e-06</v>
+        <v>6.130345725690302e-06</v>
       </c>
     </row>
     <row r="710">
@@ -8174,7 +8174,7 @@
         <v>4.285802086497328</v>
       </c>
       <c r="C710" t="n">
-        <v>5.826917433766967e-06</v>
+        <v>5.95398739780855e-06</v>
       </c>
     </row>
     <row r="711">
@@ -8185,7 +8185,7 @@
         <v>4.286787921550927</v>
       </c>
       <c r="C711" t="n">
-        <v>5.659647442497792e-06</v>
+        <v>5.7687208463172e-06</v>
       </c>
     </row>
     <row r="712">
@@ -8196,7 +8196,7 @@
         <v>4.287773756604526</v>
       </c>
       <c r="C712" t="n">
-        <v>5.478625006753351e-06</v>
+        <v>5.575911821554778e-06</v>
       </c>
     </row>
     <row r="713">
@@ -8207,7 +8207,7 @@
         <v>4.288759591658126</v>
       </c>
       <c r="C713" t="n">
-        <v>5.287979415219207e-06</v>
+        <v>5.378775917026561e-06</v>
       </c>
     </row>
     <row r="714">
@@ -8218,7 +8218,7 @@
         <v>4.289745426711725</v>
       </c>
       <c r="C714" t="n">
-        <v>5.091983918547876e-06</v>
+        <v>5.180613086559954e-06</v>
       </c>
     </row>
     <row r="715">
@@ -8229,7 +8229,7 @@
         <v>4.290731261765324</v>
       </c>
       <c r="C715" t="n">
-        <v>4.894911767391887e-06</v>
+        <v>4.984723283982368e-06</v>
       </c>
     </row>
     <row r="716">
@@ -8240,7 +8240,7 @@
         <v>4.291717096818924</v>
       </c>
       <c r="C716" t="n">
-        <v>4.701036212403241e-06</v>
+        <v>4.794406463120683e-06</v>
       </c>
     </row>
     <row r="717">
@@ -8251,7 +8251,7 @@
         <v>4.292702931872523</v>
       </c>
       <c r="C717" t="n">
-        <v>4.51463050423447e-06</v>
+        <v>4.612962577802313e-06</v>
       </c>
     </row>
     <row r="718">
@@ -8262,7 +8262,7 @@
         <v>4.293688766926122</v>
       </c>
       <c r="C718" t="n">
-        <v>4.339967893538082e-06</v>
+        <v>4.44369158185464e-06</v>
       </c>
     </row>
     <row r="719">
@@ -8273,7 +8273,7 @@
         <v>4.294674601979722</v>
       </c>
       <c r="C719" t="n">
-        <v>4.181321630966116e-06</v>
+        <v>4.289893429104592e-06</v>
       </c>
     </row>
     <row r="720">
@@ -8284,7 +8284,7 @@
         <v>4.295660437033321</v>
       </c>
       <c r="C720" t="n">
-        <v>4.042964967171089e-06</v>
+        <v>4.154868073379564e-06</v>
       </c>
     </row>
     <row r="721">
@@ -8295,7 +8295,7 @@
         <v>4.29664627208692</v>
       </c>
       <c r="C721" t="n">
-        <v>3.929171152805449e-06</v>
+        <v>4.041915468506884e-06</v>
       </c>
     </row>
     <row r="722">
@@ -8306,7 +8306,7 @@
         <v>4.29763210714052</v>
       </c>
       <c r="C722" t="n">
-        <v>3.844213438521344e-06</v>
+        <v>3.954335568313579e-06</v>
       </c>
     </row>
     <row r="723">
@@ -8317,7 +8317,7 @@
         <v>4.298617942194118</v>
       </c>
       <c r="C723" t="n">
-        <v>3.792365074971275e-06</v>
+        <v>3.895428326627038e-06</v>
       </c>
     </row>
     <row r="724">
@@ -8328,7 +8328,7 @@
         <v>4.299603777247718</v>
       </c>
       <c r="C724" t="n">
-        <v>3.777466770657875e-06</v>
+        <v>3.868459140548926e-06</v>
       </c>
     </row>
     <row r="725">
@@ -8339,7 +8339,7 @@
         <v>4.300589612301318</v>
       </c>
       <c r="C725" t="n">
-        <v>3.800908893330372e-06</v>
+        <v>3.87649764417213e-06</v>
       </c>
     </row>
     <row r="726">
@@ -8350,7 +8350,7 @@
         <v>4.301575447354916</v>
       </c>
       <c r="C726" t="n">
-        <v>3.86321995647781e-06</v>
+        <v>3.922544616193284e-06</v>
       </c>
     </row>
     <row r="727">
@@ -8361,7 +8361,7 @@
         <v>4.302561282408516</v>
       </c>
       <c r="C727" t="n">
-        <v>3.964927521071342e-06</v>
+        <v>4.009600759210441e-06</v>
       </c>
     </row>
     <row r="728">
@@ -8372,7 +8372,7 @@
         <v>4.303547117462116</v>
       </c>
       <c r="C728" t="n">
-        <v>4.106559148081973e-06</v>
+        <v>4.140666775821546e-06</v>
       </c>
     </row>
     <row r="729">
@@ -8383,7 +8383,7 @@
         <v>4.304532952515714</v>
       </c>
       <c r="C729" t="n">
-        <v>4.288642398480562e-06</v>
+        <v>4.318743368624391e-06</v>
       </c>
     </row>
     <row r="730">
@@ -8394,7 +8394,7 @@
         <v>4.305518787569314</v>
       </c>
       <c r="C730" t="n">
-        <v>4.511704833238483e-06</v>
+        <v>4.546831240217264e-06</v>
       </c>
     </row>
     <row r="731">
@@ -8405,7 +8405,7 @@
         <v>4.306504622622914</v>
       </c>
       <c r="C731" t="n">
-        <v>4.776274013326629e-06</v>
+        <v>4.827931093197999e-06</v>
       </c>
     </row>
     <row r="732">
@@ -8416,7 +8416,7 @@
         <v>4.307490457676512</v>
       </c>
       <c r="C732" t="n">
-        <v>5.082877770701636e-06</v>
+        <v>5.165043894717226e-06</v>
       </c>
     </row>
     <row r="733">
@@ -8427,7 +8427,7 @@
         <v>4.308476292730112</v>
       </c>
       <c r="C733" t="n">
-        <v>5.480962336046453e-06</v>
+        <v>5.608927743640809e-06</v>
       </c>
     </row>
     <row r="734">
@@ -8438,7 +8438,7 @@
         <v>4.309462127783711</v>
       </c>
       <c r="C734" t="n">
-        <v>6.205358247113296e-06</v>
+        <v>6.391324233820779e-06</v>
       </c>
     </row>
     <row r="735">
@@ -8449,7 +8449,7 @@
         <v>4.31044796283731</v>
       </c>
       <c r="C735" t="n">
-        <v>7.531704371303384e-06</v>
+        <v>7.783722580957032e-06</v>
       </c>
     </row>
     <row r="736">
@@ -8460,7 +8460,7 @@
         <v>4.31143379789091</v>
       </c>
       <c r="C736" t="n">
-        <v>9.535327079722347e-06</v>
+        <v>9.856110947244103e-06</v>
       </c>
     </row>
     <row r="737">
@@ -8471,7 +8471,7 @@
         <v>4.312419632944509</v>
       </c>
       <c r="C737" t="n">
-        <v>1.197252182057706e-05</v>
+        <v>1.23575535971983e-05</v>
       </c>
     </row>
     <row r="738">
@@ -8482,7 +8482,7 @@
         <v>4.313405467998108</v>
       </c>
       <c r="C738" t="n">
-        <v>1.457111673288246e-05</v>
+        <v>1.500847857493685e-05</v>
       </c>
     </row>
     <row r="739">
@@ -8493,7 +8493,7 @@
         <v>4.314391303051708</v>
       </c>
       <c r="C739" t="n">
-        <v>1.70589399556468e-05</v>
+        <v>1.752931392457013e-05</v>
       </c>
     </row>
     <row r="740">
@@ -8504,7 +8504,7 @@
         <v>4.315377138105307</v>
       </c>
       <c r="C740" t="n">
-        <v>1.916381962787878e-05</v>
+        <v>1.964048769020904e-05</v>
       </c>
     </row>
     <row r="741">
@@ -8515,7 +8515,7 @@
         <v>4.316362973158906</v>
       </c>
       <c r="C741" t="n">
-        <v>2.061692897715416e-05</v>
+        <v>2.106594487220332e-05</v>
       </c>
     </row>
     <row r="742">
@@ -8526,7 +8526,7 @@
         <v>4.317348808212506</v>
       </c>
       <c r="C742" t="n">
-        <v>2.136272294383579e-05</v>
+        <v>2.175387040818613e-05</v>
       </c>
     </row>
     <row r="743">
@@ -8537,7 +8537,7 @@
         <v>4.318334643266105</v>
       </c>
       <c r="C743" t="n">
-        <v>2.16836847842936e-05</v>
+        <v>2.200784514569231e-05</v>
       </c>
     </row>
     <row r="744">
@@ -8548,7 +8548,7 @@
         <v>4.319320478319704</v>
       </c>
       <c r="C744" t="n">
-        <v>2.18922629545814e-05</v>
+        <v>2.216295471721889e-05</v>
       </c>
     </row>
     <row r="745">
@@ -8559,7 +8559,7 @@
         <v>4.320306313373303</v>
       </c>
       <c r="C745" t="n">
-        <v>2.230090591075164e-05</v>
+        <v>2.255428475526177e-05</v>
       </c>
     </row>
     <row r="746">
@@ -8570,7 +8570,7 @@
         <v>4.321292148426902</v>
       </c>
       <c r="C746" t="n">
-        <v>2.31896614190884e-05</v>
+        <v>2.348156809252448e-05</v>
       </c>
     </row>
     <row r="747">
@@ -8581,7 +8581,7 @@
         <v>4.322277983480502</v>
       </c>
       <c r="C747" t="n">
-        <v>2.452400947123719e-05</v>
+        <v>2.490130870956716e-05</v>
       </c>
     </row>
     <row r="748">
@@ -8592,7 +8592,7 @@
         <v>4.323263818534102</v>
       </c>
       <c r="C748" t="n">
-        <v>2.609253855394714e-05</v>
+        <v>2.657700204292698e-05</v>
       </c>
     </row>
     <row r="749">
@@ -8603,7 +8603,7 @@
         <v>4.3242496535877</v>
       </c>
       <c r="C749" t="n">
-        <v>2.76818658625277e-05</v>
+        <v>2.826999262827771e-05</v>
       </c>
     </row>
     <row r="750">
@@ -8614,7 +8614,7 @@
         <v>4.3252354886413</v>
       </c>
       <c r="C750" t="n">
-        <v>2.907860859229277e-05</v>
+        <v>2.974162500129781e-05</v>
       </c>
     </row>
     <row r="751">
@@ -8625,7 +8625,7 @@
         <v>4.326221323694899</v>
       </c>
       <c r="C751" t="n">
-        <v>3.008263027134307e-05</v>
+        <v>3.07686457824423e-05</v>
       </c>
     </row>
     <row r="752">
@@ -8636,7 +8636,7 @@
         <v>4.327207158748498</v>
       </c>
       <c r="C752" t="n">
-        <v>3.064280243654968e-05</v>
+        <v>3.130105965689251e-05</v>
       </c>
     </row>
     <row r="753">
@@ -8647,7 +8647,7 @@
         <v>4.328192993802098</v>
       </c>
       <c r="C753" t="n">
-        <v>3.080181749461973e-05</v>
+        <v>3.13979608981881e-05</v>
       </c>
     </row>
     <row r="754">
@@ -8658,7 +8658,7 @@
         <v>4.329178828855697</v>
       </c>
       <c r="C754" t="n">
-        <v>3.060383081092421e-05</v>
+        <v>3.112014482526189e-05</v>
       </c>
     </row>
     <row r="755">
@@ -8669,7 +8669,7 @@
         <v>4.330164663909296</v>
       </c>
       <c r="C755" t="n">
-        <v>3.009299775083344e-05</v>
+        <v>3.052840675704576e-05</v>
       </c>
     </row>
     <row r="756">
@@ -8680,7 +8680,7 @@
         <v>4.331150498962896</v>
       </c>
       <c r="C756" t="n">
-        <v>2.931349145030728e-05</v>
+        <v>2.96833761144649e-05</v>
       </c>
     </row>
     <row r="757">
@@ -8691,7 +8691,7 @@
         <v>4.332136334016495</v>
       </c>
       <c r="C757" t="n">
-        <v>2.831030005696685e-05</v>
+        <v>2.863807374625439e-05</v>
       </c>
     </row>
     <row r="758">
@@ -8702,7 +8702,7 @@
         <v>4.333122169070094</v>
       </c>
       <c r="C758" t="n">
-        <v>2.712954847573346e-05</v>
+        <v>2.74349082603341e-05</v>
       </c>
     </row>
     <row r="759">
@@ -8713,7 +8713,7 @@
         <v>4.334108004123694</v>
       </c>
       <c r="C759" t="n">
-        <v>2.58174459728442e-05</v>
+        <v>2.611550070639631e-05</v>
       </c>
     </row>
     <row r="760">
@@ -8724,7 +8724,7 @@
         <v>4.335093839177293</v>
       </c>
       <c r="C760" t="n">
-        <v>2.442020181453661e-05</v>
+        <v>2.47214721341337e-05</v>
       </c>
     </row>
     <row r="761">
@@ -8735,7 +8735,7 @@
         <v>4.336079674230892</v>
       </c>
       <c r="C761" t="n">
-        <v>2.298402526704441e-05</v>
+        <v>2.329444359323513e-05</v>
       </c>
     </row>
     <row r="762">
@@ -8746,7 +8746,7 @@
         <v>4.337065509284491</v>
       </c>
       <c r="C762" t="n">
-        <v>2.155512559660637e-05</v>
+        <v>2.187603613339452e-05</v>
       </c>
     </row>
     <row r="763">
@@ -8757,7 +8757,7 @@
         <v>4.338051344338091</v>
       </c>
       <c r="C763" t="n">
-        <v>2.017913982055395e-05</v>
+        <v>2.050736259947296e-05</v>
       </c>
     </row>
     <row r="764">
@@ -8768,7 +8768,7 @@
         <v>4.33903717939169</v>
       </c>
       <c r="C764" t="n">
-        <v>1.8881725937961e-05</v>
+        <v>1.921179279918114e-05</v>
       </c>
     </row>
     <row r="765">
@@ -8779,7 +8779,7 @@
         <v>4.340023014445289</v>
       </c>
       <c r="C765" t="n">
-        <v>1.766382883419859e-05</v>
+        <v>1.799074923086297e-05</v>
       </c>
     </row>
     <row r="766">
@@ -8790,7 +8790,7 @@
         <v>4.341008849498889</v>
       </c>
       <c r="C766" t="n">
-        <v>1.652486088464975e-05</v>
+        <v>1.684429339597516e-05</v>
       </c>
     </row>
     <row r="767">
@@ -8801,7 +8801,7 @@
         <v>4.341994684552488</v>
       </c>
       <c r="C767" t="n">
-        <v>1.546423446470083e-05</v>
+        <v>1.577248679597769e-05</v>
       </c>
     </row>
     <row r="768">
@@ -8812,7 +8812,7 @@
         <v>4.342980519606087</v>
       </c>
       <c r="C768" t="n">
-        <v>1.44813619497379e-05</v>
+        <v>1.477539093233032e-05</v>
       </c>
     </row>
     <row r="769">
@@ -8823,7 +8823,7 @@
         <v>4.343966354659687</v>
       </c>
       <c r="C769" t="n">
-        <v>1.357565571514441e-05</v>
+        <v>1.38530673064901e-05</v>
       </c>
     </row>
     <row r="770">
@@ -8834,7 +8834,7 @@
         <v>4.344952189713286</v>
       </c>
       <c r="C770" t="n">
-        <v>1.27465281363065e-05</v>
+        <v>1.300557741991685e-05</v>
       </c>
     </row>
     <row r="771">
@@ -8845,7 +8845,7 @@
         <v>4.345938024766885</v>
       </c>
       <c r="C771" t="n">
-        <v>1.199339158861005e-05</v>
+        <v>1.223298277407011e-05</v>
       </c>
     </row>
     <row r="772">
@@ -8856,7 +8856,7 @@
         <v>4.346923859820484</v>
       </c>
       <c r="C772" t="n">
-        <v>1.131565844743889e-05</v>
+        <v>1.153534487040735e-05</v>
       </c>
     </row>
     <row r="773">
@@ -8867,7 +8867,7 @@
         <v>4.347909694874083</v>
       </c>
       <c r="C773" t="n">
-        <v>1.071274108817949e-05</v>
+        <v>1.091272521038871e-05</v>
       </c>
     </row>
     <row r="774">
@@ -8878,7 +8878,7 @@
         <v>4.348895529927683</v>
       </c>
       <c r="C774" t="n">
-        <v>1.018405188621598e-05</v>
+        <v>1.036518529547194e-05</v>
       </c>
     </row>
     <row r="775">
@@ -8889,7 +8889,7 @@
         <v>4.349881364981282</v>
       </c>
       <c r="C775" t="n">
-        <v>9.729003216934139e-06</v>
+        <v>9.892786627116507e-06</v>
       </c>
     </row>
     <row r="776">
@@ -8900,7 +8900,7 @@
         <v>4.350867200034882</v>
       </c>
       <c r="C776" t="n">
-        <v>9.346725014210577e-06</v>
+        <v>9.495293044580108e-06</v>
       </c>
     </row>
     <row r="777">
@@ -8911,7 +8911,7 @@
         <v>4.351853035088481</v>
       </c>
       <c r="C777" t="n">
-        <v>9.028685702680828e-06</v>
+        <v>9.164394001326144e-06</v>
       </c>
     </row>
     <row r="778">
@@ -8922,7 +8922,7 @@
         <v>4.35283887014208</v>
       </c>
       <c r="C778" t="n">
-        <v>8.757982744790006e-06</v>
+        <v>8.882956879856752e-06</v>
       </c>
     </row>
     <row r="779">
@@ -8933,7 +8933,7 @@
         <v>4.353824705195679</v>
       </c>
       <c r="C779" t="n">
-        <v>8.517288921946135e-06</v>
+        <v>8.633401495696692e-06</v>
       </c>
     </row>
     <row r="780">
@@ -8944,7 +8944,7 @@
         <v>4.354810540249279</v>
       </c>
       <c r="C780" t="n">
-        <v>8.289277015556288e-06</v>
+        <v>8.398147664369749e-06</v>
       </c>
     </row>
     <row r="781">
@@ -8955,7 +8955,7 @@
         <v>4.355796375302878</v>
       </c>
       <c r="C781" t="n">
-        <v>8.056619807028193e-06</v>
+        <v>8.159615201400379e-06</v>
       </c>
     </row>
     <row r="782">
@@ -8966,7 +8966,7 @@
         <v>4.356782210356477</v>
       </c>
       <c r="C782" t="n">
-        <v>7.801990077769595e-06</v>
+        <v>7.900223922313055e-06</v>
       </c>
     </row>
     <row r="783">
@@ -8977,7 +8977,7 @@
         <v>4.357768045410077</v>
       </c>
       <c r="C783" t="n">
-        <v>7.508060609187547e-06</v>
+        <v>7.602393642631539e-06</v>
       </c>
     </row>
     <row r="784">
@@ -8988,7 +8988,7 @@
         <v>4.358753880463676</v>
       </c>
       <c r="C784" t="n">
-        <v>7.157518042447497e-06</v>
+        <v>7.248558096076701e-06</v>
       </c>
     </row>
     <row r="785">
@@ -8999,7 +8999,7 @@
         <v>4.359739715517275</v>
       </c>
       <c r="C785" t="n">
-        <v>6.744068352593451e-06</v>
+        <v>6.832216812491651e-06</v>
       </c>
     </row>
     <row r="786">
@@ -9010,7 +9010,7 @@
         <v>4.360725550570875</v>
       </c>
       <c r="C786" t="n">
-        <v>6.292236039429011e-06</v>
+        <v>6.37781779061396e-06</v>
       </c>
     </row>
     <row r="787">
@@ -9021,7 +9021,7 @@
         <v>4.361711385624474</v>
       </c>
       <c r="C787" t="n">
-        <v>5.83189207422373e-06</v>
+        <v>5.915178043666804e-06</v>
       </c>
     </row>
     <row r="788">
@@ -9032,7 +9032,7 @@
         <v>4.362697220678073</v>
       </c>
       <c r="C788" t="n">
-        <v>5.392907428247198e-06</v>
+        <v>5.474114584873391e-06</v>
       </c>
     </row>
     <row r="789">
@@ -9043,7 +9043,7 @@
         <v>4.363683055731673</v>
       </c>
       <c r="C789" t="n">
-        <v>5.005153072767805e-06</v>
+        <v>5.084444427455727e-06</v>
       </c>
     </row>
     <row r="790">
@@ -9054,7 +9054,7 @@
         <v>4.364668890785271</v>
       </c>
       <c r="C790" t="n">
-        <v>4.698499979055399e-06</v>
+        <v>4.775984584637283e-06</v>
       </c>
     </row>
     <row r="791">
@@ -9065,7 +9065,7 @@
         <v>4.365654725838871</v>
       </c>
       <c r="C791" t="n">
-        <v>4.502819118378615e-06</v>
+        <v>4.578552069640305e-06</v>
       </c>
     </row>
     <row r="792">
@@ -9076,7 +9076,7 @@
         <v>4.366640560892471</v>
       </c>
       <c r="C792" t="n">
-        <v>4.447981462006976e-06</v>
+        <v>4.521963895687941e-06</v>
       </c>
     </row>
     <row r="793">
@@ -9087,7 +9087,7 @@
         <v>4.367626395946069</v>
       </c>
       <c r="C793" t="n">
-        <v>4.5638579812095e-06</v>
+        <v>4.636037076002829e-06</v>
       </c>
     </row>
     <row r="794">
@@ -9098,7 +9098,7 @@
         <v>4.368612230999669</v>
       </c>
       <c r="C794" t="n">
-        <v>4.880319647255582e-06</v>
+        <v>4.950588623807975e-06</v>
       </c>
     </row>
     <row r="795">
@@ -9109,7 +9109,7 @@
         <v>4.369598066053269</v>
       </c>
       <c r="C795" t="n">
-        <v>5.427237431414404e-06</v>
+        <v>5.495435552326185e-06</v>
       </c>
     </row>
     <row r="796">
@@ -9120,7 +9120,7 @@
         <v>4.370583901106867</v>
       </c>
       <c r="C796" t="n">
-        <v>6.234482304954322e-06</v>
+        <v>6.300394874779436e-06</v>
       </c>
     </row>
     <row r="797">
@@ -9131,7 +9131,7 @@
         <v>4.371569736160467</v>
       </c>
       <c r="C797" t="n">
-        <v>7.331925239145977e-06</v>
+        <v>7.395283604391981e-06</v>
       </c>
     </row>
     <row r="798">
@@ -9142,7 +9142,7 @@
         <v>4.372555571214066</v>
       </c>
       <c r="C798" t="n">
-        <v>8.766078096982698e-06</v>
+        <v>8.826861111915914e-06</v>
       </c>
     </row>
     <row r="799">
@@ -9153,7 +9153,7 @@
         <v>4.373541406267665</v>
       </c>
       <c r="C799" t="n">
-        <v>1.079168161369733e-05</v>
+        <v>1.085388790721789e-05</v>
       </c>
     </row>
     <row r="800">
@@ -9164,7 +9164,7 @@
         <v>4.374527241321265</v>
       </c>
       <c r="C800" t="n">
-        <v>1.380518529806727e-05</v>
+        <v>1.387940046483189e-05</v>
       </c>
     </row>
     <row r="801">
@@ -9175,7 +9175,7 @@
         <v>4.375513076374864</v>
       </c>
       <c r="C801" t="n">
-        <v>1.820575468396192e-05</v>
+        <v>1.830920048779845e-05</v>
       </c>
     </row>
     <row r="802">
@@ -9186,7 +9186,7 @@
         <v>4.376498911428463</v>
       </c>
       <c r="C802" t="n">
-        <v>2.439255530526456e-05</v>
+        <v>2.454908967917203e-05</v>
       </c>
     </row>
     <row r="803">
@@ -9197,7 +9197,7 @@
         <v>4.377484746482063</v>
       </c>
       <c r="C803" t="n">
-        <v>3.276475269584752e-05</v>
+        <v>3.300486974199609e-05</v>
       </c>
     </row>
     <row r="804">
@@ -9208,7 +9208,7 @@
         <v>4.378470581535661</v>
       </c>
       <c r="C804" t="n">
-        <v>4.330669080178515e-05</v>
+        <v>4.366050816332279e-05</v>
       </c>
     </row>
     <row r="805">
@@ -9219,7 +9219,7 @@
         <v>4.379456416589261</v>
       </c>
       <c r="C805" t="n">
-        <v>5.221059411743555e-05</v>
+        <v>5.26437465660882e-05</v>
       </c>
     </row>
     <row r="806">
@@ -9230,7 +9230,7 @@
         <v>4.380442251642861</v>
       </c>
       <c r="C806" t="n">
-        <v>5.363638567842669e-05</v>
+        <v>5.401566871905983e-05</v>
       </c>
     </row>
     <row r="807">
@@ -9241,7 +9241,7 @@
         <v>4.381428086696459</v>
       </c>
       <c r="C807" t="n">
-        <v>4.821508618720505e-05</v>
+        <v>4.840943790133714e-05</v>
       </c>
     </row>
     <row r="808">
@@ -9252,7 +9252,7 @@
         <v>4.382413921750059</v>
       </c>
       <c r="C808" t="n">
-        <v>5.043026245633865e-05</v>
+        <v>5.054107815250942e-05</v>
       </c>
     </row>
     <row r="809">
@@ -9263,7 +9263,7 @@
         <v>4.383399756803659</v>
       </c>
       <c r="C809" t="n">
-        <v>5.755411857821007e-05</v>
+        <v>5.766932122415681e-05</v>
       </c>
     </row>
     <row r="810">
@@ -9274,7 +9274,7 @@
         <v>4.384385591857257</v>
       </c>
       <c r="C810" t="n">
-        <v>6.47007950681328e-05</v>
+        <v>6.48630526896747e-05</v>
       </c>
     </row>
     <row r="811">
@@ -9285,7 +9285,7 @@
         <v>4.385371426910857</v>
       </c>
       <c r="C811" t="n">
-        <v>6.742368094309773e-05</v>
+        <v>6.763253300543632e-05</v>
       </c>
     </row>
     <row r="812">
@@ -9296,7 +9296,7 @@
         <v>4.386357261964456</v>
       </c>
       <c r="C812" t="n">
-        <v>6.590649402245882e-05</v>
+        <v>6.614076663374234e-05</v>
       </c>
     </row>
     <row r="813">
@@ -9307,7 +9307,7 @@
         <v>4.387343097018055</v>
       </c>
       <c r="C813" t="n">
-        <v>6.310877359135748e-05</v>
+        <v>6.334001712360807e-05</v>
       </c>
     </row>
     <row r="814">
@@ -9318,7 +9318,7 @@
         <v>4.388328932071655</v>
       </c>
       <c r="C814" t="n">
-        <v>6.19993651348155e-05</v>
+        <v>6.219225769530321e-05</v>
       </c>
     </row>
     <row r="815">
@@ -9329,7 +9329,7 @@
         <v>4.389314767125255</v>
       </c>
       <c r="C815" t="n">
-        <v>6.342139444146482e-05</v>
+        <v>6.355035375283167e-05</v>
       </c>
     </row>
     <row r="816">
@@ -9340,7 +9340,7 @@
         <v>4.390300602178853</v>
       </c>
       <c r="C816" t="n">
-        <v>6.475070257259696e-05</v>
+        <v>6.482637619385381e-05</v>
       </c>
     </row>
     <row r="817">
@@ -9351,7 +9351,7 @@
         <v>4.391286437232453</v>
       </c>
       <c r="C817" t="n">
-        <v>6.473668284033691e-05</v>
+        <v>6.478477419671913e-05</v>
       </c>
     </row>
     <row r="818">
@@ -9362,7 +9362,7 @@
         <v>4.392272272286052</v>
       </c>
       <c r="C818" t="n">
-        <v>6.357485824977733e-05</v>
+        <v>6.361601968505472e-05</v>
       </c>
     </row>
     <row r="819">
@@ -9373,7 +9373,7 @@
         <v>4.393258107339651</v>
       </c>
       <c r="C819" t="n">
-        <v>6.15060427034156e-05</v>
+        <v>6.155524575649365e-05</v>
       </c>
     </row>
     <row r="820">
@@ -9384,7 +9384,7 @@
         <v>4.394243942393251</v>
       </c>
       <c r="C820" t="n">
-        <v>5.877105010375182e-05</v>
+        <v>5.883758550867183e-05</v>
       </c>
     </row>
     <row r="821">
@@ -9395,7 +9395,7 @@
         <v>4.39522977744685</v>
       </c>
       <c r="C821" t="n">
-        <v>5.561069435328862e-05</v>
+        <v>5.569817203922758e-05</v>
       </c>
     </row>
     <row r="822">
@@ -9406,7 +9406,7 @@
         <v>4.396215612500449</v>
       </c>
       <c r="C822" t="n">
-        <v>5.22657893545197e-05</v>
+        <v>5.23721384457904e-05</v>
       </c>
     </row>
     <row r="823">
@@ -9417,7 +9417,7 @@
         <v>4.397201447554049</v>
       </c>
       <c r="C823" t="n">
-        <v>4.896815088553201e-05</v>
+        <v>4.908593466434984e-05</v>
       </c>
     </row>
     <row r="824">
@@ -9428,7 +9428,7 @@
         <v>4.398187282607648</v>
       </c>
       <c r="C824" t="n">
-        <v>4.582053707753732e-05</v>
+        <v>4.594147040917127e-05</v>
       </c>
     </row>
     <row r="825">
@@ -9439,7 +9439,7 @@
         <v>4.399173117661247</v>
       </c>
       <c r="C825" t="n">
-        <v>4.282913640647916e-05</v>
+        <v>4.294746598211281e-05</v>
       </c>
     </row>
     <row r="826">
@@ -9450,7 +9450,7 @@
         <v>4.400158952714847</v>
       </c>
       <c r="C826" t="n">
-        <v>3.999780859781019e-05</v>
+        <v>4.011039444816234e-05</v>
       </c>
     </row>
     <row r="827">
@@ -9461,7 +9461,7 @@
         <v>4.401144787768446</v>
       </c>
       <c r="C827" t="n">
-        <v>3.733041337698249e-05</v>
+        <v>3.743672887230718e-05</v>
       </c>
     </row>
     <row r="828">
@@ -9472,7 +9472,7 @@
         <v>4.402130622822045</v>
       </c>
       <c r="C828" t="n">
-        <v>3.483081046944097e-05</v>
+        <v>3.493294231952748e-05</v>
       </c>
     </row>
     <row r="829">
@@ -9483,7 +9483,7 @@
         <v>4.403116457875644</v>
       </c>
       <c r="C829" t="n">
-        <v>3.250285960063988e-05</v>
+        <v>3.260550785481274e-05</v>
       </c>
     </row>
     <row r="830">
@@ -9494,7 +9494,7 @@
         <v>4.404102292929243</v>
       </c>
       <c r="C830" t="n">
-        <v>3.035042049602472e-05</v>
+        <v>3.04608985431437e-05</v>
       </c>
     </row>
     <row r="831">
@@ -9505,7 +9505,7 @@
         <v>4.405088127982843</v>
       </c>
       <c r="C831" t="n">
-        <v>2.837738287847865e-05</v>
+        <v>2.850560918377802e-05</v>
       </c>
     </row>
     <row r="832">
@@ -9516,7 +9516,7 @@
         <v>4.406073963036442</v>
       </c>
       <c r="C832" t="n">
-        <v>2.65961421510177e-05</v>
+        <v>2.675229726207672e-05</v>
       </c>
     </row>
     <row r="833">
@@ -9527,7 +9527,7 @@
         <v>4.407059798090041</v>
       </c>
       <c r="C833" t="n">
-        <v>2.503925224192718e-05</v>
+        <v>2.522822587536784e-05</v>
       </c>
     </row>
     <row r="834">
@@ -9538,7 +9538,7 @@
         <v>4.408045633143641</v>
       </c>
       <c r="C834" t="n">
-        <v>2.374218765191528e-05</v>
+        <v>2.396277418586951e-05</v>
       </c>
     </row>
     <row r="835">
@@ -9549,7 +9549,7 @@
         <v>4.40903146819724</v>
       </c>
       <c r="C835" t="n">
-        <v>2.274042288168926e-05</v>
+        <v>2.298532135579896e-05</v>
       </c>
     </row>
     <row r="836">
@@ -9560,7 +9560,7 @@
         <v>4.410017303250839</v>
       </c>
       <c r="C836" t="n">
-        <v>2.206562144255117e-05</v>
+        <v>2.232171075874955e-05</v>
       </c>
     </row>
     <row r="837">
@@ -9571,7 +9571,7 @@
         <v>4.411003138304439</v>
       </c>
       <c r="C837" t="n">
-        <v>2.168539132259583e-05</v>
+        <v>2.193835584968691e-05</v>
       </c>
     </row>
     <row r="838">
@@ -9582,7 +9582,7 @@
         <v>4.411988973358038</v>
       </c>
       <c r="C838" t="n">
-        <v>2.151416681167896e-05</v>
+        <v>2.175233618696214e-05</v>
       </c>
     </row>
     <row r="839">
@@ -9593,7 +9593,7 @@
         <v>4.412974808411637</v>
       </c>
       <c r="C839" t="n">
-        <v>2.146477125271436e-05</v>
+        <v>2.16792367123674e-05</v>
       </c>
     </row>
     <row r="840">
@@ -9604,7 +9604,7 @@
         <v>4.413960643465236</v>
       </c>
       <c r="C840" t="n">
-        <v>2.145002798861637e-05</v>
+        <v>2.163464236769545e-05</v>
       </c>
     </row>
     <row r="841">
@@ -9615,7 +9615,7 @@
         <v>4.414946478518836</v>
       </c>
       <c r="C841" t="n">
-        <v>2.138276036229906e-05</v>
+        <v>2.153413809473872e-05</v>
       </c>
     </row>
     <row r="842">
@@ -9626,7 +9626,7 @@
         <v>4.415932313572435</v>
       </c>
       <c r="C842" t="n">
-        <v>2.11757917166765e-05</v>
+        <v>2.129330883528967e-05</v>
       </c>
     </row>
     <row r="843">
@@ -9637,7 +9637,7 @@
         <v>4.416918148626034</v>
       </c>
       <c r="C843" t="n">
-        <v>2.075192066042281e-05</v>
+        <v>2.083767304204287e-05</v>
       </c>
     </row>
     <row r="844">
@@ -9648,7 +9648,7 @@
         <v>4.417903983679634</v>
       </c>
       <c r="C844" t="n">
-        <v>2.013557167683492e-05</v>
+        <v>2.019394965275058e-05</v>
       </c>
     </row>
     <row r="845">
@@ -9659,7 +9659,7 @@
         <v>4.418889818733233</v>
       </c>
       <c r="C845" t="n">
-        <v>1.941051214380196e-05</v>
+        <v>1.944795209994566e-05</v>
       </c>
     </row>
     <row r="846">
@@ -9670,7 +9670,7 @@
         <v>4.419875653786832</v>
       </c>
       <c r="C846" t="n">
-        <v>1.866125309112976e-05</v>
+        <v>1.868623435527038e-05</v>
       </c>
     </row>
     <row r="847">
@@ -9681,7 +9681,7 @@
         <v>4.420861488840432</v>
       </c>
       <c r="C847" t="n">
-        <v>1.79723055486221e-05</v>
+        <v>1.799535039036489e-05</v>
       </c>
     </row>
     <row r="848">
@@ -9692,7 +9692,7 @@
         <v>4.421847323894031</v>
       </c>
       <c r="C848" t="n">
-        <v>1.742776758155916e-05</v>
+        <v>1.746141887067722e-05</v>
       </c>
     </row>
     <row r="849">
@@ -9703,7 +9703,7 @@
         <v>4.42283315894763</v>
       </c>
       <c r="C849" t="n">
-        <v>1.704831224446336e-05</v>
+        <v>1.7103702113621e-05</v>
       </c>
     </row>
     <row r="850">
@@ -9714,7 +9714,7 @@
         <v>4.42381899400123</v>
       </c>
       <c r="C850" t="n">
-        <v>1.672343517576859e-05</v>
+        <v>1.680318823090653e-05</v>
       </c>
     </row>
     <row r="851">
@@ -9725,7 +9725,7 @@
         <v>4.424804829054828</v>
       </c>
       <c r="C851" t="n">
-        <v>1.63322907165017e-05</v>
+        <v>1.643008047014348e-05</v>
       </c>
     </row>
     <row r="852">
@@ -9736,7 +9736,7 @@
         <v>4.425790664108428</v>
       </c>
       <c r="C852" t="n">
-        <v>1.583603693416153e-05</v>
+        <v>1.594263059532039e-05</v>
       </c>
     </row>
     <row r="853">
@@ -9747,7 +9747,7 @@
         <v>4.426776499162028</v>
       </c>
       <c r="C853" t="n">
-        <v>1.525582740118161e-05</v>
+        <v>1.536350836002395e-05</v>
       </c>
     </row>
     <row r="854">
@@ -9758,7 +9758,7 @@
         <v>4.427762334215627</v>
       </c>
       <c r="C854" t="n">
-        <v>1.46141884747281e-05</v>
+        <v>1.471685749547843e-05</v>
       </c>
     </row>
     <row r="855">
@@ -9769,7 +9769,7 @@
         <v>4.428748169269226</v>
       </c>
       <c r="C855" t="n">
-        <v>1.393364651196779e-05</v>
+        <v>1.402682173290878e-05</v>
       </c>
     </row>
     <row r="856">
@@ -9780,7 +9780,7 @@
         <v>4.429734004322825</v>
       </c>
       <c r="C856" t="n">
-        <v>1.32367278700656e-05</v>
+        <v>1.331754480353801e-05</v>
       </c>
     </row>
     <row r="857">
@@ -9791,7 +9791,7 @@
         <v>4.430719839376424</v>
       </c>
       <c r="C857" t="n">
-        <v>1.254595890618891e-05</v>
+        <v>1.261317043859164e-05</v>
       </c>
     </row>
     <row r="858">
@@ -9802,7 +9802,7 @@
         <v>4.431705674430024</v>
       </c>
       <c r="C858" t="n">
-        <v>1.18837381854275e-05</v>
+        <v>1.193770560850023e-05</v>
       </c>
     </row>
     <row r="859">
@@ -9813,7 +9813,7 @@
         <v>4.432691509483623</v>
       </c>
       <c r="C859" t="n">
-        <v>1.126382313042802e-05</v>
+        <v>1.130590968765062e-05</v>
       </c>
     </row>
     <row r="860">
@@ -9824,7 +9824,7 @@
         <v>4.433677344537222</v>
       </c>
       <c r="C860" t="n">
-        <v>1.068598537423494e-05</v>
+        <v>1.071757470861778e-05</v>
       </c>
     </row>
     <row r="861">
@@ -9835,7 +9835,7 @@
         <v>4.434663179590822</v>
       </c>
       <c r="C861" t="n">
-        <v>1.014872151437506e-05</v>
+        <v>1.017112818377746e-05</v>
       </c>
     </row>
     <row r="862">
@@ -9846,7 +9846,7 @@
         <v>4.435649014644421</v>
       </c>
       <c r="C862" t="n">
-        <v>9.650528148376803e-06</v>
+        <v>9.664997625507064e-06</v>
       </c>
     </row>
     <row r="863">
@@ -9857,7 +9857,7 @@
         <v>4.43663484969802</v>
       </c>
       <c r="C863" t="n">
-        <v>9.189901873768408e-06</v>
+        <v>9.197610546183814e-06</v>
       </c>
     </row>
     <row r="864">
@@ -9868,7 +9868,7 @@
         <v>4.43762068475162</v>
       </c>
       <c r="C864" t="n">
-        <v>8.765339288076911e-06</v>
+        <v>8.76739445818371e-06</v>
       </c>
     </row>
     <row r="865">
@@ -9879,7 +9879,7 @@
         <v>4.438606519805219</v>
       </c>
       <c r="C865" t="n">
-        <v>8.375336988830604e-06</v>
+        <v>8.372776873884014e-06</v>
       </c>
     </row>
     <row r="866">
@@ -9890,7 +9890,7 @@
         <v>4.439592354858818</v>
       </c>
       <c r="C866" t="n">
-        <v>8.018391573557655e-06</v>
+        <v>8.012185305661876e-06</v>
       </c>
     </row>
     <row r="867">
@@ -9901,7 +9901,7 @@
         <v>4.440578189912418</v>
       </c>
       <c r="C867" t="n">
-        <v>7.692999639785277e-06</v>
+        <v>7.684047265893474e-06</v>
       </c>
     </row>
     <row r="868">
@@ -9912,7 +9912,7 @@
         <v>4.441564024966016</v>
       </c>
       <c r="C868" t="n">
-        <v>7.39765778504192e-06</v>
+        <v>7.386790266956236e-06</v>
       </c>
     </row>
     <row r="869">
@@ -9923,7 +9923,7 @@
         <v>4.442549860019616</v>
       </c>
       <c r="C869" t="n">
-        <v>7.130862606854913e-06</v>
+        <v>7.118841821226459e-06</v>
       </c>
     </row>
     <row r="870">
@@ -9934,7 +9934,7 @@
         <v>4.443535695073216</v>
       </c>
       <c r="C870" t="n">
-        <v>6.891110702752395e-06</v>
+        <v>6.878629441081257e-06</v>
       </c>
     </row>
     <row r="871">
@@ -9945,7 +9945,7 @@
         <v>4.444521530126814</v>
       </c>
       <c r="C871" t="n">
-        <v>6.676898670262404e-06</v>
+        <v>6.66458063889764e-06</v>
       </c>
     </row>
     <row r="872">
@@ -9956,7 +9956,7 @@
         <v>4.445507365180414</v>
       </c>
       <c r="C872" t="n">
-        <v>6.486723106912419e-06</v>
+        <v>6.475122927052059e-06</v>
       </c>
     </row>
     <row r="873">
@@ -9967,7 +9967,7 @@
         <v>4.446493200234014</v>
       </c>
       <c r="C873" t="n">
-        <v>6.3190806102305e-06</v>
+        <v>6.308683817921548e-06</v>
       </c>
     </row>
     <row r="874">
@@ -9978,7 +9978,7 @@
         <v>4.447479035287612</v>
       </c>
       <c r="C874" t="n">
-        <v>6.172467777744631e-06</v>
+        <v>6.163690823883063e-06</v>
       </c>
     </row>
     <row r="875">
@@ -9989,7 +9989,7 @@
         <v>4.448464870341212</v>
       </c>
       <c r="C875" t="n">
-        <v>6.045381206982407e-06</v>
+        <v>6.038571457313171e-06</v>
       </c>
     </row>
     <row r="876">
@@ -10000,7 +10000,7 @@
         <v>4.449450705394812</v>
       </c>
       <c r="C876" t="n">
-        <v>5.936317495471829e-06</v>
+        <v>5.93175323058885e-06</v>
       </c>
     </row>
     <row r="877">
@@ -10011,7 +10011,7 @@
         <v>4.45043654044841</v>
       </c>
       <c r="C877" t="n">
-        <v>5.843773240740834e-06</v>
+        <v>5.841663656087001e-06</v>
       </c>
     </row>
     <row r="878">
@@ -10022,7 +10022,7 @@
         <v>4.45142237550201</v>
       </c>
       <c r="C878" t="n">
-        <v>5.766245040317115e-06</v>
+        <v>5.766730246184297e-06</v>
       </c>
     </row>
     <row r="879">
@@ -10033,7 +10033,7 @@
         <v>4.452408210555609</v>
       </c>
       <c r="C879" t="n">
-        <v>5.702229491728671e-06</v>
+        <v>5.705380513257706e-06</v>
       </c>
     </row>
     <row r="880">
@@ -10044,7 +10044,7 @@
         <v>4.453394045609208</v>
       </c>
       <c r="C880" t="n">
-        <v>5.65022319250325e-06</v>
+        <v>5.656041969683954e-06</v>
       </c>
     </row>
     <row r="881">
@@ -10055,7 +10055,7 @@
         <v>4.454379880662808</v>
       </c>
       <c r="C881" t="n">
-        <v>5.608722740168775e-06</v>
+        <v>5.617142127839931e-06</v>
       </c>
     </row>
     <row r="882">
@@ -10066,7 +10066,7 @@
         <v>4.455365715716407</v>
       </c>
       <c r="C882" t="n">
-        <v>5.576224732253104e-06</v>
+        <v>5.587108500102469e-06</v>
       </c>
     </row>
     <row r="883">
@@ -10077,7 +10077,7 @@
         <v>4.456351550770006</v>
       </c>
       <c r="C883" t="n">
-        <v>5.551225766284116e-06</v>
+        <v>5.564368598848419e-06</v>
       </c>
     </row>
     <row r="884">
@@ -10088,7 +10088,7 @@
         <v>4.457337385823606</v>
       </c>
       <c r="C884" t="n">
-        <v>5.532222439789627e-06</v>
+        <v>5.547349936454572e-06</v>
       </c>
     </row>
     <row r="885">
@@ -10099,7 +10099,7 @@
         <v>4.458323220877205</v>
       </c>
       <c r="C885" t="n">
-        <v>5.517893238043342e-06</v>
+        <v>5.534672423121022e-06</v>
       </c>
     </row>
     <row r="886">
@@ -10110,7 +10110,7 @@
         <v>4.459309055930804</v>
       </c>
       <c r="C886" t="n">
-        <v>5.507929594718512e-06</v>
+        <v>5.526027448966706e-06</v>
       </c>
     </row>
     <row r="887">
@@ -10121,7 +10121,7 @@
         <v>4.460294890984404</v>
       </c>
       <c r="C887" t="n">
-        <v>5.502373494985245e-06</v>
+        <v>5.521477211635951e-06</v>
       </c>
     </row>
     <row r="888">
@@ -10132,7 +10132,7 @@
         <v>4.461280726038003</v>
       </c>
       <c r="C888" t="n">
-        <v>5.5012672627577e-06</v>
+        <v>5.5210842670909e-06</v>
       </c>
     </row>
     <row r="889">
@@ -10143,7 +10143,7 @@
         <v>4.462266561091602</v>
       </c>
       <c r="C889" t="n">
-        <v>5.504653221950045e-06</v>
+        <v>5.524911171293705e-06</v>
       </c>
     </row>
     <row r="890">
@@ -10154,7 +10154,7 @@
         <v>4.463252396145202</v>
       </c>
       <c r="C890" t="n">
-        <v>5.512573696476447e-06</v>
+        <v>5.533020480206511e-06</v>
       </c>
     </row>
     <row r="891">
@@ -10165,7 +10165,7 @@
         <v>4.4642382311988</v>
       </c>
       <c r="C891" t="n">
-        <v>5.525071010251058e-06</v>
+        <v>5.545474749791454e-06</v>
       </c>
     </row>
     <row r="892">
@@ -10176,7 +10176,7 @@
         <v>4.4652240662524</v>
       </c>
       <c r="C892" t="n">
-        <v>5.542187487188069e-06</v>
+        <v>5.562336536010706e-06</v>
       </c>
     </row>
     <row r="893">
@@ -10187,7 +10187,7 @@
         <v>4.466209901306</v>
       </c>
       <c r="C893" t="n">
-        <v>5.563965451201632e-06</v>
+        <v>5.583668394826403e-06</v>
       </c>
     </row>
     <row r="894">
@@ -10198,7 +10198,7 @@
         <v>4.467195736359598</v>
       </c>
       <c r="C894" t="n">
-        <v>5.590447226205889e-06</v>
+        <v>5.609532882200668e-06</v>
       </c>
     </row>
     <row r="895">
@@ -10209,7 +10209,7 @@
         <v>4.468181571413198</v>
       </c>
       <c r="C895" t="n">
-        <v>5.621675136115054e-06</v>
+        <v>5.639992554095694e-06</v>
       </c>
     </row>
     <row r="896">
@@ -10220,7 +10220,7 @@
         <v>4.469167406466797</v>
       </c>
       <c r="C896" t="n">
-        <v>5.657691504843234e-06</v>
+        <v>5.675109966473571e-06</v>
       </c>
     </row>
     <row r="897">
@@ -10231,7 +10231,7 @@
         <v>4.470153241520396</v>
       </c>
       <c r="C897" t="n">
-        <v>5.698538656304664e-06</v>
+        <v>5.714947675296517e-06</v>
       </c>
     </row>
     <row r="898">
@@ -10242,7 +10242,7 @@
         <v>4.471139076573996</v>
       </c>
       <c r="C898" t="n">
-        <v>5.744258914413473e-06</v>
+        <v>5.759568236526643e-06</v>
       </c>
     </row>
     <row r="899">
@@ -10253,7 +10253,7 @@
         <v>4.472124911627595</v>
       </c>
       <c r="C899" t="n">
-        <v>5.794894603083783e-06</v>
+        <v>5.809034206126053e-06</v>
       </c>
     </row>
     <row r="900">
@@ -10264,7 +10264,7 @@
         <v>4.473110746681194</v>
       </c>
       <c r="C900" t="n">
-        <v>5.850488046229851e-06</v>
+        <v>5.863408140056983e-06</v>
       </c>
     </row>
     <row r="901">
@@ -10275,7 +10275,7 @@
         <v>4.474096581734794</v>
       </c>
       <c r="C901" t="n">
-        <v>5.911081567765797e-06</v>
+        <v>5.922752594281538e-06</v>
       </c>
     </row>
     <row r="902">
@@ -10286,7 +10286,7 @@
         <v>4.475082416788393</v>
       </c>
       <c r="C902" t="n">
-        <v>5.976717491605728e-06</v>
+        <v>5.987130124761806e-06</v>
       </c>
     </row>
     <row r="903">
@@ -10297,7 +10297,7 @@
         <v>4.476068251841992</v>
       </c>
       <c r="C903" t="n">
-        <v>6.047438141663925e-06</v>
+        <v>6.056603287460047e-06</v>
       </c>
     </row>
     <row r="904">
@@ -10308,7 +10308,7 @@
         <v>4.477054086895592</v>
       </c>
       <c r="C904" t="n">
-        <v>6.123285841854499e-06</v>
+        <v>6.131234638338357e-06</v>
       </c>
     </row>
     <row r="905">
@@ -10319,7 +10319,7 @@
         <v>4.478039921949191</v>
       </c>
       <c r="C905" t="n">
-        <v>6.204302916091541e-06</v>
+        <v>6.211086733358808e-06</v>
       </c>
     </row>
     <row r="906">
@@ -10330,7 +10330,7 @@
         <v>4.47902575700279</v>
       </c>
       <c r="C906" t="n">
-        <v>6.290531688289359e-06</v>
+        <v>6.296222128483691e-06</v>
       </c>
     </row>
     <row r="907">
@@ -10341,7 +10341,7 @@
         <v>4.480011592056389</v>
       </c>
       <c r="C907" t="n">
-        <v>6.382014482361968e-06</v>
+        <v>6.386703379674999e-06</v>
       </c>
     </row>
     <row r="908">
@@ -10352,7 +10352,7 @@
         <v>4.480997427109989</v>
       </c>
       <c r="C908" t="n">
-        <v>6.478793622223692e-06</v>
+        <v>6.482593042895042e-06</v>
       </c>
     </row>
     <row r="909">
@@ -10363,7 +10363,7 @@
         <v>4.481983262163588</v>
       </c>
       <c r="C909" t="n">
-        <v>6.580911431788622e-06</v>
+        <v>6.583953674105891e-06</v>
       </c>
     </row>
     <row r="910">
@@ -10374,7 +10374,7 @@
         <v>4.482969097217187</v>
       </c>
       <c r="C910" t="n">
-        <v>6.688410234970824e-06</v>
+        <v>6.690847829269593e-06</v>
       </c>
     </row>
     <row r="911">
@@ -10385,7 +10385,7 @@
         <v>4.483954932270787</v>
       </c>
       <c r="C911" t="n">
-        <v>6.801332355684654e-06</v>
+        <v>6.803338064348487e-06</v>
       </c>
     </row>
     <row r="912">
@@ -10396,7 +10396,7 @@
         <v>4.484940767324386</v>
       </c>
       <c r="C912" t="n">
-        <v>6.919720117844186e-06</v>
+        <v>6.921486935304631e-06</v>
       </c>
     </row>
     <row r="913">
@@ -10407,7 +10407,7 @@
         <v>4.485926602377985</v>
       </c>
       <c r="C913" t="n">
-        <v>7.043615845363472e-06</v>
+        <v>7.045356998100054e-06</v>
       </c>
     </row>
     <row r="914">
@@ -10418,7 +10418,7 @@
         <v>4.486912437431585</v>
       </c>
       <c r="C914" t="n">
-        <v>7.173061862156899e-06</v>
+        <v>7.175010808697126e-06</v>
       </c>
     </row>
     <row r="915">
@@ -10429,7 +10429,7 @@
         <v>4.487898272485184</v>
       </c>
       <c r="C915" t="n">
-        <v>7.308100492138524e-06</v>
+        <v>7.310510923057887e-06</v>
       </c>
     </row>
     <row r="916">
@@ -10440,7 +10440,7 @@
         <v>4.488884107538783</v>
       </c>
       <c r="C916" t="n">
-        <v>7.448774059222383e-06</v>
+        <v>7.451919897144356e-06</v>
       </c>
     </row>
     <row r="917">
@@ -10451,7 +10451,7 @@
         <v>4.489869942592382</v>
       </c>
       <c r="C917" t="n">
-        <v>7.595124887322898e-06</v>
+        <v>7.599300286918935e-06</v>
       </c>
     </row>
     <row r="918">
@@ -10462,7 +10462,7 @@
         <v>4.490855777645981</v>
       </c>
       <c r="C918" t="n">
-        <v>7.747195300353967e-06</v>
+        <v>7.752714648343502e-06</v>
       </c>
     </row>
     <row r="919">
@@ -10473,7 +10473,7 @@
         <v>4.491841612699581</v>
       </c>
       <c r="C919" t="n">
-        <v>7.905027622230031e-06</v>
+        <v>7.912225537380486e-06</v>
       </c>
     </row>
     <row r="920">
@@ -10484,7 +10484,7 @@
         <v>4.49282744775318</v>
       </c>
       <c r="C920" t="n">
-        <v>8.06928716234078e-06</v>
+        <v>8.078503015236372e-06</v>
       </c>
     </row>
     <row r="921">
@@ -10495,7 +10495,7 @@
         <v>4.49381328280678</v>
       </c>
       <c r="C921" t="n">
-        <v>8.243582871092141e-06</v>
+        <v>8.255087639180724e-06</v>
       </c>
     </row>
     <row r="922">
@@ -10506,7 +10506,7 @@
         <v>4.494799117860379</v>
       </c>
       <c r="C922" t="n">
-        <v>8.43239228265747e-06</v>
+        <v>8.446366967279411e-06</v>
       </c>
     </row>
     <row r="923">
@@ -10517,7 +10517,7 @@
         <v>4.495784952913978</v>
       </c>
       <c r="C923" t="n">
-        <v>8.640193057105128e-06</v>
+        <v>8.656728680365047e-06</v>
       </c>
     </row>
     <row r="924">
@@ -10528,7 +10528,7 @@
         <v>4.496770787967577</v>
       </c>
       <c r="C924" t="n">
-        <v>8.871462854502755e-06</v>
+        <v>8.890560459269494e-06</v>
       </c>
     </row>
     <row r="925">
@@ -10539,7 +10539,7 @@
         <v>4.497756623021177</v>
       </c>
       <c r="C925" t="n">
-        <v>9.13067933491879e-06</v>
+        <v>9.152249984825439e-06</v>
       </c>
     </row>
     <row r="926">
@@ -10550,7 +10550,7 @@
         <v>4.498742458074776</v>
       </c>
       <c r="C926" t="n">
-        <v>9.422320158421058e-06</v>
+        <v>9.446184937864941e-06</v>
       </c>
     </row>
     <row r="927">
@@ -10561,7 +10561,7 @@
         <v>4.499728293128375</v>
       </c>
       <c r="C927" t="n">
-        <v>9.750862985077265e-06</v>
+        <v>9.776752999219951e-06</v>
       </c>
     </row>
     <row r="928">
@@ -10572,7 +10572,7 @@
         <v>4.500714128181975</v>
       </c>
       <c r="C928" t="n">
-        <v>1.012078547495603e-05</v>
+        <v>1.014834184972332e-05</v>
       </c>
     </row>
     <row r="929">
@@ -10583,7 +10583,7 @@
         <v>4.501699963235574</v>
       </c>
       <c r="C929" t="n">
-        <v>1.05365652881251e-05</v>
+        <v>1.056533917020704e-05</v>
       </c>
     </row>
     <row r="930">
@@ -10594,7 +10594,7 @@
         <v>4.502685798289173</v>
       </c>
       <c r="C930" t="n">
-        <v>1.100268008465205e-05</v>
+        <v>1.103213264150291e-05</v>
       </c>
     </row>
     <row r="931">
@@ -10605,7 +10605,7 @@
         <v>4.503671633342773</v>
       </c>
       <c r="C931" t="n">
-        <v>1.152332980278971e-05</v>
+        <v>1.155283558087787e-05</v>
       </c>
     </row>
     <row r="932">
@@ -10616,7 +10616,7 @@
         <v>4.504657468396372</v>
       </c>
       <c r="C932" t="n">
-        <v>1.209775359593393e-05</v>
+        <v>1.212666050722503e-05</v>
       </c>
     </row>
     <row r="933">
@@ -10627,7 +10627,7 @@
         <v>4.505643303449971</v>
       </c>
       <c r="C933" t="n">
-        <v>1.272091289063577e-05</v>
+        <v>1.27485939394458e-05</v>
       </c>
     </row>
     <row r="934">
@@ -10638,7 +10638,7 @@
         <v>4.506629138503571</v>
       </c>
       <c r="C934" t="n">
-        <v>1.338762894375852e-05</v>
+        <v>1.34134839217047e-05</v>
       </c>
     </row>
     <row r="935">
@@ -10649,7 +10649,7 @@
         <v>4.507614973557169</v>
       </c>
       <c r="C935" t="n">
-        <v>1.409272301216322e-05</v>
+        <v>1.4116178498164e-05</v>
       </c>
     </row>
     <row r="936">
@@ -10660,7 +10660,7 @@
         <v>4.508600808610769</v>
       </c>
       <c r="C936" t="n">
-        <v>1.483101635271332e-05</v>
+        <v>1.485152571298837e-05</v>
       </c>
     </row>
     <row r="937">
@@ -10671,7 +10671,7 @@
         <v>4.509586643664369</v>
       </c>
       <c r="C937" t="n">
-        <v>1.559733022227039e-05</v>
+        <v>1.561437361034064e-05</v>
       </c>
     </row>
     <row r="938">
@@ -10682,7 +10682,7 @@
         <v>4.510572478717967</v>
       </c>
       <c r="C938" t="n">
-        <v>1.638648587769592e-05</v>
+        <v>1.639957023438352e-05</v>
       </c>
     </row>
     <row r="939">
@@ -10693,7 +10693,7 @@
         <v>4.511558313771567</v>
       </c>
       <c r="C939" t="n">
-        <v>1.719330457585352e-05</v>
+        <v>1.720196362928185e-05</v>
       </c>
     </row>
     <row r="940">
@@ -10704,7 +10704,7 @@
         <v>4.512544148825167</v>
       </c>
       <c r="C940" t="n">
-        <v>1.801260757360469e-05</v>
+        <v>1.801640183919837e-05</v>
       </c>
     </row>
     <row r="941">
@@ -10715,7 +10715,7 @@
         <v>4.513529983878765</v>
       </c>
       <c r="C941" t="n">
-        <v>1.883921612781088e-05</v>
+        <v>1.883773290829575e-05</v>
       </c>
     </row>
     <row r="942">
@@ -10726,7 +10726,7 @@
         <v>4.514515818932365</v>
       </c>
       <c r="C942" t="n">
-        <v>1.966795149533577e-05</v>
+        <v>1.966080488073892e-05</v>
       </c>
     </row>
     <row r="943">
@@ -10737,7 +10737,7 @@
         <v>4.515501653985964</v>
       </c>
       <c r="C943" t="n">
-        <v>2.049363493304081e-05</v>
+        <v>2.048046580069055e-05</v>
       </c>
     </row>
     <row r="944">
@@ -10748,7 +10748,7 @@
         <v>4.516487489039563</v>
       </c>
       <c r="C944" t="n">
-        <v>2.131108769778748e-05</v>
+        <v>2.129156371231337e-05</v>
       </c>
     </row>
     <row r="945">
@@ -10759,7 +10759,7 @@
         <v>4.517473324093163</v>
       </c>
       <c r="C945" t="n">
-        <v>2.211513104643943e-05</v>
+        <v>2.208894665977224e-05</v>
       </c>
     </row>
     <row r="946">
@@ -10770,7 +10770,7 @@
         <v>4.518459159146762</v>
       </c>
       <c r="C946" t="n">
-        <v>2.290622955443617e-05</v>
+        <v>2.287313577211737e-05</v>
       </c>
     </row>
     <row r="947">
@@ -10781,7 +10781,7 @@
         <v>4.519444994200361</v>
       </c>
       <c r="C947" t="n">
-        <v>2.37108839684675e-05</v>
+        <v>2.367082568032079e-05</v>
       </c>
     </row>
     <row r="948">
@@ -10792,7 +10792,7 @@
         <v>4.520430829253961</v>
       </c>
       <c r="C948" t="n">
-        <v>2.456309862584567e-05</v>
+        <v>2.451625418449753e-05</v>
       </c>
     </row>
     <row r="949">
@@ -10803,7 +10803,7 @@
         <v>4.52141666430756</v>
       </c>
       <c r="C949" t="n">
-        <v>2.549687856428273e-05</v>
+        <v>2.544365978885682e-05</v>
       </c>
     </row>
     <row r="950">
@@ -10814,7 +10814,7 @@
         <v>4.522402499361159</v>
       </c>
       <c r="C950" t="n">
-        <v>2.654622882149332e-05</v>
+        <v>2.648728099761041e-05</v>
       </c>
     </row>
     <row r="951">
@@ -10825,7 +10825,7 @@
         <v>4.523388334414759</v>
       </c>
       <c r="C951" t="n">
-        <v>2.774515443518961e-05</v>
+        <v>2.768135631496763e-05</v>
       </c>
     </row>
     <row r="952">
@@ -10836,7 +10836,7 @@
         <v>4.524374169468357</v>
       </c>
       <c r="C952" t="n">
-        <v>2.912766044308322e-05</v>
+        <v>2.906012424513727e-05</v>
       </c>
     </row>
     <row r="953">
@@ -10847,7 +10847,7 @@
         <v>4.525360004521957</v>
       </c>
       <c r="C953" t="n">
-        <v>3.072775188288959e-05</v>
+        <v>3.065782329233188e-05</v>
       </c>
     </row>
     <row r="954">
@@ -10858,7 +10858,7 @@
         <v>4.526345839575557</v>
       </c>
       <c r="C954" t="n">
-        <v>3.257941349801023e-05</v>
+        <v>3.250867079942849e-05</v>
       </c>
     </row>
     <row r="955">
@@ -10869,7 +10869,7 @@
         <v>4.527331674629155</v>
       </c>
       <c r="C955" t="n">
-        <v>3.471034336420913e-05</v>
+        <v>3.464032886013876e-05</v>
       </c>
     </row>
     <row r="956">
@@ -10880,7 +10880,7 @@
         <v>4.528317509682755</v>
       </c>
       <c r="C956" t="n">
-        <v>3.713308448791096e-05</v>
+        <v>3.706465703790437e-05</v>
       </c>
     </row>
     <row r="957">
@@ -10891,7 +10891,7 @@
         <v>4.529303344736355</v>
       </c>
       <c r="C957" t="n">
-        <v>3.985794213001675e-05</v>
+        <v>3.979118154878475e-05</v>
       </c>
     </row>
     <row r="958">
@@ -10902,7 +10902,7 @@
         <v>4.530289179789953</v>
       </c>
       <c r="C958" t="n">
-        <v>4.289522155142636e-05</v>
+        <v>4.282942860883824e-05</v>
       </c>
     </row>
     <row r="959">
@@ -10913,7 +10913,7 @@
         <v>4.531275014843553</v>
       </c>
       <c r="C959" t="n">
-        <v>4.625522801304806e-05</v>
+        <v>4.618892443413152e-05</v>
       </c>
     </row>
     <row r="960">
@@ -10924,7 +10924,7 @@
         <v>4.532260849897153</v>
       </c>
       <c r="C960" t="n">
-        <v>4.994826677578201e-05</v>
+        <v>4.987919524072321e-05</v>
       </c>
     </row>
     <row r="961">
@@ -10935,7 +10935,7 @@
         <v>4.533246684950751</v>
       </c>
       <c r="C961" t="n">
-        <v>5.398464310052726e-05</v>
+        <v>5.390976724467077e-05</v>
       </c>
     </row>
     <row r="962">
@@ -10946,7 +10946,7 @@
         <v>4.534232520004351</v>
       </c>
       <c r="C962" t="n">
-        <v>5.837466224819381e-05</v>
+        <v>5.829016666204263e-05</v>
       </c>
     </row>
     <row r="963">
@@ -10957,7 +10957,7 @@
         <v>4.53521835505795</v>
       </c>
       <c r="C963" t="n">
-        <v>6.312450716817249e-05</v>
+        <v>6.302594229874955e-05</v>
       </c>
     </row>
     <row r="964">
@@ -10968,7 +10968,7 @@
         <v>4.536204190111549</v>
       </c>
       <c r="C964" t="n">
-        <v>6.819005814521784e-05</v>
+        <v>6.807410846050142e-05</v>
       </c>
     </row>
     <row r="965">
@@ -10979,7 +10979,7 @@
         <v>4.537190025165149</v>
       </c>
       <c r="C965" t="n">
-        <v>7.349357465915996e-05</v>
+        <v>7.335924043660207e-05</v>
       </c>
     </row>
     <row r="966">
@@ -10990,7 +10990,7 @@
         <v>4.538175860218748</v>
       </c>
       <c r="C966" t="n">
-        <v>7.895670097695737e-05</v>
+        <v>7.880531992853154e-05</v>
       </c>
     </row>
     <row r="967">
@@ -11001,7 +11001,7 @@
         <v>4.539161695272347</v>
       </c>
       <c r="C967" t="n">
-        <v>8.450108136558351e-05</v>
+        <v>8.433632863778462e-05</v>
       </c>
     </row>
     <row r="968">
@@ -11012,7 +11012,7 @@
         <v>4.540147530325947</v>
       </c>
       <c r="C968" t="n">
-        <v>9.004836009199704e-05</v>
+        <v>8.987624826584146e-05</v>
       </c>
     </row>
     <row r="969">
@@ -11023,7 +11023,7 @@
         <v>4.541133365379546</v>
       </c>
       <c r="C969" t="n">
-        <v>9.552018142315666e-05</v>
+        <v>9.534906051418215e-05</v>
       </c>
     </row>
     <row r="970">
@@ -11034,7 +11034,7 @@
         <v>4.542119200433145</v>
       </c>
       <c r="C970" t="n">
-        <v>0.0001008381896260358</v>
+        <v>0.0001006787470843016</v>
       </c>
     </row>
     <row r="971">
@@ -11045,7 +11045,7 @@
         <v>4.543105035486745</v>
       </c>
       <c r="C971" t="n">
-        <v>0.000105924028967593</v>
+        <v>0.0001057892896776797</v>
       </c>
     </row>
     <row r="972">
@@ -11056,7 +11056,7 @@
         <v>4.544090870540344</v>
       </c>
       <c r="C972" t="n">
-        <v>0.0001106947455205918</v>
+        <v>0.0001105997345556558</v>
       </c>
     </row>
     <row r="973">
@@ -11067,7 +11067,7 @@
         <v>4.545076705593943</v>
       </c>
       <c r="C973" t="n">
-        <v>0.0001150019245846524</v>
+        <v>0.0001149588661085601</v>
       </c>
     </row>
     <row r="974">
@@ -11078,7 +11078,7 @@
         <v>4.546062540647542</v>
       </c>
       <c r="C974" t="n">
-        <v>0.0001186484159166994</v>
+        <v>0.0001186631587668807</v>
       </c>
     </row>
     <row r="975">
@@ -11089,7 +11089,7 @@
         <v>4.547048375701142</v>
       </c>
       <c r="C975" t="n">
-        <v>0.0001214359076724534</v>
+        <v>0.0001215078401644351</v>
       </c>
     </row>
     <row r="976">
@@ -11100,7 +11100,7 @@
         <v>4.548034210754741</v>
       </c>
       <c r="C976" t="n">
-        <v>0.0001231660880076245</v>
+        <v>0.0001232881379350304</v>
       </c>
     </row>
     <row r="977">
@@ -11111,7 +11111,7 @@
         <v>4.54902004580834</v>
       </c>
       <c r="C977" t="n">
-        <v>0.0001236406450779265</v>
+        <v>0.0001237992797124773</v>
       </c>
     </row>
     <row r="978">
@@ -11122,7 +11122,7 @@
         <v>4.550005880861939</v>
       </c>
       <c r="C978" t="n">
-        <v>0.0001226613679749389</v>
+        <v>0.000122836596060846</v>
       </c>
     </row>
     <row r="979">
@@ -11133,7 +11133,7 @@
         <v>4.550991715915539</v>
       </c>
       <c r="C979" t="n">
-        <v>0.0001201938146434171</v>
+        <v>0.0001203624223099169</v>
       </c>
     </row>
     <row r="980">
@@ -11144,7 +11144,7 @@
         <v>4.551977550969138</v>
       </c>
       <c r="C980" t="n">
-        <v>0.0001167003415203588</v>
+        <v>0.000116845708534538</v>
       </c>
     </row>
     <row r="981">
@@ -11155,7 +11155,7 @@
         <v>4.552963386022737</v>
       </c>
       <c r="C981" t="n">
-        <v>0.0001127371551897439</v>
+        <v>0.0001128511093437513</v>
       </c>
     </row>
     <row r="982">
@@ -11166,7 +11166,7 @@
         <v>4.553949221076337</v>
       </c>
       <c r="C982" t="n">
-        <v>0.000108860462193878</v>
+        <v>0.0001089432793043245</v>
       </c>
     </row>
     <row r="983">
@@ -11177,7 +11177,7 @@
         <v>4.554935056129936</v>
       </c>
       <c r="C983" t="n">
-        <v>0.0001055134115926569</v>
+        <v>0.0001055721901154734</v>
       </c>
     </row>
     <row r="984">
@@ -11188,7 +11188,7 @@
         <v>4.555920891183535</v>
       </c>
       <c r="C984" t="n">
-        <v>0.0001026966150917496</v>
+        <v>0.0001027389139281458</v>
       </c>
     </row>
     <row r="985">
@@ -11199,7 +11199,7 @@
         <v>4.556906726237134</v>
       </c>
       <c r="C985" t="n">
-        <v>0.0001003024214878929</v>
+        <v>0.0001003347035290045</v>
       </c>
     </row>
     <row r="986">
@@ -11210,7 +11210,7 @@
         <v>4.557892561290734</v>
       </c>
       <c r="C986" t="n">
-        <v>9.822317957781444e-05</v>
+        <v>9.82508117047029e-05</v>
       </c>
     </row>
     <row r="987">
@@ -11221,7 +11221,7 @@
         <v>4.558878396344333</v>
       </c>
       <c r="C987" t="n">
-        <v>9.635123815824809e-05</v>
+        <v>9.637849124190064e-05</v>
       </c>
     </row>
     <row r="988">
@@ -11232,7 +11232,7 @@
         <v>4.559864231397933</v>
       </c>
       <c r="C988" t="n">
-        <v>9.457894602592563e-05</v>
+        <v>9.46089949272553e-05</v>
       </c>
     </row>
     <row r="989">
@@ -11243,7 +11243,7 @@
         <v>4.560850066451532</v>
       </c>
       <c r="C989" t="n">
-        <v>9.279865197758024e-05</v>
+        <v>9.28335755474259e-05</v>
       </c>
     </row>
     <row r="990">
@@ -11254,7 +11254,7 @@
         <v>4.561835901505131</v>
       </c>
       <c r="C990" t="n">
-        <v>9.090270480994056e-05</v>
+        <v>9.094348588906684e-05</v>
       </c>
     </row>
     <row r="991">
@@ -11265,7 +11265,7 @@
         <v>4.56282173655873</v>
       </c>
       <c r="C991" t="n">
-        <v>8.878345331974187e-05</v>
+        <v>8.882997873883921e-05</v>
       </c>
     </row>
     <row r="992">
@@ -11276,7 +11276,7 @@
         <v>4.56380757161233</v>
       </c>
       <c r="C992" t="n">
-        <v>8.635201905980479e-05</v>
+        <v>8.640321422168341e-05</v>
       </c>
     </row>
     <row r="993">
@@ -11287,7 +11287,7 @@
         <v>4.564793406665929</v>
       </c>
       <c r="C993" t="n">
-        <v>8.362761911184266e-05</v>
+        <v>8.368222293003851e-05</v>
       </c>
     </row>
     <row r="994">
@@ -11298,7 +11298,7 @@
         <v>4.565779241719528</v>
       </c>
       <c r="C994" t="n">
-        <v>8.06680816927637e-05</v>
+        <v>8.072492339539526e-05</v>
       </c>
     </row>
     <row r="995">
@@ -11309,7 +11309,7 @@
         <v>4.566765076773128</v>
       </c>
       <c r="C995" t="n">
-        <v>7.753128320765743e-05</v>
+        <v>7.758928268288741e-05</v>
       </c>
     </row>
     <row r="996">
@@ -11320,7 +11320,7 @@
         <v>4.567750911826727</v>
       </c>
       <c r="C996" t="n">
-        <v>7.427510006162126e-05</v>
+        <v>7.433326785765683e-05</v>
       </c>
     </row>
     <row r="997">
@@ -11331,7 +11331,7 @@
         <v>4.568736746880326</v>
       </c>
       <c r="C997" t="n">
-        <v>7.095740865975307e-05</v>
+        <v>7.101484598484563e-05</v>
       </c>
     </row>
     <row r="998">
@@ -11342,7 +11342,7 @@
         <v>4.569722581933926</v>
       </c>
       <c r="C998" t="n">
-        <v>6.763608540714166e-05</v>
+        <v>6.769198412958704e-05</v>
       </c>
     </row>
     <row r="999">
@@ -11353,7 +11353,7 @@
         <v>4.570708416987525</v>
       </c>
       <c r="C999" t="n">
-        <v>6.436900670888488e-05</v>
+        <v>6.44226493570232e-05</v>
       </c>
     </row>
     <row r="1000">
@@ -11364,7 +11364,7 @@
         <v>4.571694252041124</v>
       </c>
       <c r="C1000" t="n">
-        <v>6.121376288159097e-05</v>
+        <v>6.126452298745021e-05</v>
       </c>
     </row>
     <row r="1001">
@@ -11375,7 +11375,7 @@
         <v>4.572680087094724</v>
       </c>
       <c r="C1001" t="n">
-        <v>5.820020538821822e-05</v>
+        <v>5.824758080684088e-05</v>
       </c>
     </row>
     <row r="1002">
@@ -11386,7 +11386,7 @@
         <v>4.573665922148322</v>
       </c>
       <c r="C1002" t="n">
-        <v>5.530766479341447e-05</v>
+        <v>5.535133838749661e-05</v>
       </c>
     </row>
     <row r="1003">
@@ -11397,7 +11397,7 @@
         <v>4.574651757201922</v>
       </c>
       <c r="C1003" t="n">
-        <v>5.251010912082989e-05</v>
+        <v>5.254995520209239e-05</v>
       </c>
     </row>
     <row r="1004">
@@ -11408,7 +11408,7 @@
         <v>4.575637592255521</v>
       </c>
       <c r="C1004" t="n">
-        <v>4.978150639412245e-05</v>
+        <v>4.981759072331099e-05</v>
       </c>
     </row>
     <row r="1005">
@@ -11419,7 +11419,7 @@
         <v>4.57662342730912</v>
       </c>
       <c r="C1005" t="n">
-        <v>4.709582463694985e-05</v>
+        <v>4.712840442383496e-05</v>
       </c>
     </row>
     <row r="1006">
@@ -11430,7 +11430,7 @@
         <v>4.57760926236272</v>
       </c>
       <c r="C1006" t="n">
-        <v>4.442703187296264e-05</v>
+        <v>4.445655577633963e-05</v>
       </c>
     </row>
     <row r="1007">
@@ -11441,7 +11441,7 @@
         <v>4.578595097416319</v>
       </c>
       <c r="C1007" t="n">
-        <v>4.174909612581853e-05</v>
+        <v>4.177620425350758e-05</v>
       </c>
     </row>
     <row r="1008">
@@ -11452,7 +11452,7 @@
         <v>4.579580932469918</v>
       </c>
       <c r="C1008" t="n">
-        <v>3.903598541917534e-05</v>
+        <v>3.906150932802141e-05</v>
       </c>
     </row>
     <row r="1009">
@@ -11463,7 +11463,7 @@
         <v>4.580566767523518</v>
       </c>
       <c r="C1009" t="n">
-        <v>3.626308270912363e-05</v>
+        <v>3.628803330066958e-05</v>
       </c>
     </row>
     <row r="1010">
@@ -11474,7 +11474,7 @@
         <v>4.581552602577117</v>
       </c>
       <c r="C1010" t="n">
-        <v>3.343931993208559e-05</v>
+        <v>3.346460045100613e-05</v>
       </c>
     </row>
     <row r="1011">
@@ -11485,7 +11485,7 @@
         <v>4.582538437630716</v>
       </c>
       <c r="C1011" t="n">
-        <v>3.060774632992311e-05</v>
+        <v>3.063386050060612e-05</v>
       </c>
     </row>
     <row r="1012">
@@ -11496,7 +11496,7 @@
         <v>4.583524272684316</v>
       </c>
       <c r="C1012" t="n">
-        <v>2.781293975200837e-05</v>
+        <v>2.783997870177146e-05</v>
       </c>
     </row>
     <row r="1013">
@@ -11507,7 +11507,7 @@
         <v>4.584510107737914</v>
       </c>
       <c r="C1013" t="n">
-        <v>2.509947804772363e-05</v>
+        <v>2.512712030681408e-05</v>
       </c>
     </row>
     <row r="1014">
@@ -11518,7 +11518,7 @@
         <v>4.585495942791514</v>
       </c>
       <c r="C1014" t="n">
-        <v>2.251193906644125e-05</v>
+        <v>2.253945056803606e-05</v>
       </c>
     </row>
     <row r="1015">
@@ -11529,7 +11529,7 @@
         <v>4.586481777845114</v>
       </c>
       <c r="C1015" t="n">
-        <v>2.009490065754103e-05</v>
+        <v>2.012113473774692e-05</v>
       </c>
     </row>
     <row r="1016">
@@ -11540,7 +11540,7 @@
         <v>4.587467612898712</v>
       </c>
       <c r="C1016" t="n">
-        <v>1.789294067040214e-05</v>
+        <v>1.791633806825551e-05</v>
       </c>
     </row>
     <row r="1017">
@@ -11551,7 +11551,7 @@
         <v>4.588453447952312</v>
       </c>
       <c r="C1017" t="n">
-        <v>1.595063695439789e-05</v>
+        <v>1.596922581186485e-05</v>
       </c>
     </row>
     <row r="1018">
@@ -11562,7 +11562,7 @@
         <v>4.589439283005912</v>
       </c>
       <c r="C1018" t="n">
-        <v>1.430950653772662e-05</v>
+        <v>1.432114221641398e-05</v>
       </c>
     </row>
     <row r="1019">
@@ -11573,7 +11573,7 @@
         <v>4.59042511805951</v>
       </c>
       <c r="C1019" t="n">
-        <v>1.299784611849075e-05</v>
+        <v>1.300124701843255e-05</v>
       </c>
     </row>
     <row r="1020">
@@ -11584,7 +11584,7 @@
         <v>4.59141095311311</v>
       </c>
       <c r="C1020" t="n">
-        <v>1.204038386839081e-05</v>
+        <v>1.203541102369061e-05</v>
       </c>
     </row>
     <row r="1021">
@@ -11595,7 +11595,7 @@
         <v>4.59239678816671</v>
       </c>
       <c r="C1021" t="n">
-        <v>1.146217105464322e-05</v>
+        <v>1.144983195967452e-05</v>
       </c>
     </row>
     <row r="1022">
@@ -11606,7 +11606,7 @@
         <v>4.593382623220308</v>
       </c>
       <c r="C1022" t="n">
-        <v>1.13091174038741e-05</v>
+        <v>1.129181270334953e-05</v>
       </c>
     </row>
     <row r="1023">
@@ -11617,7 +11617,7 @@
         <v>4.594368458273908</v>
       </c>
       <c r="C1023" t="n">
-        <v>1.164179560246852e-05</v>
+        <v>1.162341296635853e-05</v>
       </c>
     </row>
     <row r="1024">
@@ -11628,7 +11628,7 @@
         <v>4.595354293327507</v>
       </c>
       <c r="C1024" t="n">
-        <v>1.240510063641491e-05</v>
+        <v>1.238913772034526e-05</v>
       </c>
     </row>
     <row r="1025">
@@ -11639,7 +11639,7 @@
         <v>4.596340128381106</v>
       </c>
       <c r="C1025" t="n">
-        <v>1.349718621042157e-05</v>
+        <v>1.348599734269561e-05</v>
       </c>
     </row>
     <row r="1026">
@@ -11650,7 +11650,7 @@
         <v>4.597325963434706</v>
       </c>
       <c r="C1026" t="n">
-        <v>1.481609300854001e-05</v>
+        <v>1.481088736862406e-05</v>
       </c>
     </row>
     <row r="1027">
@@ -11661,7 +11661,7 @@
         <v>4.598311798488306</v>
       </c>
       <c r="C1027" t="n">
-        <v>1.625914467535982e-05</v>
+        <v>1.626000552728363e-05</v>
       </c>
     </row>
     <row r="1028">
@@ -11672,7 +11672,7 @@
         <v>4.599297633541904</v>
       </c>
       <c r="C1028" t="n">
-        <v>1.77070985857946e-05</v>
+        <v>1.771342764100017e-05</v>
       </c>
     </row>
     <row r="1029">
@@ -11683,7 +11683,7 @@
         <v>4.600283468595504</v>
       </c>
       <c r="C1029" t="n">
-        <v>1.902410442722708e-05</v>
+        <v>1.903506731838335e-05</v>
       </c>
     </row>
     <row r="1030">
@@ -11694,7 +11694,7 @@
         <v>4.601269303649103</v>
       </c>
       <c r="C1030" t="n">
-        <v>2.007358656398462e-05</v>
+        <v>2.008813230058143e-05</v>
       </c>
     </row>
     <row r="1031">
@@ -11705,7 +11705,7 @@
         <v>4.602255138702702</v>
       </c>
       <c r="C1031" t="n">
-        <v>2.071896936039868e-05</v>
+        <v>2.073583032874678e-05</v>
       </c>
     </row>
     <row r="1032">
@@ -11716,7 +11716,7 @@
         <v>4.603240973756302</v>
       </c>
       <c r="C1032" t="n">
-        <v>2.082378234334843e-05</v>
+        <v>2.08414741828825e-05</v>
       </c>
     </row>
     <row r="1033">
@@ -11727,7 +11727,7 @@
         <v>4.604226808809901</v>
       </c>
       <c r="C1033" t="n">
-        <v>2.036085384459794e-05</v>
+        <v>2.03775468856321e-05</v>
       </c>
     </row>
     <row r="1034">
@@ -11738,7 +11738,7 @@
         <v>4.6052126438635</v>
       </c>
       <c r="C1034" t="n">
-        <v>1.961900068354482e-05</v>
+        <v>1.963214826718652e-05</v>
       </c>
     </row>
     <row r="1035">
@@ -11749,7 +11749,7 @@
         <v>4.6061984789171</v>
       </c>
       <c r="C1035" t="n">
-        <v>1.894380966984286e-05</v>
+        <v>1.895008137253844e-05</v>
       </c>
     </row>
     <row r="1036">
@@ -11760,7 +11760,7 @@
         <v>4.607184313970698</v>
       </c>
       <c r="C1036" t="n">
-        <v>1.866239496197073e-05</v>
+        <v>1.865781180791226e-05</v>
       </c>
     </row>
     <row r="1037">
@@ -11771,7 +11771,7 @@
         <v>4.608170149024298</v>
       </c>
       <c r="C1037" t="n">
-        <v>1.875528629070612e-05</v>
+        <v>1.873775761100675e-05</v>
       </c>
     </row>
     <row r="1038">
@@ -11782,7 +11782,7 @@
         <v>4.609155984077898</v>
       </c>
       <c r="C1038" t="n">
-        <v>1.889503915062898e-05</v>
+        <v>1.88666168313632e-05</v>
       </c>
     </row>
     <row r="1039">
@@ -11793,7 +11793,7 @@
         <v>4.610141819131496</v>
       </c>
       <c r="C1039" t="n">
-        <v>1.874349220798906e-05</v>
+        <v>1.871044913308304e-05</v>
       </c>
     </row>
     <row r="1040">
@@ -11804,7 +11804,7 @@
         <v>4.611127654185096</v>
       </c>
       <c r="C1040" t="n">
-        <v>1.803893859346926e-05</v>
+        <v>1.801061849490806e-05</v>
       </c>
     </row>
     <row r="1041">
@@ -11815,7 +11815,7 @@
         <v>4.612113489238695</v>
       </c>
       <c r="C1041" t="n">
-        <v>1.68433171802762e-05</v>
+        <v>1.682726584350189e-05</v>
       </c>
     </row>
     <row r="1042">
@@ -11826,7 +11826,7 @@
         <v>4.613099324292294</v>
       </c>
       <c r="C1042" t="n">
-        <v>1.530419203373205e-05</v>
+        <v>1.530486918716248e-05</v>
       </c>
     </row>
     <row r="1043">
@@ -11837,7 +11837,7 @@
         <v>4.614085159345894</v>
       </c>
       <c r="C1043" t="n">
-        <v>1.356912776420718e-05</v>
+        <v>1.358790707103651e-05</v>
       </c>
     </row>
     <row r="1044">
@@ -11848,7 +11848,7 @@
         <v>4.615070994399493</v>
       </c>
       <c r="C1044" t="n">
-        <v>1.178568898207266e-05</v>
+        <v>1.182085804027134e-05</v>
       </c>
     </row>
     <row r="1045">
@@ -11859,7 +11859,7 @@
         <v>4.616056829453092</v>
       </c>
       <c r="C1045" t="n">
-        <v>1.010143040067677e-05</v>
+        <v>1.014819100098773e-05</v>
       </c>
     </row>
     <row r="1046">
@@ -11870,7 +11870,7 @@
         <v>4.617042664506692</v>
       </c>
       <c r="C1046" t="n">
-        <v>8.628420566263394e-06</v>
+        <v>8.679813748018457e-06</v>
       </c>
     </row>
     <row r="1047">
@@ -11881,7 +11881,7 @@
         <v>4.618028499560291</v>
       </c>
       <c r="C1047" t="n">
-        <v>7.36350901474713e-06</v>
+        <v>7.413418602860494e-06</v>
       </c>
     </row>
     <row r="1048">
@@ -11892,7 +11892,7 @@
         <v>4.61901433461389</v>
       </c>
       <c r="C1048" t="n">
-        <v>6.280201621958507e-06</v>
+        <v>6.323962751044586e-06</v>
       </c>
     </row>
     <row r="1049">
@@ -11903,7 +11903,7 @@
         <v>4.62000016966749</v>
       </c>
       <c r="C1049" t="n">
-        <v>5.352004263731546e-06</v>
+        <v>5.386403378104963e-06</v>
       </c>
     </row>
     <row r="1050">
@@ -11914,7 +11914,7 @@
         <v>4.620986004721089</v>
       </c>
       <c r="C1050" t="n">
-        <v>4.552422815899707e-06</v>
+        <v>4.575697669575307e-06</v>
       </c>
     </row>
     <row r="1051">
@@ -11925,7 +11925,7 @@
         <v>4.621971839774688</v>
       </c>
       <c r="C1051" t="n">
-        <v>3.854963154294363e-06</v>
+        <v>3.866802810987179e-06</v>
       </c>
     </row>
     <row r="1052">
@@ -11936,7 +11936,7 @@
         <v>4.622957674828287</v>
       </c>
       <c r="C1052" t="n">
-        <v>3.23313177678708e-06</v>
+        <v>3.234676609652948e-06</v>
       </c>
     </row>
     <row r="1053">
@@ -11947,7 +11947,7 @@
         <v>4.623943509881887</v>
       </c>
       <c r="C1053" t="n">
-        <v>2.689432409657572e-06</v>
+        <v>2.683260543206909e-06</v>
       </c>
     </row>
     <row r="1054">
@@ -11958,7 +11958,7 @@
         <v>4.624929344935486</v>
       </c>
       <c r="C1054" t="n">
-        <v>2.291014633550659e-06</v>
+        <v>2.280555832041342e-06</v>
       </c>
     </row>
     <row r="1055">
@@ -11969,7 +11969,7 @@
         <v>4.625915179989086</v>
       </c>
       <c r="C1055" t="n">
-        <v>2.023798885616016e-06</v>
+        <v>2.011968465049417e-06</v>
       </c>
     </row>
     <row r="1056">
@@ -11980,7 +11980,7 @@
         <v>4.626901015042685</v>
       </c>
       <c r="C1056" t="n">
-        <v>1.857422448332868e-06</v>
+        <v>1.846412517555172e-06</v>
       </c>
     </row>
     <row r="1057">
@@ -11991,7 +11991,7 @@
         <v>4.627886850096284</v>
       </c>
       <c r="C1057" t="n">
-        <v>1.761522604180052e-06</v>
+        <v>1.75280206488226e-06</v>
       </c>
     </row>
     <row r="1058">
@@ -12002,7 +12002,7 @@
         <v>4.628872685149883</v>
       </c>
       <c r="C1058" t="n">
-        <v>1.705736635636914e-06</v>
+        <v>1.700051182354836e-06</v>
       </c>
     </row>
     <row r="1059">
@@ -12013,7 +12013,7 @@
         <v>4.629858520203483</v>
       </c>
       <c r="C1059" t="n">
-        <v>1.663884846217231e-06</v>
+        <v>1.661351899046991e-06</v>
       </c>
     </row>
     <row r="1060">
@@ -12024,7 +12024,7 @@
         <v>4.630844355257082</v>
       </c>
       <c r="C1060" t="n">
-        <v>1.629620101454731e-06</v>
+        <v>1.630178901558409e-06</v>
       </c>
     </row>
     <row r="1061">
@@ -12035,7 +12035,7 @@
         <v>4.631830190310681</v>
       </c>
       <c r="C1061" t="n">
-        <v>1.602466994938285e-06</v>
+        <v>1.606011862082973e-06</v>
       </c>
     </row>
     <row r="1062">
@@ -12046,7 +12046,7 @@
         <v>4.63281602536428</v>
       </c>
       <c r="C1062" t="n">
-        <v>1.581951021624219e-06</v>
+        <v>1.588331374638364e-06</v>
       </c>
     </row>
     <row r="1063">
@@ -12057,7 +12057,7 @@
         <v>4.63380186041788</v>
       </c>
       <c r="C1063" t="n">
-        <v>1.567597676468938e-06</v>
+        <v>1.576618033242333e-06</v>
       </c>
     </row>
     <row r="1064">
@@ -12068,7 +12068,7 @@
         <v>4.634787695471479</v>
       </c>
       <c r="C1064" t="n">
-        <v>1.558932454428822e-06</v>
+        <v>1.570352431912608e-06</v>
       </c>
     </row>
     <row r="1065">
@@ -12079,7 +12079,7 @@
         <v>4.635773530525078</v>
       </c>
       <c r="C1065" t="n">
-        <v>1.555480850460233e-06</v>
+        <v>1.569015164666905e-06</v>
       </c>
     </row>
     <row r="1066">
@@ -12090,7 +12090,7 @@
         <v>4.636759365578678</v>
       </c>
       <c r="C1066" t="n">
-        <v>1.556768359519558e-06</v>
+        <v>1.572086825522955e-06</v>
       </c>
     </row>
     <row r="1067">
@@ -12101,7 +12101,7 @@
         <v>4.637745200632277</v>
       </c>
       <c r="C1067" t="n">
-        <v>1.562320476563167e-06</v>
+        <v>1.579048008498476e-06</v>
       </c>
     </row>
     <row r="1068">
@@ -12112,7 +12112,7 @@
         <v>4.638731035685876</v>
       </c>
       <c r="C1068" t="n">
-        <v>1.571662696547445e-06</v>
+        <v>1.589379307611207e-06</v>
       </c>
     </row>
     <row r="1069">
@@ -12123,7 +12123,7 @@
         <v>4.639716870739475</v>
       </c>
       <c r="C1069" t="n">
-        <v>1.584320514428754e-06</v>
+        <v>1.602561316878856e-06</v>
       </c>
     </row>
     <row r="1070">
@@ -12134,7 +12134,7 @@
         <v>4.640702705793075</v>
       </c>
       <c r="C1070" t="n">
-        <v>1.599819550100666e-06</v>
+        <v>1.618074921105992e-06</v>
       </c>
     </row>
     <row r="1071">
@@ -12145,7 +12145,7 @@
         <v>4.641688540846674</v>
       </c>
       <c r="C1071" t="n">
-        <v>1.617709431573526e-06</v>
+        <v>1.635456883134101e-06</v>
       </c>
     </row>
     <row r="1072">
@@ -12156,7 +12156,7 @@
         <v>4.642674375900273</v>
       </c>
       <c r="C1072" t="n">
-        <v>1.637592183264264e-06</v>
+        <v>1.654365916575198e-06</v>
       </c>
     </row>
     <row r="1073">
@@ -12167,7 +12167,7 @@
         <v>4.643660210953873</v>
       </c>
       <c r="C1073" t="n">
-        <v>1.659076741480435e-06</v>
+        <v>1.674476822220524e-06</v>
       </c>
     </row>
     <row r="1074">
@@ -12178,7 +12178,7 @@
         <v>4.644646046007472</v>
       </c>
       <c r="C1074" t="n">
-        <v>1.68177204252954e-06</v>
+        <v>1.69546440086127e-06</v>
       </c>
     </row>
     <row r="1075">
@@ -12189,7 +12189,7 @@
         <v>4.645631881061071</v>
       </c>
       <c r="C1075" t="n">
-        <v>1.705287022719079e-06</v>
+        <v>1.717003453288625e-06</v>
       </c>
     </row>
     <row r="1076">
@@ -12200,7 +12200,7 @@
         <v>4.646617716114671</v>
       </c>
       <c r="C1076" t="n">
-        <v>1.729230618356611e-06</v>
+        <v>1.738768780293833e-06</v>
       </c>
     </row>
     <row r="1077">
@@ -12211,7 +12211,7 @@
         <v>4.64760355116827</v>
       </c>
       <c r="C1077" t="n">
-        <v>1.753211765749636e-06</v>
+        <v>1.760435182668082e-06</v>
       </c>
     </row>
     <row r="1078">
@@ -12222,7 +12222,7 @@
         <v>4.648589386221869</v>
       </c>
       <c r="C1078" t="n">
-        <v>1.776839401205651e-06</v>
+        <v>1.781677461202562e-06</v>
       </c>
     </row>
     <row r="1079">
@@ -12233,7 +12233,7 @@
         <v>4.649575221275469</v>
       </c>
       <c r="C1079" t="n">
-        <v>1.799722461032218e-06</v>
+        <v>1.802170416688517e-06</v>
       </c>
     </row>
     <row r="1080">
@@ -12244,7 +12244,7 @@
         <v>4.650561056329067</v>
       </c>
       <c r="C1080" t="n">
-        <v>1.821469881536817e-06</v>
+        <v>1.821588849917119e-06</v>
       </c>
     </row>
     <row r="1081">
@@ -12255,7 +12255,7 @@
         <v>4.651546891382667</v>
       </c>
       <c r="C1081" t="n">
-        <v>1.841690599027004e-06</v>
+        <v>1.839607561679609e-06</v>
       </c>
     </row>
     <row r="1082">
@@ -12266,7 +12266,7 @@
         <v>4.652532726436267</v>
       </c>
       <c r="C1082" t="n">
-        <v>1.85999354981028e-06</v>
+        <v>1.855901352767177e-06</v>
       </c>
     </row>
     <row r="1083">
@@ -12277,7 +12277,7 @@
         <v>4.653518561489865</v>
       </c>
       <c r="C1083" t="n">
-        <v>1.87598767019415e-06</v>
+        <v>1.870145023971018e-06</v>
       </c>
     </row>
     <row r="1084">
@@ -12288,7 +12288,7 @@
         <v>4.654504396543465</v>
       </c>
       <c r="C1084" t="n">
-        <v>1.889281896486162e-06</v>
+        <v>1.882013376082365e-06</v>
       </c>
     </row>
     <row r="1085">
@@ -12299,7 +12299,7 @@
         <v>4.655490231597065</v>
       </c>
       <c r="C1085" t="n">
-        <v>1.899485164993819e-06</v>
+        <v>1.891181209892411e-06</v>
       </c>
     </row>
     <row r="1086">
@@ -12310,7 +12310,7 @@
         <v>4.656476066650663</v>
       </c>
       <c r="C1086" t="n">
-        <v>1.906206412024636e-06</v>
+        <v>1.897323326192359e-06</v>
       </c>
     </row>
     <row r="1087">
@@ -12321,7 +12321,7 @@
         <v>4.657461901704263</v>
       </c>
       <c r="C1087" t="n">
-        <v>1.909054573886145e-06</v>
+        <v>1.900114525773429e-06</v>
       </c>
     </row>
     <row r="1088">
@@ -12332,7 +12332,7 @@
         <v>4.658447736757863</v>
       </c>
       <c r="C1088" t="n">
-        <v>1.907638586885856e-06</v>
+        <v>1.899229609426818e-06</v>
       </c>
     </row>
     <row r="1089">
@@ -12343,7 +12343,7 @@
         <v>4.659433571811461</v>
       </c>
       <c r="C1089" t="n">
-        <v>1.901981116317263e-06</v>
+        <v>1.894726130214585e-06</v>
       </c>
     </row>
     <row r="1090">
@@ -12354,7 +12354,7 @@
         <v>4.660419406865061</v>
       </c>
       <c r="C1090" t="n">
-        <v>1.894013118836211e-06</v>
+        <v>1.888427054977252e-06</v>
       </c>
     </row>
     <row r="1091">
@@ -12365,7 +12365,7 @@
         <v>4.66140524191866</v>
       </c>
       <c r="C1091" t="n">
-        <v>1.886215375618656e-06</v>
+        <v>1.88266400861599e-06</v>
       </c>
     </row>
     <row r="1092">
@@ -12376,7 +12376,7 @@
         <v>4.662391076972259</v>
       </c>
       <c r="C1092" t="n">
-        <v>1.881068718893388e-06</v>
+        <v>1.879768663262384e-06</v>
       </c>
     </row>
     <row r="1093">
@@ -12387,7 +12387,7 @@
         <v>4.663376912025859</v>
       </c>
       <c r="C1093" t="n">
-        <v>1.881053980889225e-06</v>
+        <v>1.882072691048036e-06</v>
       </c>
     </row>
     <row r="1094">
@@ -12398,7 +12398,7 @@
         <v>4.664362747079458</v>
       </c>
       <c r="C1094" t="n">
-        <v>1.888651993834972e-06</v>
+        <v>1.891907764104544e-06</v>
       </c>
     </row>
     <row r="1095">
@@ -12409,7 +12409,7 @@
         <v>4.665348582133057</v>
       </c>
       <c r="C1095" t="n">
-        <v>1.906343589959417e-06</v>
+        <v>1.911605554563482e-06</v>
       </c>
     </row>
     <row r="1096">
@@ -12420,7 +12420,7 @@
         <v>4.666334417186657</v>
       </c>
       <c r="C1096" t="n">
-        <v>1.936609601491397e-06</v>
+        <v>1.94349773455648e-06</v>
       </c>
     </row>
     <row r="1097">
@@ -12431,7 +12431,7 @@
         <v>4.667320252240255</v>
       </c>
       <c r="C1097" t="n">
-        <v>1.981930860659661e-06</v>
+        <v>1.989915976215073e-06</v>
       </c>
     </row>
     <row r="1098">
@@ -12442,7 +12442,7 @@
         <v>4.668306087293855</v>
       </c>
       <c r="C1098" t="n">
-        <v>2.044788199693097e-06</v>
+        <v>2.053191951670942e-06</v>
       </c>
     </row>
     <row r="1099">
@@ -12453,7 +12453,7 @@
         <v>4.669291922347455</v>
       </c>
       <c r="C1099" t="n">
-        <v>2.127662450820478e-06</v>
+        <v>2.135657333055647e-06</v>
       </c>
     </row>
     <row r="1100">
@@ -12464,7 +12464,7 @@
         <v>4.670277757401053</v>
       </c>
       <c r="C1100" t="n">
-        <v>2.233034446270506e-06</v>
+        <v>2.239643792500683e-06</v>
       </c>
     </row>
     <row r="1101">
@@ -12475,7 +12475,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C1101" t="n">
-        <v>2.363385018272177e-06</v>
+        <v>2.367483002137831e-06</v>
       </c>
     </row>
   </sheetData>
